--- a/supplementary_files/mid.xlsx
+++ b/supplementary_files/mid.xlsx
@@ -9,12 +9,12 @@
   <sheets>
     <sheet name="midi" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="162913"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="324" uniqueCount="192">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="312" uniqueCount="180">
   <si>
     <t>Midi-номер в частоту</t>
   </si>
@@ -554,48 +554,12 @@
   </si>
   <si>
     <t>m7</t>
-  </si>
-  <si>
-    <t>Cs</t>
-  </si>
-  <si>
-    <t>C</t>
-  </si>
-  <si>
-    <t>D</t>
-  </si>
-  <si>
-    <t>Ds</t>
-  </si>
-  <si>
-    <t>E</t>
-  </si>
-  <si>
-    <t>F</t>
-  </si>
-  <si>
-    <t>Fs</t>
-  </si>
-  <si>
-    <t>G</t>
-  </si>
-  <si>
-    <t>Gs</t>
-  </si>
-  <si>
-    <t>A</t>
-  </si>
-  <si>
-    <t>As</t>
-  </si>
-  <si>
-    <t>B</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -620,16 +584,17 @@
     </font>
     <font>
       <sz val="8"/>
-      <name val="Segoe UI"/>
-      <family val="2"/>
-      <charset val="204"/>
-    </font>
-    <font>
-      <sz val="8"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <color rgb="FF000000"/>
+      <name val="Segoe UI"/>
+      <family val="2"/>
+      <charset val="204"/>
     </font>
   </fonts>
   <fills count="3">
@@ -728,15 +693,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -747,25 +703,19 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -778,13 +728,28 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -805,7 +770,7 @@
 </file>
 
 <file path=xl/ctrlProps/ctrlProp1.xml><?xml version="1.0" encoding="utf-8"?>
-<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" checked="Checked" fmlaLink="$G$3" lockText="1" noThreeD="1"/>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" fmlaLink="$G$3" lockText="1" noThreeD="1"/>
 </file>
 
 <file path=xl/ctrlProps/ctrlProp2.xml><?xml version="1.0" encoding="utf-8"?>
@@ -813,11 +778,11 @@
 </file>
 
 <file path=xl/ctrlProps/ctrlProp3.xml><?xml version="1.0" encoding="utf-8"?>
-<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" fmlaLink="$G$5" lockText="1" noThreeD="1"/>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" checked="Checked" fmlaLink="$G$5" lockText="1" noThreeD="1"/>
 </file>
 
 <file path=xl/ctrlProps/ctrlProp4.xml><?xml version="1.0" encoding="utf-8"?>
-<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" checked="Checked" fmlaLink="$K$3" lockText="1" noThreeD="1"/>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" fmlaLink="$K$3" lockText="1" noThreeD="1"/>
 </file>
 
 <file path=xl/ctrlProps/ctrlProp5.xml><?xml version="1.0" encoding="utf-8"?>
@@ -825,7 +790,7 @@
 </file>
 
 <file path=xl/ctrlProps/ctrlProp6.xml><?xml version="1.0" encoding="utf-8"?>
-<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" fmlaLink="$K$5" lockText="1" noThreeD="1"/>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" checked="Checked" fmlaLink="$K$5" lockText="1" noThreeD="1"/>
 </file>
 
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -949,15 +914,15 @@
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>6</xdr:col>
-          <xdr:colOff>147270</xdr:colOff>
+          <xdr:colOff>142875</xdr:colOff>
           <xdr:row>2</xdr:row>
-          <xdr:rowOff>90121</xdr:rowOff>
+          <xdr:rowOff>85725</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>8</xdr:col>
-          <xdr:colOff>165589</xdr:colOff>
+          <xdr:colOff>161925</xdr:colOff>
           <xdr:row>3</xdr:row>
-          <xdr:rowOff>99646</xdr:rowOff>
+          <xdr:rowOff>95250</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -1032,15 +997,15 @@
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>6</xdr:col>
-          <xdr:colOff>147271</xdr:colOff>
+          <xdr:colOff>142875</xdr:colOff>
           <xdr:row>3</xdr:row>
-          <xdr:rowOff>90121</xdr:rowOff>
+          <xdr:rowOff>85725</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>8</xdr:col>
-          <xdr:colOff>165589</xdr:colOff>
+          <xdr:colOff>161925</xdr:colOff>
           <xdr:row>4</xdr:row>
-          <xdr:rowOff>99646</xdr:rowOff>
+          <xdr:rowOff>95250</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -1115,15 +1080,15 @@
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>6</xdr:col>
-          <xdr:colOff>147271</xdr:colOff>
+          <xdr:colOff>142875</xdr:colOff>
           <xdr:row>4</xdr:row>
-          <xdr:rowOff>90121</xdr:rowOff>
+          <xdr:rowOff>85725</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>8</xdr:col>
-          <xdr:colOff>165589</xdr:colOff>
+          <xdr:colOff>161925</xdr:colOff>
           <xdr:row>5</xdr:row>
-          <xdr:rowOff>99646</xdr:rowOff>
+          <xdr:rowOff>95250</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -1735,7 +1700,7 @@
   <dimension ref="A1:AC146"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="T24" sqref="T24"/>
+      <selection activeCell="Z15" sqref="Z15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1752,43 +1717,43 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:29" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="9" t="s">
+      <c r="A1" s="27" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="9"/>
-      <c r="C1" s="14" t="s">
+      <c r="B1" s="27"/>
+      <c r="C1" s="21" t="s">
         <v>171</v>
       </c>
-      <c r="D1" s="14"/>
-      <c r="E1" s="14"/>
-      <c r="F1" s="15"/>
-      <c r="G1" s="17" t="s">
+      <c r="D1" s="21"/>
+      <c r="E1" s="21"/>
+      <c r="F1" s="11"/>
+      <c r="G1" s="20" t="s">
         <v>173</v>
       </c>
-      <c r="H1" s="14"/>
-      <c r="I1" s="14"/>
-      <c r="J1" s="12"/>
-      <c r="K1" s="17" t="s">
+      <c r="H1" s="21"/>
+      <c r="I1" s="21"/>
+      <c r="J1" s="9"/>
+      <c r="K1" s="20" t="s">
         <v>174</v>
       </c>
-      <c r="L1" s="14"/>
-      <c r="M1" s="14"/>
-      <c r="N1" s="14"/>
-      <c r="O1" s="14"/>
-      <c r="P1" s="14"/>
-      <c r="Q1" s="12"/>
-      <c r="R1" s="12"/>
-      <c r="S1" s="12"/>
-      <c r="T1" s="12"/>
-      <c r="U1" s="12"/>
-      <c r="V1" s="12"/>
-      <c r="W1" s="12"/>
-      <c r="X1" s="12"/>
-      <c r="Y1" s="12"/>
-      <c r="Z1" s="12"/>
-      <c r="AA1" s="12"/>
-      <c r="AB1" s="11"/>
-      <c r="AC1" s="11"/>
+      <c r="L1" s="21"/>
+      <c r="M1" s="21"/>
+      <c r="N1" s="21"/>
+      <c r="O1" s="21"/>
+      <c r="P1" s="21"/>
+      <c r="Q1" s="9"/>
+      <c r="R1" s="9"/>
+      <c r="S1" s="9"/>
+      <c r="T1" s="9"/>
+      <c r="U1" s="9"/>
+      <c r="V1" s="9"/>
+      <c r="W1" s="9"/>
+      <c r="X1" s="9"/>
+      <c r="Y1" s="9"/>
+      <c r="Z1" s="9"/>
+      <c r="AA1" s="9"/>
+      <c r="AB1" s="8"/>
+      <c r="AC1" s="8"/>
     </row>
     <row r="2" spans="1:29" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
@@ -1797,29 +1762,29 @@
       <c r="B2" s="2" t="s">
         <v>142</v>
       </c>
-      <c r="C2" s="14"/>
-      <c r="D2" s="14"/>
-      <c r="E2" s="14"/>
-      <c r="F2" s="15"/>
-      <c r="G2" s="14"/>
-      <c r="H2" s="14"/>
-      <c r="I2" s="14"/>
-      <c r="J2" s="12"/>
-      <c r="K2" s="14"/>
-      <c r="L2" s="14"/>
-      <c r="M2" s="14"/>
-      <c r="N2" s="14"/>
-      <c r="O2" s="14"/>
-      <c r="P2" s="14"/>
-      <c r="Q2" s="12"/>
-      <c r="V2" s="12"/>
-      <c r="W2" s="12"/>
-      <c r="X2" s="12"/>
-      <c r="Y2" s="12"/>
-      <c r="Z2" s="12"/>
-      <c r="AA2" s="12"/>
-      <c r="AB2" s="11"/>
-      <c r="AC2" s="11"/>
+      <c r="C2" s="21"/>
+      <c r="D2" s="21"/>
+      <c r="E2" s="21"/>
+      <c r="F2" s="11"/>
+      <c r="G2" s="21"/>
+      <c r="H2" s="21"/>
+      <c r="I2" s="21"/>
+      <c r="J2" s="9"/>
+      <c r="K2" s="21"/>
+      <c r="L2" s="21"/>
+      <c r="M2" s="21"/>
+      <c r="N2" s="21"/>
+      <c r="O2" s="21"/>
+      <c r="P2" s="21"/>
+      <c r="Q2" s="9"/>
+      <c r="V2" s="9"/>
+      <c r="W2" s="9"/>
+      <c r="X2" s="9"/>
+      <c r="Y2" s="9"/>
+      <c r="Z2" s="9"/>
+      <c r="AA2" s="9"/>
+      <c r="AB2" s="8"/>
+      <c r="AC2" s="8"/>
     </row>
     <row r="3" spans="1:29" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="2">
@@ -1829,7 +1794,7 @@
         <f>2^((A3-69)/12)*440</f>
         <v>8.175798915643707</v>
       </c>
-      <c r="C3" s="8" t="s">
+      <c r="C3" s="25" t="s">
         <v>144</v>
       </c>
       <c r="D3" s="6" t="s">
@@ -1838,41 +1803,28 @@
       <c r="E3" s="6" t="s">
         <v>145</v>
       </c>
-      <c r="G3" s="20" t="b">
-        <v>1</v>
-      </c>
-      <c r="H3" s="20"/>
-      <c r="I3" s="20"/>
-      <c r="J3" s="12"/>
-      <c r="K3" s="27" t="b">
-        <v>1</v>
-      </c>
-      <c r="L3" s="12"/>
-      <c r="M3" s="12"/>
-      <c r="N3" s="12"/>
-      <c r="O3" s="12"/>
-      <c r="P3" s="12"/>
-      <c r="Q3" s="12"/>
-      <c r="R3" s="10" t="s">
-        <v>175</v>
-      </c>
-      <c r="S3" s="10">
-        <v>1</v>
-      </c>
-      <c r="T3" s="10">
-        <v>5</v>
-      </c>
-      <c r="U3" s="10">
-        <v>8</v>
-      </c>
-      <c r="V3" s="10"/>
-      <c r="W3" s="12"/>
-      <c r="X3" s="12"/>
-      <c r="Y3" s="12"/>
-      <c r="Z3" s="12"/>
-      <c r="AA3" s="12"/>
-      <c r="AB3" s="11"/>
-      <c r="AC3" s="11"/>
+      <c r="G3" s="14" t="b">
+        <v>0</v>
+      </c>
+      <c r="H3" s="14"/>
+      <c r="I3" s="14"/>
+      <c r="J3" s="9"/>
+      <c r="K3" s="15" t="b">
+        <v>0</v>
+      </c>
+      <c r="L3" s="9"/>
+      <c r="M3" s="9"/>
+      <c r="N3" s="9"/>
+      <c r="O3" s="9"/>
+      <c r="P3" s="9"/>
+      <c r="Q3" s="9"/>
+      <c r="W3" s="9"/>
+      <c r="X3" s="9"/>
+      <c r="Y3" s="9"/>
+      <c r="Z3" s="9"/>
+      <c r="AA3" s="9"/>
+      <c r="AB3" s="8"/>
+      <c r="AC3" s="8"/>
     </row>
     <row r="4" spans="1:29" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="2">
@@ -1883,46 +1835,31 @@
         <f>2^((A4-69)/12)*440</f>
         <v>8.6619572180272524</v>
       </c>
-      <c r="C4" s="8"/>
+      <c r="C4" s="25"/>
       <c r="D4" s="6" t="s">
         <v>2</v>
       </c>
       <c r="E4" s="6" t="s">
         <v>146</v>
       </c>
-      <c r="G4" s="20" t="b">
+      <c r="G4" s="14" t="b">
         <v>0</v>
       </c>
-      <c r="H4" s="20"/>
-      <c r="I4" s="20"/>
-      <c r="J4" s="12"/>
-      <c r="K4" s="27" t="b">
+      <c r="H4" s="14"/>
+      <c r="I4" s="14"/>
+      <c r="J4" s="9"/>
+      <c r="K4" s="15" t="b">
         <v>0</v>
       </c>
-      <c r="L4" s="12"/>
-      <c r="M4" s="12"/>
-      <c r="R4" s="10" t="s">
-        <v>176</v>
-      </c>
-      <c r="S4" s="10">
-        <v>1</v>
-      </c>
-      <c r="T4" s="10">
-        <v>4</v>
-      </c>
-      <c r="U4" s="10">
-        <v>8</v>
-      </c>
-      <c r="V4" s="10" t="s">
-        <v>178</v>
-      </c>
-      <c r="W4" s="12"/>
-      <c r="X4" s="12"/>
-      <c r="Y4" s="12"/>
-      <c r="Z4" s="12"/>
-      <c r="AA4" s="12"/>
-      <c r="AB4" s="11"/>
-      <c r="AC4" s="11"/>
+      <c r="L4" s="9"/>
+      <c r="M4" s="9"/>
+      <c r="W4" s="9"/>
+      <c r="X4" s="9"/>
+      <c r="Y4" s="9"/>
+      <c r="Z4" s="9"/>
+      <c r="AA4" s="9"/>
+      <c r="AB4" s="8"/>
+      <c r="AC4" s="8"/>
     </row>
     <row r="5" spans="1:29" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="2">
@@ -1933,46 +1870,31 @@
         <f t="shared" ref="B5:B68" si="1">2^((A5-69)/12)*440</f>
         <v>9.1770239974189884</v>
       </c>
-      <c r="C5" s="8"/>
+      <c r="C5" s="25"/>
       <c r="D5" s="6" t="s">
         <v>3</v>
       </c>
       <c r="E5" s="6" t="s">
         <v>147</v>
       </c>
-      <c r="G5" s="20" t="b">
-        <v>0</v>
-      </c>
-      <c r="H5" s="20"/>
-      <c r="I5" s="20"/>
-      <c r="J5" s="12"/>
-      <c r="K5" s="27" t="b">
-        <v>0</v>
-      </c>
-      <c r="L5" s="12"/>
-      <c r="M5" s="12"/>
-      <c r="R5" s="10">
-        <v>7</v>
-      </c>
-      <c r="S5" s="10">
+      <c r="G5" s="14" t="b">
         <v>1</v>
       </c>
-      <c r="T5" s="10">
-        <v>5</v>
-      </c>
-      <c r="U5" s="10">
-        <v>12</v>
-      </c>
-      <c r="V5" s="10">
-        <v>7</v>
-      </c>
-      <c r="W5" s="12"/>
-      <c r="X5" s="12"/>
-      <c r="Y5" s="12"/>
-      <c r="Z5" s="12"/>
-      <c r="AA5" s="12"/>
-      <c r="AB5" s="11"/>
-      <c r="AC5" s="11"/>
+      <c r="H5" s="14"/>
+      <c r="I5" s="14"/>
+      <c r="J5" s="9"/>
+      <c r="K5" s="15" t="b">
+        <v>1</v>
+      </c>
+      <c r="L5" s="9"/>
+      <c r="M5" s="9"/>
+      <c r="W5" s="9"/>
+      <c r="X5" s="9"/>
+      <c r="Y5" s="9"/>
+      <c r="Z5" s="9"/>
+      <c r="AA5" s="9"/>
+      <c r="AB5" s="8"/>
+      <c r="AC5" s="8"/>
     </row>
     <row r="6" spans="1:29" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="2">
@@ -1983,39 +1905,24 @@
         <f t="shared" si="1"/>
         <v>9.722718241315027</v>
       </c>
-      <c r="C6" s="8"/>
+      <c r="C6" s="25"/>
       <c r="D6" s="6" t="s">
         <v>4</v>
       </c>
       <c r="E6" s="6" t="s">
         <v>148</v>
       </c>
-      <c r="G6" s="20"/>
-      <c r="H6" s="20"/>
-      <c r="I6" s="20"/>
-      <c r="J6" s="12"/>
-      <c r="R6" s="10" t="s">
-        <v>177</v>
-      </c>
-      <c r="S6" s="10">
-        <v>1</v>
-      </c>
-      <c r="T6" s="10">
-        <v>4</v>
-      </c>
-      <c r="U6" s="10">
-        <v>11</v>
-      </c>
-      <c r="V6" s="10" t="s">
-        <v>179</v>
-      </c>
-      <c r="W6" s="12"/>
-      <c r="X6" s="12"/>
-      <c r="Y6" s="12"/>
-      <c r="Z6" s="12"/>
-      <c r="AA6" s="12"/>
-      <c r="AB6" s="11"/>
-      <c r="AC6" s="11"/>
+      <c r="G6" s="14"/>
+      <c r="H6" s="14"/>
+      <c r="I6" s="14"/>
+      <c r="J6" s="9"/>
+      <c r="W6" s="9"/>
+      <c r="X6" s="9"/>
+      <c r="Y6" s="9"/>
+      <c r="Z6" s="9"/>
+      <c r="AA6" s="9"/>
+      <c r="AB6" s="8"/>
+      <c r="AC6" s="8"/>
     </row>
     <row r="7" spans="1:29" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="2">
@@ -2026,31 +1933,42 @@
         <f t="shared" si="1"/>
         <v>10.300861153527187</v>
       </c>
-      <c r="C7" s="8"/>
+      <c r="C7" s="25"/>
       <c r="D7" s="6" t="s">
         <v>5</v>
       </c>
       <c r="E7" s="6" t="s">
         <v>149</v>
       </c>
-      <c r="G7" s="20"/>
-      <c r="H7" s="20"/>
-      <c r="I7" s="20"/>
-      <c r="J7" s="13"/>
-      <c r="R7" s="7" t="s">
-        <v>181</v>
-      </c>
-      <c r="S7" s="12"/>
-      <c r="T7" s="12"/>
-      <c r="U7" s="12"/>
-      <c r="V7" s="12"/>
-      <c r="W7" s="12"/>
-      <c r="X7" s="12"/>
-      <c r="Y7" s="12"/>
-      <c r="Z7" s="12"/>
-      <c r="AA7" s="12"/>
-      <c r="AB7" s="11"/>
-      <c r="AC7" s="11"/>
+      <c r="G7" s="14"/>
+      <c r="H7" s="14"/>
+      <c r="I7" s="14"/>
+      <c r="J7" s="10"/>
+      <c r="K7" s="7" t="s">
+        <v>175</v>
+      </c>
+      <c r="L7" s="7">
+        <v>1</v>
+      </c>
+      <c r="M7" s="7">
+        <v>5</v>
+      </c>
+      <c r="N7" s="7">
+        <v>8</v>
+      </c>
+      <c r="O7" s="7"/>
+      <c r="R7" s="3"/>
+      <c r="S7" s="9"/>
+      <c r="T7" s="9"/>
+      <c r="U7" s="9"/>
+      <c r="V7" s="9"/>
+      <c r="W7" s="9"/>
+      <c r="X7" s="9"/>
+      <c r="Y7" s="9"/>
+      <c r="Z7" s="9"/>
+      <c r="AA7" s="9"/>
+      <c r="AB7" s="8"/>
+      <c r="AC7" s="8"/>
     </row>
     <row r="8" spans="1:29" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="2">
@@ -2061,33 +1979,45 @@
         <f t="shared" si="1"/>
         <v>10.913382232281375</v>
       </c>
-      <c r="C8" s="8"/>
+      <c r="C8" s="25"/>
       <c r="D8" s="6" t="s">
         <v>6</v>
       </c>
       <c r="E8" s="6" t="s">
         <v>150</v>
       </c>
-      <c r="G8" s="16" t="s">
+      <c r="G8" s="26" t="s">
         <v>172</v>
       </c>
-      <c r="H8" s="9"/>
-      <c r="I8" s="9"/>
-      <c r="J8" s="12"/>
-      <c r="O8" s="12"/>
-      <c r="P8" s="12"/>
-      <c r="Q8" s="12"/>
-      <c r="R8" s="7" t="s">
-        <v>180</v>
-      </c>
-      <c r="V8" s="12"/>
-      <c r="W8" s="12"/>
-      <c r="X8" s="12"/>
-      <c r="Y8" s="12"/>
-      <c r="Z8" s="12"/>
-      <c r="AA8" s="12"/>
-      <c r="AB8" s="11"/>
-      <c r="AC8" s="11"/>
+      <c r="H8" s="27"/>
+      <c r="I8" s="27"/>
+      <c r="J8" s="9"/>
+      <c r="K8" s="7" t="s">
+        <v>176</v>
+      </c>
+      <c r="L8" s="7">
+        <v>1</v>
+      </c>
+      <c r="M8" s="7">
+        <v>4</v>
+      </c>
+      <c r="N8" s="7">
+        <v>8</v>
+      </c>
+      <c r="O8" s="7" t="s">
+        <v>178</v>
+      </c>
+      <c r="P8" s="9"/>
+      <c r="Q8" s="9"/>
+      <c r="R8" s="3"/>
+      <c r="V8" s="9"/>
+      <c r="W8" s="9"/>
+      <c r="X8" s="9"/>
+      <c r="Y8" s="9"/>
+      <c r="Z8" s="9"/>
+      <c r="AA8" s="9"/>
+      <c r="AB8" s="8"/>
+      <c r="AC8" s="8"/>
     </row>
     <row r="9" spans="1:29" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="2">
@@ -2098,28 +2028,41 @@
         <f t="shared" si="1"/>
         <v>11.562325709738577</v>
       </c>
-      <c r="C9" s="8"/>
+      <c r="C9" s="25"/>
       <c r="D9" s="6" t="s">
         <v>7</v>
       </c>
       <c r="E9" s="6" t="s">
         <v>151</v>
       </c>
-      <c r="G9" s="11"/>
-      <c r="H9" s="11"/>
-      <c r="I9" s="11"/>
-      <c r="J9" s="12"/>
-      <c r="R9" s="7" t="s">
-        <v>182</v>
-      </c>
-      <c r="V9" s="12"/>
-      <c r="W9" s="12"/>
-      <c r="X9" s="12"/>
-      <c r="Y9" s="12"/>
-      <c r="Z9" s="12"/>
-      <c r="AA9" s="12"/>
-      <c r="AB9" s="11"/>
-      <c r="AC9" s="11"/>
+      <c r="G9" s="8"/>
+      <c r="H9" s="8"/>
+      <c r="I9" s="8"/>
+      <c r="J9" s="9"/>
+      <c r="K9" s="7">
+        <v>7</v>
+      </c>
+      <c r="L9" s="7">
+        <v>1</v>
+      </c>
+      <c r="M9" s="7">
+        <v>5</v>
+      </c>
+      <c r="N9" s="7">
+        <v>12</v>
+      </c>
+      <c r="O9" s="7">
+        <v>7</v>
+      </c>
+      <c r="R9" s="3"/>
+      <c r="V9" s="9"/>
+      <c r="W9" s="9"/>
+      <c r="X9" s="9"/>
+      <c r="Y9" s="9"/>
+      <c r="Z9" s="9"/>
+      <c r="AA9" s="9"/>
+      <c r="AB9" s="8"/>
+      <c r="AC9" s="8"/>
     </row>
     <row r="10" spans="1:29" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="2">
@@ -2130,35 +2073,48 @@
         <f t="shared" si="1"/>
         <v>12.249857374429663</v>
       </c>
-      <c r="C10" s="8"/>
+      <c r="C10" s="25"/>
       <c r="D10" s="6" t="s">
         <v>8</v>
       </c>
       <c r="E10" s="6" t="s">
         <v>152</v>
       </c>
-      <c r="G10" s="11"/>
-      <c r="H10" s="21">
+      <c r="G10" s="8"/>
+      <c r="H10" s="16" t="str">
         <f>IF($G$3,$A49,IF($G$4,$D49,IF($G$5,$E49,"ХЗ")))</f>
-        <v>46</v>
-      </c>
-      <c r="I10" s="11"/>
-      <c r="J10" s="12"/>
-      <c r="P10" s="23" t="str">
-        <f>IF($K$3,($L14+36+$S$6-1)&amp;", "&amp;($L14+36+$T$6-1)&amp;", "&amp;($L14+36+$U$6-1),IF($K$4,$R$6,IF($K$5,$R$12&amp;$V$6,"ХЗ")))</f>
-        <v>65, 68, 75</v>
-      </c>
-      <c r="R10" s="7" t="s">
-        <v>183</v>
-      </c>
-      <c r="V10" s="12"/>
-      <c r="W10" s="12"/>
-      <c r="X10" s="12"/>
-      <c r="Y10" s="12"/>
-      <c r="Z10" s="12"/>
-      <c r="AA10" s="12"/>
-      <c r="AB10" s="11"/>
-      <c r="AC10" s="11"/>
+        <v>a2s</v>
+      </c>
+      <c r="I10" s="8"/>
+      <c r="J10" s="9"/>
+      <c r="K10" s="12" t="s">
+        <v>177</v>
+      </c>
+      <c r="L10" s="7">
+        <v>1</v>
+      </c>
+      <c r="M10" s="7">
+        <v>4</v>
+      </c>
+      <c r="N10" s="7">
+        <v>11</v>
+      </c>
+      <c r="O10" s="7" t="s">
+        <v>179</v>
+      </c>
+      <c r="P10" s="18" t="str">
+        <f>IF($K$3,($L14+36+$L$10-1)&amp;", "&amp;($L14+36+$M$10-1)&amp;", "&amp;($L14+36+$N$10-1),IF($K$4,$K$10,IF($K$5,UPPER(MID($L14,1,1))&amp;MID($L14,3,1)&amp;$O$10,"ХЗ")))</f>
+        <v>Fm7</v>
+      </c>
+      <c r="R10" s="3"/>
+      <c r="V10" s="9"/>
+      <c r="W10" s="9"/>
+      <c r="X10" s="9"/>
+      <c r="Y10" s="9"/>
+      <c r="Z10" s="9"/>
+      <c r="AA10" s="9"/>
+      <c r="AB10" s="8"/>
+      <c r="AC10" s="8"/>
     </row>
     <row r="11" spans="1:29" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="2">
@@ -2169,39 +2125,37 @@
         <f t="shared" si="1"/>
         <v>12.978271799373291</v>
       </c>
-      <c r="C11" s="8"/>
+      <c r="C11" s="25"/>
       <c r="D11" s="6" t="s">
         <v>9</v>
       </c>
       <c r="E11" s="6" t="s">
         <v>153</v>
       </c>
-      <c r="G11" s="23">
+      <c r="G11" s="18" t="str">
         <f>IF($G$3,$A50,IF($G$4,$D50,IF($G$5,$E50,"ХЗ")))</f>
-        <v>47</v>
-      </c>
-      <c r="H11" s="22"/>
-      <c r="I11" s="23">
+        <v>b2</v>
+      </c>
+      <c r="H11" s="17"/>
+      <c r="I11" s="18" t="str">
         <f>IF($G$3,$A51,IF($G$4,$D51,IF($G$5,$E51,"ХЗ")))</f>
-        <v>48</v>
-      </c>
-      <c r="J11" s="12"/>
-      <c r="O11" s="23" t="str">
-        <f>IF($K$3,($L14+36+$S$5-1)&amp;", "&amp;($L14+36+$T$5-1)&amp;", "&amp;($L14+36+$U$5-1),IF($K$4,$R$5,IF($K$5,$R$12&amp;$V$5,"ХЗ")))</f>
-        <v>65, 69, 76</v>
-      </c>
-      <c r="P11" s="24"/>
-      <c r="R11" s="7" t="s">
-        <v>184</v>
-      </c>
-      <c r="V11" s="12"/>
-      <c r="W11" s="12"/>
-      <c r="X11" s="12"/>
-      <c r="Y11" s="12"/>
-      <c r="Z11" s="12"/>
-      <c r="AA11" s="12"/>
-      <c r="AB11" s="11"/>
-      <c r="AC11" s="11"/>
+        <v>c3</v>
+      </c>
+      <c r="J11" s="9"/>
+      <c r="O11" s="18" t="str">
+        <f>IF($K$3,($L14+36+$L$9-1)&amp;", "&amp;($L14+36+$M$9-1)&amp;", "&amp;($L14+36+$N$9-1),IF($K$4,$K$9,IF($K$5,UPPER(MID($L14,1,1))&amp;MID($L14,3,1)&amp;$O$9,"ХЗ")))</f>
+        <v>F7</v>
+      </c>
+      <c r="P11" s="19"/>
+      <c r="R11" s="3"/>
+      <c r="V11" s="9"/>
+      <c r="W11" s="9"/>
+      <c r="X11" s="9"/>
+      <c r="Y11" s="9"/>
+      <c r="Z11" s="9"/>
+      <c r="AA11" s="9"/>
+      <c r="AB11" s="8"/>
+      <c r="AC11" s="8"/>
     </row>
     <row r="12" spans="1:29" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="2">
@@ -2212,46 +2166,44 @@
         <f t="shared" si="1"/>
         <v>13.75</v>
       </c>
-      <c r="C12" s="8"/>
+      <c r="C12" s="25"/>
       <c r="D12" s="6" t="s">
         <v>10</v>
       </c>
       <c r="E12" s="6" t="s">
         <v>154</v>
       </c>
-      <c r="G12" s="24"/>
-      <c r="H12" s="21">
+      <c r="G12" s="19"/>
+      <c r="H12" s="16" t="str">
         <f>IF($G$3,$A52,IF($G$4,$D52,IF($G$5,$E52,"ХЗ")))</f>
-        <v>49</v>
-      </c>
-      <c r="I12" s="24"/>
-      <c r="J12" s="12"/>
-      <c r="K12" s="12"/>
-      <c r="L12" s="12"/>
-      <c r="M12" s="12"/>
-      <c r="N12" s="23" t="str">
-        <f>IF($K$3,($L14+36+$S$4-1)&amp;", "&amp;($L14+36+$T$4-1)&amp;", "&amp;($L14+36+$U$4-1),IF($K$4,$R$4,IF($K$5,$R$12&amp;$V$4,"ХЗ")))</f>
-        <v>65, 68, 72</v>
-      </c>
-      <c r="O12" s="24"/>
-      <c r="P12" s="21" t="str">
-        <f t="shared" ref="P12" si="2">IF($K$3,($L16+36+$S$6-1)&amp;", "&amp;($L16+36+$T$6-1)&amp;", "&amp;($L16+36+$U$6-1),IF($K$4,$R$6,IF($K$5,$R$12&amp;$V$6,"ХЗ")))</f>
-        <v>70, 73, 80</v>
-      </c>
-      <c r="R12" s="7" t="s">
-        <v>185</v>
-      </c>
-      <c r="S12" s="12"/>
-      <c r="T12" s="12"/>
-      <c r="U12" s="12"/>
-      <c r="V12" s="12"/>
-      <c r="W12" s="12"/>
-      <c r="X12" s="12"/>
-      <c r="Y12" s="12"/>
-      <c r="Z12" s="12"/>
-      <c r="AA12" s="12"/>
-      <c r="AB12" s="11"/>
-      <c r="AC12" s="11"/>
+        <v>c3s</v>
+      </c>
+      <c r="I12" s="19"/>
+      <c r="J12" s="9"/>
+      <c r="K12" s="9"/>
+      <c r="L12" s="9"/>
+      <c r="M12" s="9"/>
+      <c r="N12" s="18" t="str">
+        <f>IF($K$3,($L14+36+$L$8-1)&amp;", "&amp;($L14+36+$M$8-1)&amp;", "&amp;($L14+36+$N$8-1),IF($K$4,$K$8,IF($K$5,UPPER(MID($L14,1,1))&amp;MID($L14,3,1)&amp;$O$8,"ХЗ")))</f>
+        <v>Fm</v>
+      </c>
+      <c r="O12" s="19"/>
+      <c r="P12" s="16" t="str">
+        <f>IF($K$3,($L16+36+$L$10-1)&amp;", "&amp;($L16+36+$M$10-1)&amp;", "&amp;($L16+36+$N$10-1),IF($K$4,$K$10,IF($K$5,UPPER(MID($L16,1,1))&amp;MID($L16,3,1)&amp;$O$10,"ХЗ")))</f>
+        <v>Asm7</v>
+      </c>
+      <c r="R12" s="3"/>
+      <c r="S12" s="9"/>
+      <c r="T12" s="9"/>
+      <c r="U12" s="9"/>
+      <c r="V12" s="9"/>
+      <c r="W12" s="9"/>
+      <c r="X12" s="9"/>
+      <c r="Y12" s="9"/>
+      <c r="Z12" s="9"/>
+      <c r="AA12" s="9"/>
+      <c r="AB12" s="8"/>
+      <c r="AC12" s="8"/>
     </row>
     <row r="13" spans="1:29" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="2">
@@ -2262,49 +2214,47 @@
         <f t="shared" si="1"/>
         <v>14.567617547440307</v>
       </c>
-      <c r="C13" s="8"/>
+      <c r="C13" s="25"/>
       <c r="D13" s="6" t="s">
         <v>11</v>
       </c>
       <c r="E13" s="6" t="s">
         <v>155</v>
       </c>
-      <c r="G13" s="23">
+      <c r="G13" s="18" t="str">
         <f>IF($G$3,$A53,IF($G$4,$D53,IF($G$5,$E53,"ХЗ")))</f>
-        <v>50</v>
-      </c>
-      <c r="H13" s="22"/>
-      <c r="I13" s="21">
+        <v>d3</v>
+      </c>
+      <c r="H13" s="17"/>
+      <c r="I13" s="16" t="str">
         <f>IF($G$3,$A54,IF($G$4,$D54,IF($G$5,$E54,"ХЗ")))</f>
-        <v>51</v>
-      </c>
-      <c r="J13" s="12"/>
-      <c r="K13" s="12"/>
-      <c r="L13" s="12"/>
-      <c r="M13" s="23" t="str">
-        <f>IF($K$3,($L14+36+$S$3-1)&amp;", "&amp;($L14+36+$T$3-1)&amp;", "&amp;($L14+36+$U$3-1),IF($K$4,$R$3,IF($K$5,$R$12&amp;$V$3,"ХЗ")))</f>
-        <v>65, 69, 72</v>
-      </c>
-      <c r="N13" s="24"/>
-      <c r="O13" s="21" t="str">
-        <f t="shared" ref="O13" si="3">IF($K$3,($L16+36+$S$5-1)&amp;", "&amp;($L16+36+$T$5-1)&amp;", "&amp;($L16+36+$U$5-1),IF($K$4,$R$5,IF($K$5,$R$12&amp;$V$5,"ХЗ")))</f>
-        <v>70, 74, 81</v>
-      </c>
-      <c r="P13" s="22"/>
-      <c r="R13" s="7" t="s">
-        <v>186</v>
-      </c>
-      <c r="S13" s="12"/>
-      <c r="T13" s="12"/>
-      <c r="U13" s="12"/>
-      <c r="V13" s="12"/>
-      <c r="W13" s="12"/>
-      <c r="X13" s="12"/>
-      <c r="Y13" s="12"/>
-      <c r="Z13" s="12"/>
-      <c r="AA13" s="12"/>
-      <c r="AB13" s="11"/>
-      <c r="AC13" s="11"/>
+        <v>d3s</v>
+      </c>
+      <c r="J13" s="9"/>
+      <c r="K13" s="9"/>
+      <c r="L13" s="9"/>
+      <c r="M13" s="18" t="str">
+        <f>IF($K$3,($L14+36+$L$7-1)&amp;", "&amp;($L14+36+$M$7-1)&amp;", "&amp;($L14+36+$N$7-1),IF($K$4,$K$7,IF($K$5,UPPER(MID($L14,1,1))&amp;MID($L14,3,1)&amp;$O$7,"ХЗ")))</f>
+        <v>F</v>
+      </c>
+      <c r="N13" s="19"/>
+      <c r="O13" s="16" t="str">
+        <f>IF($K$3,($L16+36+$L$9-1)&amp;", "&amp;($L16+36+$M$9-1)&amp;", "&amp;($L16+36+$N$9-1),IF($K$4,$K$9,IF($K$5,UPPER(MID($L16,1,1))&amp;MID($L16,3,1)&amp;$O$9,"ХЗ")))</f>
+        <v>As7</v>
+      </c>
+      <c r="P13" s="17"/>
+      <c r="R13" s="3"/>
+      <c r="S13" s="9"/>
+      <c r="T13" s="9"/>
+      <c r="U13" s="9"/>
+      <c r="V13" s="9"/>
+      <c r="W13" s="9"/>
+      <c r="X13" s="9"/>
+      <c r="Y13" s="9"/>
+      <c r="Z13" s="9"/>
+      <c r="AA13" s="9"/>
+      <c r="AB13" s="8"/>
+      <c r="AC13" s="8"/>
     </row>
     <row r="14" spans="1:29" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="2">
@@ -2315,49 +2265,47 @@
         <f t="shared" si="1"/>
         <v>15.433853164253883</v>
       </c>
-      <c r="C14" s="8"/>
+      <c r="C14" s="25"/>
       <c r="D14" s="6" t="s">
         <v>12</v>
       </c>
       <c r="E14" s="6" t="s">
         <v>156</v>
       </c>
-      <c r="G14" s="24"/>
-      <c r="H14" s="23">
+      <c r="G14" s="19"/>
+      <c r="H14" s="18" t="str">
         <f>IF($G$3,$A55,IF($G$4,$D55,IF($G$5,$E55,"ХЗ")))</f>
-        <v>52</v>
-      </c>
-      <c r="I14" s="22"/>
-      <c r="J14" s="12"/>
-      <c r="K14" s="12"/>
-      <c r="L14" s="23">
+        <v>e3</v>
+      </c>
+      <c r="I14" s="17"/>
+      <c r="J14" s="9"/>
+      <c r="K14" s="9"/>
+      <c r="L14" s="18" t="str">
         <f>IF($K$3,$A$32,IF($K$4,$D$32,IF($K$5,$E$32,"ХЗ")))</f>
-        <v>29</v>
-      </c>
-      <c r="M14" s="24"/>
-      <c r="N14" s="21" t="str">
-        <f t="shared" ref="N14" si="4">IF($K$3,($L16+36+$S$4-1)&amp;", "&amp;($L16+36+$T$4-1)&amp;", "&amp;($L16+36+$U$4-1),IF($K$4,$R$4,IF($K$5,$R$12&amp;$V$4,"ХЗ")))</f>
-        <v>70, 73, 77</v>
-      </c>
-      <c r="O14" s="22"/>
-      <c r="P14" s="21" t="str">
-        <f t="shared" ref="P14" si="5">IF($K$3,($L18+36+$S$6-1)&amp;", "&amp;($L18+36+$T$6-1)&amp;", "&amp;($L18+36+$U$6-1),IF($K$4,$R$6,IF($K$5,$R$12&amp;$V$6,"ХЗ")))</f>
-        <v>75, 78, 85</v>
-      </c>
-      <c r="R14" s="7" t="s">
-        <v>187</v>
-      </c>
-      <c r="S14" s="12"/>
-      <c r="T14" s="12"/>
-      <c r="U14" s="12"/>
-      <c r="V14" s="12"/>
-      <c r="W14" s="12"/>
-      <c r="X14" s="12"/>
-      <c r="Y14" s="12"/>
-      <c r="Z14" s="12"/>
-      <c r="AA14" s="12"/>
-      <c r="AB14" s="11"/>
-      <c r="AC14" s="11"/>
+        <v>f1</v>
+      </c>
+      <c r="M14" s="19"/>
+      <c r="N14" s="16" t="str">
+        <f>IF($K$3,($L16+36+$L$8-1)&amp;", "&amp;($L16+36+$M$8-1)&amp;", "&amp;($L16+36+$N$8-1),IF($K$4,$K$8,IF($K$5,UPPER(MID($L16,1,1))&amp;MID($L16,3,1)&amp;$O$8,"ХЗ")))</f>
+        <v>Asm</v>
+      </c>
+      <c r="O14" s="17"/>
+      <c r="P14" s="16" t="str">
+        <f>IF($K$3,($L18+36+$L$10-1)&amp;", "&amp;($L18+36+$M$10-1)&amp;", "&amp;($L18+36+$N$10-1),IF($K$4,$K$10,IF($K$5,UPPER(MID($L18,1,1))&amp;MID($L18,3,1)&amp;$O$10,"ХЗ")))</f>
+        <v>Dsm7</v>
+      </c>
+      <c r="R14" s="3"/>
+      <c r="S14" s="9"/>
+      <c r="T14" s="9"/>
+      <c r="U14" s="9"/>
+      <c r="V14" s="9"/>
+      <c r="W14" s="9"/>
+      <c r="X14" s="9"/>
+      <c r="Y14" s="9"/>
+      <c r="Z14" s="9"/>
+      <c r="AA14" s="9"/>
+      <c r="AB14" s="8"/>
+      <c r="AC14" s="8"/>
     </row>
     <row r="15" spans="1:29" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="2">
@@ -2368,7 +2316,7 @@
         <f t="shared" si="1"/>
         <v>16.351597831287414</v>
       </c>
-      <c r="C15" s="8" t="s">
+      <c r="C15" s="25" t="s">
         <v>13</v>
       </c>
       <c r="D15" s="2" t="s">
@@ -2378,45 +2326,43 @@
         <v>23</v>
       </c>
       <c r="F15" s="3"/>
-      <c r="G15" s="23">
+      <c r="G15" s="18" t="str">
         <f>IF($G$3,$A56,IF($G$4,$D56,IF($G$5,$E56,"ХЗ")))</f>
-        <v>53</v>
-      </c>
-      <c r="H15" s="24"/>
-      <c r="I15" s="21">
+        <v>f3</v>
+      </c>
+      <c r="H15" s="19"/>
+      <c r="I15" s="16" t="str">
         <f>IF($G$3,$A57,IF($G$4,$D57,IF($G$5,$E57,"ХЗ")))</f>
-        <v>54</v>
-      </c>
-      <c r="J15" s="12"/>
-      <c r="K15" s="23">
+        <v>f3s</v>
+      </c>
+      <c r="J15" s="9"/>
+      <c r="K15" s="18" t="str">
         <f>IF($K$3,$A$36,IF($K$4,$D$36,IF($K$5,$E$36,"ХЗ")))</f>
-        <v>33</v>
-      </c>
-      <c r="L15" s="24"/>
-      <c r="M15" s="21" t="str">
-        <f t="shared" ref="M15:M52" si="6">IF($K$3,($L16+36+$S$3-1)&amp;", "&amp;($L16+36+$T$3-1)&amp;", "&amp;($L16+36+$U$3-1),IF($K$4,$R$3,IF($K$5,$R$12&amp;$V$3,"ХЗ")))</f>
-        <v>70, 74, 77</v>
-      </c>
-      <c r="N15" s="22"/>
-      <c r="O15" s="21" t="str">
-        <f t="shared" ref="O15" si="7">IF($K$3,($L18+36+$S$5-1)&amp;", "&amp;($L18+36+$T$5-1)&amp;", "&amp;($L18+36+$U$5-1),IF($K$4,$R$5,IF($K$5,$R$12&amp;$V$5,"ХЗ")))</f>
-        <v>75, 79, 86</v>
-      </c>
-      <c r="P15" s="22"/>
-      <c r="R15" s="7" t="s">
-        <v>188</v>
-      </c>
-      <c r="S15" s="12"/>
-      <c r="T15" s="12"/>
-      <c r="U15" s="12"/>
-      <c r="V15" s="12"/>
-      <c r="W15" s="12"/>
-      <c r="X15" s="12"/>
-      <c r="Y15" s="12"/>
-      <c r="Z15" s="12"/>
-      <c r="AA15" s="12"/>
-      <c r="AB15" s="11"/>
-      <c r="AC15" s="11"/>
+        <v>a1</v>
+      </c>
+      <c r="L15" s="19"/>
+      <c r="M15" s="16" t="str">
+        <f>IF($K$3,($L16+36+$L$7-1)&amp;", "&amp;($L16+36+$M$7-1)&amp;", "&amp;($L16+36+$N$7-1),IF($K$4,$K$7,IF($K$5,UPPER(MID($L16,1,1))&amp;MID($L16,3,1)&amp;$O$7,"ХЗ")))</f>
+        <v>As</v>
+      </c>
+      <c r="N15" s="17"/>
+      <c r="O15" s="16" t="str">
+        <f>IF($K$3,($L18+36+$L$9-1)&amp;", "&amp;($L18+36+$M$9-1)&amp;", "&amp;($L18+36+$N$9-1),IF($K$4,$K$9,IF($K$5,UPPER(MID($L18,1,1))&amp;MID($L18,3,1)&amp;$O$9,"ХЗ")))</f>
+        <v>Ds7</v>
+      </c>
+      <c r="P15" s="17"/>
+      <c r="R15" s="3"/>
+      <c r="S15" s="9"/>
+      <c r="T15" s="9"/>
+      <c r="U15" s="9"/>
+      <c r="V15" s="9"/>
+      <c r="W15" s="9"/>
+      <c r="X15" s="9"/>
+      <c r="Y15" s="9"/>
+      <c r="Z15" s="9"/>
+      <c r="AA15" s="9"/>
+      <c r="AB15" s="8"/>
+      <c r="AC15" s="8"/>
     </row>
     <row r="16" spans="1:29" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="2">
@@ -2427,7 +2373,7 @@
         <f t="shared" si="1"/>
         <v>17.323914436054505</v>
       </c>
-      <c r="C16" s="8"/>
+      <c r="C16" s="25"/>
       <c r="D16" s="2" t="s">
         <v>2</v>
       </c>
@@ -2435,42 +2381,40 @@
         <v>22</v>
       </c>
       <c r="F16" s="3"/>
-      <c r="G16" s="24"/>
-      <c r="H16" s="23">
+      <c r="G16" s="19"/>
+      <c r="H16" s="18" t="str">
         <f>IF($G$3,$A58,IF($G$4,$D58,IF($G$5,$E58,"ХЗ")))</f>
-        <v>55</v>
-      </c>
-      <c r="I16" s="22"/>
-      <c r="J16" s="12"/>
-      <c r="K16" s="24"/>
-      <c r="L16" s="21">
+        <v>g3</v>
+      </c>
+      <c r="I16" s="17"/>
+      <c r="J16" s="9"/>
+      <c r="K16" s="19"/>
+      <c r="L16" s="16" t="str">
         <f>IF($K$3,$A$37,IF($K$4,$D$37,IF($K$5,$E$37,"ХЗ")))</f>
-        <v>34</v>
-      </c>
-      <c r="M16" s="22"/>
-      <c r="N16" s="21" t="str">
-        <f t="shared" ref="N16" si="8">IF($K$3,($L18+36+$S$4-1)&amp;", "&amp;($L18+36+$T$4-1)&amp;", "&amp;($L18+36+$U$4-1),IF($K$4,$R$4,IF($K$5,$R$12&amp;$V$4,"ХЗ")))</f>
-        <v>75, 78, 82</v>
-      </c>
-      <c r="O16" s="22"/>
-      <c r="P16" s="21" t="str">
-        <f t="shared" ref="P16" si="9">IF($K$3,($L20+36+$S$6-1)&amp;", "&amp;($L20+36+$T$6-1)&amp;", "&amp;($L20+36+$U$6-1),IF($K$4,$R$6,IF($K$5,$R$12&amp;$V$6,"ХЗ")))</f>
-        <v>68, 71, 78</v>
-      </c>
-      <c r="R16" s="7" t="s">
-        <v>189</v>
-      </c>
-      <c r="S16" s="12"/>
-      <c r="T16" s="12"/>
-      <c r="U16" s="12"/>
-      <c r="V16" s="12"/>
-      <c r="W16" s="12"/>
-      <c r="X16" s="12"/>
-      <c r="Y16" s="12"/>
-      <c r="Z16" s="12"/>
-      <c r="AA16" s="12"/>
-      <c r="AB16" s="11"/>
-      <c r="AC16" s="11"/>
+        <v>a1s</v>
+      </c>
+      <c r="M16" s="17"/>
+      <c r="N16" s="16" t="str">
+        <f>IF($K$3,($L18+36+$L$8-1)&amp;", "&amp;($L18+36+$M$8-1)&amp;", "&amp;($L18+36+$N$8-1),IF($K$4,$K$8,IF($K$5,UPPER(MID($L18,1,1))&amp;MID($L18,3,1)&amp;$O$8,"ХЗ")))</f>
+        <v>Dsm</v>
+      </c>
+      <c r="O16" s="17"/>
+      <c r="P16" s="16" t="str">
+        <f>IF($K$3,($L20+36+$L$10-1)&amp;", "&amp;($L20+36+$M$10-1)&amp;", "&amp;($L20+36+$N$10-1),IF($K$4,$K$10,IF($K$5,UPPER(MID($L20,1,1))&amp;MID($L20,3,1)&amp;$O$10,"ХЗ")))</f>
+        <v>Gsm7</v>
+      </c>
+      <c r="R16" s="3"/>
+      <c r="S16" s="9"/>
+      <c r="T16" s="9"/>
+      <c r="U16" s="9"/>
+      <c r="V16" s="9"/>
+      <c r="W16" s="9"/>
+      <c r="X16" s="9"/>
+      <c r="Y16" s="9"/>
+      <c r="Z16" s="9"/>
+      <c r="AA16" s="9"/>
+      <c r="AB16" s="8"/>
+      <c r="AC16" s="8"/>
     </row>
     <row r="17" spans="1:29" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="2">
@@ -2481,7 +2425,7 @@
         <f t="shared" si="1"/>
         <v>18.354047994837977</v>
       </c>
-      <c r="C17" s="8"/>
+      <c r="C17" s="25"/>
       <c r="D17" s="2" t="s">
         <v>3</v>
       </c>
@@ -2489,45 +2433,43 @@
         <v>24</v>
       </c>
       <c r="F17" s="3"/>
-      <c r="G17" s="21">
+      <c r="G17" s="16" t="str">
         <f>IF($G$3,$A59,IF($G$4,$D59,IF($G$5,$E59,"ХЗ")))</f>
-        <v>56</v>
-      </c>
-      <c r="H17" s="24"/>
-      <c r="I17" s="23">
+        <v>g3s</v>
+      </c>
+      <c r="H17" s="19"/>
+      <c r="I17" s="18" t="str">
         <f>IF($G$3,$A60,IF($G$4,$D60,IF($G$5,$E60,"ХЗ")))</f>
-        <v>57</v>
-      </c>
-      <c r="J17" s="12"/>
-      <c r="K17" s="23">
+        <v>a3</v>
+      </c>
+      <c r="J17" s="9"/>
+      <c r="K17" s="18" t="str">
         <f>IF($K$3,$A$41,IF($K$4,$D$41,IF($K$5,$E$41,"ХЗ")))</f>
-        <v>38</v>
-      </c>
-      <c r="L17" s="22"/>
-      <c r="M17" s="21" t="str">
-        <f t="shared" ref="M17:M52" si="10">IF($K$3,($L18+36+$S$3-1)&amp;", "&amp;($L18+36+$T$3-1)&amp;", "&amp;($L18+36+$U$3-1),IF($K$4,$R$3,IF($K$5,$R$12&amp;$V$3,"ХЗ")))</f>
-        <v>75, 79, 82</v>
-      </c>
-      <c r="N17" s="22"/>
-      <c r="O17" s="21" t="str">
-        <f t="shared" ref="O17" si="11">IF($K$3,($L20+36+$S$5-1)&amp;", "&amp;($L20+36+$T$5-1)&amp;", "&amp;($L20+36+$U$5-1),IF($K$4,$R$5,IF($K$5,$R$12&amp;$V$5,"ХЗ")))</f>
-        <v>68, 72, 79</v>
-      </c>
-      <c r="P17" s="22"/>
-      <c r="R17" s="7" t="s">
-        <v>190</v>
-      </c>
-      <c r="S17" s="12"/>
-      <c r="T17" s="12"/>
-      <c r="U17" s="12"/>
-      <c r="V17" s="12"/>
-      <c r="W17" s="12"/>
-      <c r="X17" s="12"/>
-      <c r="Y17" s="12"/>
-      <c r="Z17" s="12"/>
-      <c r="AA17" s="12"/>
-      <c r="AB17" s="11"/>
-      <c r="AC17" s="11"/>
+        <v>d2</v>
+      </c>
+      <c r="L17" s="17"/>
+      <c r="M17" s="16" t="str">
+        <f>IF($K$3,($L18+36+$L$7-1)&amp;", "&amp;($L18+36+$M$7-1)&amp;", "&amp;($L18+36+$N$7-1),IF($K$4,$K$7,IF($K$5,UPPER(MID($L18,1,1))&amp;MID($L18,3,1)&amp;$O$7,"ХЗ")))</f>
+        <v>Ds</v>
+      </c>
+      <c r="N17" s="17"/>
+      <c r="O17" s="16" t="str">
+        <f>IF($K$3,($L20+36+$L$9-1)&amp;", "&amp;($L20+36+$M$9-1)&amp;", "&amp;($L20+36+$N$9-1),IF($K$4,$K$9,IF($K$5,UPPER(MID($L20,1,1))&amp;MID($L20,3,1)&amp;$O$9,"ХЗ")))</f>
+        <v>Gs7</v>
+      </c>
+      <c r="P17" s="17"/>
+      <c r="R17" s="3"/>
+      <c r="S17" s="9"/>
+      <c r="T17" s="9"/>
+      <c r="U17" s="9"/>
+      <c r="V17" s="9"/>
+      <c r="W17" s="9"/>
+      <c r="X17" s="9"/>
+      <c r="Y17" s="9"/>
+      <c r="Z17" s="9"/>
+      <c r="AA17" s="9"/>
+      <c r="AB17" s="8"/>
+      <c r="AC17" s="8"/>
     </row>
     <row r="18" spans="1:29" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="2">
@@ -2538,7 +2480,7 @@
         <f t="shared" si="1"/>
         <v>19.445436482630058</v>
       </c>
-      <c r="C18" s="8"/>
+      <c r="C18" s="25"/>
       <c r="D18" s="2" t="s">
         <v>4</v>
       </c>
@@ -2546,42 +2488,40 @@
         <v>25</v>
       </c>
       <c r="F18" s="3"/>
-      <c r="G18" s="22"/>
-      <c r="H18" s="21">
+      <c r="G18" s="17"/>
+      <c r="H18" s="16" t="str">
         <f>IF($G$3,$A61,IF($G$4,$D61,IF($G$5,$E61,"ХЗ")))</f>
-        <v>58</v>
-      </c>
-      <c r="I18" s="24"/>
-      <c r="J18" s="12"/>
-      <c r="K18" s="24"/>
-      <c r="L18" s="21">
+        <v>a3s</v>
+      </c>
+      <c r="I18" s="19"/>
+      <c r="J18" s="9"/>
+      <c r="K18" s="19"/>
+      <c r="L18" s="16" t="str">
         <f>IF($K$3,$A$42,IF($K$4,$D$42,IF($K$5,$E$42,"ХЗ")))</f>
-        <v>39</v>
-      </c>
-      <c r="M18" s="22"/>
-      <c r="N18" s="21" t="str">
-        <f t="shared" ref="N18" si="12">IF($K$3,($L20+36+$S$4-1)&amp;", "&amp;($L20+36+$T$4-1)&amp;", "&amp;($L20+36+$U$4-1),IF($K$4,$R$4,IF($K$5,$R$12&amp;$V$4,"ХЗ")))</f>
-        <v>68, 71, 75</v>
-      </c>
-      <c r="O18" s="22"/>
-      <c r="P18" s="21" t="str">
-        <f t="shared" ref="P18" si="13">IF($K$3,($L22+36+$S$6-1)&amp;", "&amp;($L22+36+$T$6-1)&amp;", "&amp;($L22+36+$U$6-1),IF($K$4,$R$6,IF($K$5,$R$12&amp;$V$6,"ХЗ")))</f>
-        <v>73, 76, 83</v>
-      </c>
-      <c r="R18" s="7" t="s">
-        <v>191</v>
-      </c>
-      <c r="S18" s="12"/>
-      <c r="T18" s="12"/>
-      <c r="U18" s="12"/>
-      <c r="V18" s="12"/>
-      <c r="W18" s="12"/>
-      <c r="X18" s="12"/>
-      <c r="Y18" s="12"/>
-      <c r="Z18" s="12"/>
-      <c r="AA18" s="12"/>
-      <c r="AB18" s="11"/>
-      <c r="AC18" s="11"/>
+        <v>d2s</v>
+      </c>
+      <c r="M18" s="17"/>
+      <c r="N18" s="16" t="str">
+        <f>IF($K$3,($L20+36+$L$8-1)&amp;", "&amp;($L20+36+$M$8-1)&amp;", "&amp;($L20+36+$N$8-1),IF($K$4,$K$8,IF($K$5,UPPER(MID($L20,1,1))&amp;MID($L20,3,1)&amp;$O$8,"ХЗ")))</f>
+        <v>Gsm</v>
+      </c>
+      <c r="O18" s="17"/>
+      <c r="P18" s="16" t="str">
+        <f>IF($K$3,($L22+36+$L$10-1)&amp;", "&amp;($L22+36+$M$10-1)&amp;", "&amp;($L22+36+$N$10-1),IF($K$4,$K$10,IF($K$5,UPPER(MID($L22,1,1))&amp;MID($L22,3,1)&amp;$O$10,"ХЗ")))</f>
+        <v>Csm7</v>
+      </c>
+      <c r="R18" s="3"/>
+      <c r="S18" s="9"/>
+      <c r="T18" s="9"/>
+      <c r="U18" s="9"/>
+      <c r="V18" s="9"/>
+      <c r="W18" s="9"/>
+      <c r="X18" s="9"/>
+      <c r="Y18" s="9"/>
+      <c r="Z18" s="9"/>
+      <c r="AA18" s="9"/>
+      <c r="AB18" s="8"/>
+      <c r="AC18" s="8"/>
     </row>
     <row r="19" spans="1:29" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="2">
@@ -2592,7 +2532,7 @@
         <f t="shared" si="1"/>
         <v>20.601722307054366</v>
       </c>
-      <c r="C19" s="8"/>
+      <c r="C19" s="25"/>
       <c r="D19" s="2" t="s">
         <v>5</v>
       </c>
@@ -2600,43 +2540,43 @@
         <v>26</v>
       </c>
       <c r="F19" s="3"/>
-      <c r="G19" s="23">
+      <c r="G19" s="18" t="str">
         <f>IF($G$3,$A62,IF($G$4,$D62,IF($G$5,$E62,"ХЗ")))</f>
-        <v>59</v>
-      </c>
-      <c r="H19" s="22"/>
-      <c r="I19" s="23">
+        <v>b3</v>
+      </c>
+      <c r="H19" s="17"/>
+      <c r="I19" s="18" t="str">
         <f>IF($G$3,$A63,IF($G$4,$D63,IF($G$5,$E63,"ХЗ")))</f>
-        <v>60</v>
-      </c>
-      <c r="J19" s="12"/>
-      <c r="K19" s="23">
+        <v>c4</v>
+      </c>
+      <c r="J19" s="9"/>
+      <c r="K19" s="18" t="str">
         <f>IF($K$3,$A$34,IF($K$4,$D$34,IF($K$5,$E$34,"ХЗ")))</f>
-        <v>31</v>
-      </c>
-      <c r="L19" s="22"/>
-      <c r="M19" s="21" t="str">
-        <f t="shared" ref="M19:M52" si="14">IF($K$3,($L20+36+$S$3-1)&amp;", "&amp;($L20+36+$T$3-1)&amp;", "&amp;($L20+36+$U$3-1),IF($K$4,$R$3,IF($K$5,$R$12&amp;$V$3,"ХЗ")))</f>
-        <v>68, 72, 75</v>
-      </c>
-      <c r="N19" s="22"/>
-      <c r="O19" s="21" t="str">
-        <f t="shared" ref="O19" si="15">IF($K$3,($L22+36+$S$5-1)&amp;", "&amp;($L22+36+$T$5-1)&amp;", "&amp;($L22+36+$U$5-1),IF($K$4,$R$5,IF($K$5,$R$12&amp;$V$5,"ХЗ")))</f>
-        <v>73, 77, 84</v>
-      </c>
-      <c r="P19" s="22"/>
-      <c r="R19" s="12"/>
-      <c r="S19" s="12"/>
-      <c r="T19" s="12"/>
-      <c r="U19" s="12"/>
-      <c r="V19" s="12"/>
-      <c r="W19" s="12"/>
-      <c r="X19" s="12"/>
-      <c r="Y19" s="12"/>
-      <c r="Z19" s="12"/>
-      <c r="AA19" s="12"/>
-      <c r="AB19" s="11"/>
-      <c r="AC19" s="11"/>
+        <v>g1</v>
+      </c>
+      <c r="L19" s="17"/>
+      <c r="M19" s="16" t="str">
+        <f>IF($K$3,($L20+36+$L$7-1)&amp;", "&amp;($L20+36+$M$7-1)&amp;", "&amp;($L20+36+$N$7-1),IF($K$4,$K$7,IF($K$5,UPPER(MID($L20,1,1))&amp;MID($L20,3,1)&amp;$O$7,"ХЗ")))</f>
+        <v>Gs</v>
+      </c>
+      <c r="N19" s="17"/>
+      <c r="O19" s="16" t="str">
+        <f>IF($K$3,($L22+36+$L$9-1)&amp;", "&amp;($L22+36+$M$9-1)&amp;", "&amp;($L22+36+$N$9-1),IF($K$4,$K$9,IF($K$5,UPPER(MID($L22,1,1))&amp;MID($L22,3,1)&amp;$O$9,"ХЗ")))</f>
+        <v>Cs7</v>
+      </c>
+      <c r="P19" s="17"/>
+      <c r="R19" s="9"/>
+      <c r="S19" s="9"/>
+      <c r="T19" s="9"/>
+      <c r="U19" s="9"/>
+      <c r="V19" s="9"/>
+      <c r="W19" s="9"/>
+      <c r="X19" s="9"/>
+      <c r="Y19" s="9"/>
+      <c r="Z19" s="9"/>
+      <c r="AA19" s="9"/>
+      <c r="AB19" s="8"/>
+      <c r="AC19" s="8"/>
     </row>
     <row r="20" spans="1:29" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="2">
@@ -2647,7 +2587,7 @@
         <f t="shared" si="1"/>
         <v>21.82676446456275</v>
       </c>
-      <c r="C20" s="8"/>
+      <c r="C20" s="25"/>
       <c r="D20" s="2" t="s">
         <v>6</v>
       </c>
@@ -2655,40 +2595,40 @@
         <v>27</v>
       </c>
       <c r="F20" s="3"/>
-      <c r="G20" s="24"/>
-      <c r="H20" s="21">
+      <c r="G20" s="19"/>
+      <c r="H20" s="16" t="str">
         <f>IF($G$3,$A64,IF($G$4,$D64,IF($G$5,$E64,"ХЗ")))</f>
-        <v>61</v>
-      </c>
-      <c r="I20" s="24"/>
-      <c r="J20" s="12"/>
-      <c r="K20" s="24"/>
-      <c r="L20" s="21">
+        <v>c4s</v>
+      </c>
+      <c r="I20" s="19"/>
+      <c r="J20" s="9"/>
+      <c r="K20" s="19"/>
+      <c r="L20" s="16" t="str">
         <f>IF($K$3,$A$35,IF($K$4,$D$35,IF($K$5,$E$35,"ХЗ")))</f>
-        <v>32</v>
-      </c>
-      <c r="M20" s="22"/>
-      <c r="N20" s="21" t="str">
-        <f t="shared" ref="N20" si="16">IF($K$3,($L22+36+$S$4-1)&amp;", "&amp;($L22+36+$T$4-1)&amp;", "&amp;($L22+36+$U$4-1),IF($K$4,$R$4,IF($K$5,$R$12&amp;$V$4,"ХЗ")))</f>
-        <v>73, 76, 80</v>
-      </c>
-      <c r="O20" s="22"/>
-      <c r="P20" s="21" t="str">
-        <f t="shared" ref="P20" si="17">IF($K$3,($L24+36+$S$6-1)&amp;", "&amp;($L24+36+$T$6-1)&amp;", "&amp;($L24+36+$U$6-1),IF($K$4,$R$6,IF($K$5,$R$12&amp;$V$6,"ХЗ")))</f>
-        <v>66, 69, 76</v>
-      </c>
-      <c r="R20" s="12"/>
-      <c r="S20" s="12"/>
-      <c r="T20" s="12"/>
-      <c r="U20" s="12"/>
-      <c r="V20" s="12"/>
-      <c r="W20" s="12"/>
-      <c r="X20" s="12"/>
-      <c r="Y20" s="12"/>
-      <c r="Z20" s="12"/>
-      <c r="AA20" s="12"/>
-      <c r="AB20" s="11"/>
-      <c r="AC20" s="11"/>
+        <v>g1s</v>
+      </c>
+      <c r="M20" s="17"/>
+      <c r="N20" s="16" t="str">
+        <f>IF($K$3,($L22+36+$L$8-1)&amp;", "&amp;($L22+36+$M$8-1)&amp;", "&amp;($L22+36+$N$8-1),IF($K$4,$K$8,IF($K$5,UPPER(MID($L22,1,1))&amp;MID($L22,3,1)&amp;$O$8,"ХЗ")))</f>
+        <v>Csm</v>
+      </c>
+      <c r="O20" s="17"/>
+      <c r="P20" s="16" t="str">
+        <f>IF($K$3,($L24+36+$L$10-1)&amp;", "&amp;($L24+36+$M$10-1)&amp;", "&amp;($L24+36+$N$10-1),IF($K$4,$K$10,IF($K$5,UPPER(MID($L24,1,1))&amp;MID($L24,3,1)&amp;$O$10,"ХЗ")))</f>
+        <v>Fsm7</v>
+      </c>
+      <c r="R20" s="9"/>
+      <c r="S20" s="9"/>
+      <c r="T20" s="9"/>
+      <c r="U20" s="9"/>
+      <c r="V20" s="9"/>
+      <c r="W20" s="9"/>
+      <c r="X20" s="9"/>
+      <c r="Y20" s="9"/>
+      <c r="Z20" s="9"/>
+      <c r="AA20" s="9"/>
+      <c r="AB20" s="8"/>
+      <c r="AC20" s="8"/>
     </row>
     <row r="21" spans="1:29" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="2">
@@ -2699,7 +2639,7 @@
         <f t="shared" si="1"/>
         <v>23.124651419477154</v>
       </c>
-      <c r="C21" s="8"/>
+      <c r="C21" s="25"/>
       <c r="D21" s="2" t="s">
         <v>7</v>
       </c>
@@ -2707,43 +2647,43 @@
         <v>28</v>
       </c>
       <c r="F21" s="3"/>
-      <c r="G21" s="23">
+      <c r="G21" s="18" t="str">
         <f>IF($G$3,$A65,IF($G$4,$D65,IF($G$5,$E65,"ХЗ")))</f>
-        <v>62</v>
-      </c>
-      <c r="H21" s="22"/>
-      <c r="I21" s="21">
+        <v>d4</v>
+      </c>
+      <c r="H21" s="17"/>
+      <c r="I21" s="16" t="str">
         <f>IF($G$3,$A66,IF($G$4,$D66,IF($G$5,$E66,"ХЗ")))</f>
-        <v>63</v>
-      </c>
-      <c r="J21" s="12"/>
-      <c r="K21" s="23">
+        <v>d4s</v>
+      </c>
+      <c r="J21" s="9"/>
+      <c r="K21" s="18" t="str">
         <f>IF($K$3,$A$39,IF($K$4,$D$39,IF($K$5,$E$39,"ХЗ")))</f>
-        <v>36</v>
-      </c>
-      <c r="L21" s="22"/>
-      <c r="M21" s="21" t="str">
-        <f t="shared" ref="M21:M52" si="18">IF($K$3,($L22+36+$S$3-1)&amp;", "&amp;($L22+36+$T$3-1)&amp;", "&amp;($L22+36+$U$3-1),IF($K$4,$R$3,IF($K$5,$R$12&amp;$V$3,"ХЗ")))</f>
-        <v>73, 77, 80</v>
-      </c>
-      <c r="N21" s="22"/>
-      <c r="O21" s="21" t="str">
-        <f t="shared" ref="O21" si="19">IF($K$3,($L24+36+$S$5-1)&amp;", "&amp;($L24+36+$T$5-1)&amp;", "&amp;($L24+36+$U$5-1),IF($K$4,$R$5,IF($K$5,$R$12&amp;$V$5,"ХЗ")))</f>
-        <v>66, 70, 77</v>
-      </c>
-      <c r="P21" s="22"/>
-      <c r="R21" s="12"/>
-      <c r="S21" s="12"/>
-      <c r="T21" s="12"/>
-      <c r="U21" s="12"/>
-      <c r="V21" s="12"/>
-      <c r="W21" s="12"/>
-      <c r="X21" s="12"/>
-      <c r="Y21" s="12"/>
-      <c r="Z21" s="12"/>
-      <c r="AA21" s="12"/>
-      <c r="AB21" s="11"/>
-      <c r="AC21" s="11"/>
+        <v>c2</v>
+      </c>
+      <c r="L21" s="17"/>
+      <c r="M21" s="16" t="str">
+        <f>IF($K$3,($L22+36+$L$7-1)&amp;", "&amp;($L22+36+$M$7-1)&amp;", "&amp;($L22+36+$N$7-1),IF($K$4,$K$7,IF($K$5,UPPER(MID($L22,1,1))&amp;MID($L22,3,1)&amp;$O$7,"ХЗ")))</f>
+        <v>Cs</v>
+      </c>
+      <c r="N21" s="17"/>
+      <c r="O21" s="16" t="str">
+        <f>IF($K$3,($L24+36+$L$9-1)&amp;", "&amp;($L24+36+$M$9-1)&amp;", "&amp;($L24+36+$N$9-1),IF($K$4,$K$9,IF($K$5,UPPER(MID($L24,1,1))&amp;MID($L24,3,1)&amp;$O$9,"ХЗ")))</f>
+        <v>Fs7</v>
+      </c>
+      <c r="P21" s="17"/>
+      <c r="R21" s="9"/>
+      <c r="S21" s="9"/>
+      <c r="T21" s="9"/>
+      <c r="U21" s="9"/>
+      <c r="V21" s="9"/>
+      <c r="W21" s="9"/>
+      <c r="X21" s="9"/>
+      <c r="Y21" s="9"/>
+      <c r="Z21" s="9"/>
+      <c r="AA21" s="9"/>
+      <c r="AB21" s="8"/>
+      <c r="AC21" s="8"/>
     </row>
     <row r="22" spans="1:29" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="2">
@@ -2754,7 +2694,7 @@
         <f t="shared" si="1"/>
         <v>24.499714748859326</v>
       </c>
-      <c r="C22" s="8"/>
+      <c r="C22" s="25"/>
       <c r="D22" s="2" t="s">
         <v>8</v>
       </c>
@@ -2762,40 +2702,40 @@
         <v>29</v>
       </c>
       <c r="F22" s="3"/>
-      <c r="G22" s="24"/>
-      <c r="H22" s="23">
+      <c r="G22" s="19"/>
+      <c r="H22" s="18" t="str">
         <f>IF($G$3,$A67,IF($G$4,$D67,IF($G$5,$E67,"ХЗ")))</f>
-        <v>64</v>
-      </c>
-      <c r="I22" s="22"/>
-      <c r="J22" s="12"/>
-      <c r="K22" s="24"/>
-      <c r="L22" s="21">
+        <v>e4</v>
+      </c>
+      <c r="I22" s="17"/>
+      <c r="J22" s="9"/>
+      <c r="K22" s="19"/>
+      <c r="L22" s="16" t="str">
         <f>IF($K$3,$A$40,IF($K$4,$D$40,IF($K$5,$E$40,"ХЗ")))</f>
-        <v>37</v>
-      </c>
-      <c r="M22" s="22"/>
-      <c r="N22" s="21" t="str">
-        <f t="shared" ref="N22" si="20">IF($K$3,($L24+36+$S$4-1)&amp;", "&amp;($L24+36+$T$4-1)&amp;", "&amp;($L24+36+$U$4-1),IF($K$4,$R$4,IF($K$5,$R$12&amp;$V$4,"ХЗ")))</f>
-        <v>66, 69, 73</v>
-      </c>
-      <c r="O22" s="22"/>
-      <c r="P22" s="23" t="str">
-        <f t="shared" ref="P22" si="21">IF($K$3,($L26+36+$S$6-1)&amp;", "&amp;($L26+36+$T$6-1)&amp;", "&amp;($L26+36+$U$6-1),IF($K$4,$R$6,IF($K$5,$R$12&amp;$V$6,"ХЗ")))</f>
-        <v>71, 74, 81</v>
-      </c>
-      <c r="R22" s="12"/>
-      <c r="S22" s="12"/>
-      <c r="T22" s="12"/>
-      <c r="U22" s="12"/>
-      <c r="V22" s="12"/>
-      <c r="W22" s="12"/>
-      <c r="X22" s="12"/>
-      <c r="Y22" s="12"/>
-      <c r="Z22" s="12"/>
-      <c r="AA22" s="12"/>
-      <c r="AB22" s="11"/>
-      <c r="AC22" s="11"/>
+        <v>c2s</v>
+      </c>
+      <c r="M22" s="17"/>
+      <c r="N22" s="16" t="str">
+        <f>IF($K$3,($L24+36+$L$8-1)&amp;", "&amp;($L24+36+$M$8-1)&amp;", "&amp;($L24+36+$N$8-1),IF($K$4,$K$8,IF($K$5,UPPER(MID($L24,1,1))&amp;MID($L24,3,1)&amp;$O$8,"ХЗ")))</f>
+        <v>Fsm</v>
+      </c>
+      <c r="O22" s="17"/>
+      <c r="P22" s="18" t="str">
+        <f>IF($K$3,($L26+36+$L$10-1)&amp;", "&amp;($L26+36+$M$10-1)&amp;", "&amp;($L26+36+$N$10-1),IF($K$4,$K$10,IF($K$5,UPPER(MID($L26,1,1))&amp;MID($L26,3,1)&amp;$O$10,"ХЗ")))</f>
+        <v>Bm7</v>
+      </c>
+      <c r="R22" s="9"/>
+      <c r="S22" s="9"/>
+      <c r="T22" s="9"/>
+      <c r="U22" s="9"/>
+      <c r="V22" s="9"/>
+      <c r="W22" s="9"/>
+      <c r="X22" s="9"/>
+      <c r="Y22" s="9"/>
+      <c r="Z22" s="9"/>
+      <c r="AA22" s="9"/>
+      <c r="AB22" s="8"/>
+      <c r="AC22" s="8"/>
     </row>
     <row r="23" spans="1:29" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="2">
@@ -2806,7 +2746,7 @@
         <f t="shared" si="1"/>
         <v>25.956543598746581</v>
       </c>
-      <c r="C23" s="8"/>
+      <c r="C23" s="25"/>
       <c r="D23" s="2" t="s">
         <v>9</v>
       </c>
@@ -2814,43 +2754,43 @@
         <v>30</v>
       </c>
       <c r="F23" s="3"/>
-      <c r="G23" s="23">
+      <c r="G23" s="18" t="str">
         <f>IF($G$3,$A68,IF($G$4,$D68,IF($G$5,$E68,"ХЗ")))</f>
-        <v>65</v>
-      </c>
-      <c r="H23" s="24"/>
-      <c r="I23" s="21">
+        <v>f4</v>
+      </c>
+      <c r="H23" s="19"/>
+      <c r="I23" s="16" t="str">
         <f>IF($G$3,$A69,IF($G$4,$D69,IF($G$5,$E69,"ХЗ")))</f>
-        <v>66</v>
-      </c>
-      <c r="J23" s="12"/>
-      <c r="K23" s="23">
+        <v>f4s</v>
+      </c>
+      <c r="J23" s="9"/>
+      <c r="K23" s="18" t="str">
         <f>IF($K$3,$A$32,IF($K$4,$D$32,IF($K$5,$E$32,"ХЗ")))</f>
-        <v>29</v>
-      </c>
-      <c r="L23" s="22"/>
-      <c r="M23" s="21" t="str">
-        <f t="shared" ref="M23:M52" si="22">IF($K$3,($L24+36+$S$3-1)&amp;", "&amp;($L24+36+$T$3-1)&amp;", "&amp;($L24+36+$U$3-1),IF($K$4,$R$3,IF($K$5,$R$12&amp;$V$3,"ХЗ")))</f>
-        <v>66, 70, 73</v>
-      </c>
-      <c r="N23" s="22"/>
-      <c r="O23" s="23" t="str">
-        <f t="shared" ref="O23" si="23">IF($K$3,($L26+36+$S$5-1)&amp;", "&amp;($L26+36+$T$5-1)&amp;", "&amp;($L26+36+$U$5-1),IF($K$4,$R$5,IF($K$5,$R$12&amp;$V$5,"ХЗ")))</f>
-        <v>71, 75, 82</v>
-      </c>
-      <c r="P23" s="24"/>
-      <c r="R23" s="12"/>
-      <c r="S23" s="12"/>
-      <c r="T23" s="12"/>
-      <c r="U23" s="12"/>
-      <c r="V23" s="12"/>
-      <c r="W23" s="12"/>
-      <c r="X23" s="12"/>
-      <c r="Y23" s="12"/>
-      <c r="Z23" s="12"/>
-      <c r="AA23" s="12"/>
-      <c r="AB23" s="11"/>
-      <c r="AC23" s="11"/>
+        <v>f1</v>
+      </c>
+      <c r="L23" s="17"/>
+      <c r="M23" s="16" t="str">
+        <f>IF($K$3,($L24+36+$L$7-1)&amp;", "&amp;($L24+36+$M$7-1)&amp;", "&amp;($L24+36+$N$7-1),IF($K$4,$K$7,IF($K$5,UPPER(MID($L24,1,1))&amp;MID($L24,3,1)&amp;$O$7,"ХЗ")))</f>
+        <v>Fs</v>
+      </c>
+      <c r="N23" s="17"/>
+      <c r="O23" s="18" t="str">
+        <f>IF($K$3,($L26+36+$L$9-1)&amp;", "&amp;($L26+36+$M$9-1)&amp;", "&amp;($L26+36+$N$9-1),IF($K$4,$K$9,IF($K$5,UPPER(MID($L26,1,1))&amp;MID($L26,3,1)&amp;$O$9,"ХЗ")))</f>
+        <v>B7</v>
+      </c>
+      <c r="P23" s="19"/>
+      <c r="R23" s="9"/>
+      <c r="S23" s="9"/>
+      <c r="T23" s="9"/>
+      <c r="U23" s="9"/>
+      <c r="V23" s="9"/>
+      <c r="W23" s="9"/>
+      <c r="X23" s="9"/>
+      <c r="Y23" s="9"/>
+      <c r="Z23" s="9"/>
+      <c r="AA23" s="9"/>
+      <c r="AB23" s="8"/>
+      <c r="AC23" s="8"/>
     </row>
     <row r="24" spans="1:29" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="2">
@@ -2861,7 +2801,7 @@
         <f t="shared" si="1"/>
         <v>27.5</v>
       </c>
-      <c r="C24" s="8"/>
+      <c r="C24" s="25"/>
       <c r="D24" s="2" t="s">
         <v>10</v>
       </c>
@@ -2869,40 +2809,40 @@
         <v>31</v>
       </c>
       <c r="F24" s="3"/>
-      <c r="G24" s="24"/>
-      <c r="H24" s="23">
+      <c r="G24" s="19"/>
+      <c r="H24" s="18" t="str">
         <f>IF($G$3,$A70,IF($G$4,$D70,IF($G$5,$E70,"ХЗ")))</f>
-        <v>67</v>
-      </c>
-      <c r="I24" s="22"/>
-      <c r="J24" s="12"/>
-      <c r="K24" s="24"/>
-      <c r="L24" s="21">
+        <v>g4</v>
+      </c>
+      <c r="I24" s="17"/>
+      <c r="J24" s="9"/>
+      <c r="K24" s="19"/>
+      <c r="L24" s="16" t="str">
         <f>IF($K$3,$A$33,IF($K$4,$D$33,IF($K$5,$E$33,"ХЗ")))</f>
-        <v>30</v>
-      </c>
-      <c r="M24" s="22"/>
-      <c r="N24" s="23" t="str">
-        <f t="shared" ref="N24" si="24">IF($K$3,($L26+36+$S$4-1)&amp;", "&amp;($L26+36+$T$4-1)&amp;", "&amp;($L26+36+$U$4-1),IF($K$4,$R$4,IF($K$5,$R$12&amp;$V$4,"ХЗ")))</f>
-        <v>71, 74, 78</v>
-      </c>
-      <c r="O24" s="24"/>
-      <c r="P24" s="23" t="str">
-        <f t="shared" ref="P24" si="25">IF($K$3,($L28+36+$S$6-1)&amp;", "&amp;($L28+36+$T$6-1)&amp;", "&amp;($L28+36+$U$6-1),IF($K$4,$R$6,IF($K$5,$R$12&amp;$V$6,"ХЗ")))</f>
-        <v>76, 79, 86</v>
-      </c>
-      <c r="R24" s="12"/>
-      <c r="S24" s="12"/>
-      <c r="T24" s="12"/>
-      <c r="U24" s="12"/>
-      <c r="V24" s="12"/>
-      <c r="W24" s="12"/>
-      <c r="X24" s="12"/>
-      <c r="Y24" s="12"/>
-      <c r="Z24" s="12"/>
-      <c r="AA24" s="12"/>
-      <c r="AB24" s="11"/>
-      <c r="AC24" s="11"/>
+        <v>f1s</v>
+      </c>
+      <c r="M24" s="17"/>
+      <c r="N24" s="18" t="str">
+        <f>IF($K$3,($L26+36+$L$8-1)&amp;", "&amp;($L26+36+$M$8-1)&amp;", "&amp;($L26+36+$N$8-1),IF($K$4,$K$8,IF($K$5,UPPER(MID($L26,1,1))&amp;MID($L26,3,1)&amp;$O$8,"ХЗ")))</f>
+        <v>Bm</v>
+      </c>
+      <c r="O24" s="19"/>
+      <c r="P24" s="18" t="str">
+        <f>IF($K$3,($L28+36+$L$10-1)&amp;", "&amp;($L28+36+$M$10-1)&amp;", "&amp;($L28+36+$N$10-1),IF($K$4,$K$10,IF($K$5,UPPER(MID($L28,1,1))&amp;MID($L28,3,1)&amp;$O$10,"ХЗ")))</f>
+        <v>Em7</v>
+      </c>
+      <c r="R24" s="9"/>
+      <c r="S24" s="9"/>
+      <c r="T24" s="9"/>
+      <c r="U24" s="9"/>
+      <c r="V24" s="9"/>
+      <c r="W24" s="9"/>
+      <c r="X24" s="9"/>
+      <c r="Y24" s="9"/>
+      <c r="Z24" s="9"/>
+      <c r="AA24" s="9"/>
+      <c r="AB24" s="8"/>
+      <c r="AC24" s="8"/>
     </row>
     <row r="25" spans="1:29" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="2">
@@ -2913,7 +2853,7 @@
         <f t="shared" si="1"/>
         <v>29.135235094880628</v>
       </c>
-      <c r="C25" s="8"/>
+      <c r="C25" s="25"/>
       <c r="D25" s="2" t="s">
         <v>11</v>
       </c>
@@ -2921,43 +2861,43 @@
         <v>32</v>
       </c>
       <c r="F25" s="3"/>
-      <c r="G25" s="21">
+      <c r="G25" s="16" t="str">
         <f>IF($G$3,$A71,IF($G$4,$D71,IF($G$5,$E71,"ХЗ")))</f>
-        <v>68</v>
-      </c>
-      <c r="H25" s="24"/>
-      <c r="I25" s="23">
+        <v>g4s</v>
+      </c>
+      <c r="H25" s="19"/>
+      <c r="I25" s="18" t="str">
         <f>IF($G$3,$A72,IF($G$4,$D72,IF($G$5,$E72,"ХЗ")))</f>
-        <v>69</v>
-      </c>
-      <c r="J25" s="12"/>
-      <c r="K25" s="21">
+        <v>a4</v>
+      </c>
+      <c r="J25" s="9"/>
+      <c r="K25" s="16" t="str">
         <f>IF($K$3,$A$37,IF($K$4,$D$37,IF($K$5,$E$37,"ХЗ")))</f>
-        <v>34</v>
-      </c>
-      <c r="L25" s="22"/>
-      <c r="M25" s="23" t="str">
-        <f t="shared" ref="M25:M52" si="26">IF($K$3,($L26+36+$S$3-1)&amp;", "&amp;($L26+36+$T$3-1)&amp;", "&amp;($L26+36+$U$3-1),IF($K$4,$R$3,IF($K$5,$R$12&amp;$V$3,"ХЗ")))</f>
-        <v>71, 75, 78</v>
-      </c>
-      <c r="N25" s="24"/>
-      <c r="O25" s="23" t="str">
-        <f t="shared" ref="O25" si="27">IF($K$3,($L28+36+$S$5-1)&amp;", "&amp;($L28+36+$T$5-1)&amp;", "&amp;($L28+36+$U$5-1),IF($K$4,$R$5,IF($K$5,$R$12&amp;$V$5,"ХЗ")))</f>
-        <v>76, 80, 87</v>
-      </c>
-      <c r="P25" s="24"/>
-      <c r="R25" s="12"/>
-      <c r="S25" s="12"/>
-      <c r="T25" s="12"/>
-      <c r="U25" s="12"/>
-      <c r="V25" s="12"/>
-      <c r="W25" s="12"/>
-      <c r="X25" s="12"/>
-      <c r="Y25" s="12"/>
-      <c r="Z25" s="12"/>
-      <c r="AA25" s="12"/>
-      <c r="AB25" s="11"/>
-      <c r="AC25" s="11"/>
+        <v>a1s</v>
+      </c>
+      <c r="L25" s="17"/>
+      <c r="M25" s="18" t="str">
+        <f>IF($K$3,($L26+36+$L$7-1)&amp;", "&amp;($L26+36+$M$7-1)&amp;", "&amp;($L26+36+$N$7-1),IF($K$4,$K$7,IF($K$5,UPPER(MID($L26,1,1))&amp;MID($L26,3,1)&amp;$O$7,"ХЗ")))</f>
+        <v>B</v>
+      </c>
+      <c r="N25" s="19"/>
+      <c r="O25" s="18" t="str">
+        <f>IF($K$3,($L28+36+$L$9-1)&amp;", "&amp;($L28+36+$M$9-1)&amp;", "&amp;($L28+36+$N$9-1),IF($K$4,$K$9,IF($K$5,UPPER(MID($L28,1,1))&amp;MID($L28,3,1)&amp;$O$9,"ХЗ")))</f>
+        <v>E7</v>
+      </c>
+      <c r="P25" s="19"/>
+      <c r="R25" s="9"/>
+      <c r="S25" s="9"/>
+      <c r="T25" s="9"/>
+      <c r="U25" s="9"/>
+      <c r="V25" s="9"/>
+      <c r="W25" s="9"/>
+      <c r="X25" s="9"/>
+      <c r="Y25" s="9"/>
+      <c r="Z25" s="9"/>
+      <c r="AA25" s="9"/>
+      <c r="AB25" s="8"/>
+      <c r="AC25" s="8"/>
     </row>
     <row r="26" spans="1:29" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="2">
@@ -2968,7 +2908,7 @@
         <f t="shared" si="1"/>
         <v>30.867706328507751</v>
       </c>
-      <c r="C26" s="8"/>
+      <c r="C26" s="25"/>
       <c r="D26" s="2" t="s">
         <v>12</v>
       </c>
@@ -2976,40 +2916,40 @@
         <v>33</v>
       </c>
       <c r="F26" s="3"/>
-      <c r="G26" s="22"/>
-      <c r="H26" s="21">
+      <c r="G26" s="17"/>
+      <c r="H26" s="16" t="str">
         <f>IF($G$3,$A73,IF($G$4,$D73,IF($G$5,$E73,"ХЗ")))</f>
-        <v>70</v>
-      </c>
-      <c r="I26" s="24"/>
-      <c r="J26" s="12"/>
-      <c r="K26" s="22"/>
-      <c r="L26" s="23">
+        <v>a4s</v>
+      </c>
+      <c r="I26" s="19"/>
+      <c r="J26" s="9"/>
+      <c r="K26" s="17"/>
+      <c r="L26" s="18" t="str">
         <f>IF($K$3,$A$38,IF($K$4,$D$38,IF($K$5,$E$38,"ХЗ")))</f>
-        <v>35</v>
-      </c>
-      <c r="M26" s="24"/>
-      <c r="N26" s="23" t="str">
-        <f t="shared" ref="N26" si="28">IF($K$3,($L28+36+$S$4-1)&amp;", "&amp;($L28+36+$T$4-1)&amp;", "&amp;($L28+36+$U$4-1),IF($K$4,$R$4,IF($K$5,$R$12&amp;$V$4,"ХЗ")))</f>
-        <v>76, 79, 83</v>
-      </c>
-      <c r="O26" s="24"/>
-      <c r="P26" s="23" t="str">
-        <f t="shared" ref="P26" si="29">IF($K$3,($L30+36+$S$6-1)&amp;", "&amp;($L30+36+$T$6-1)&amp;", "&amp;($L30+36+$U$6-1),IF($K$4,$R$6,IF($K$5,$R$12&amp;$V$6,"ХЗ")))</f>
-        <v>60, 63, 70</v>
-      </c>
-      <c r="R26" s="12"/>
-      <c r="S26" s="12"/>
-      <c r="T26" s="12"/>
-      <c r="U26" s="12"/>
-      <c r="V26" s="12"/>
-      <c r="W26" s="12"/>
-      <c r="X26" s="12"/>
-      <c r="Y26" s="12"/>
-      <c r="Z26" s="12"/>
-      <c r="AA26" s="12"/>
-      <c r="AB26" s="11"/>
-      <c r="AC26" s="11"/>
+        <v>b1</v>
+      </c>
+      <c r="M26" s="19"/>
+      <c r="N26" s="18" t="str">
+        <f>IF($K$3,($L28+36+$L$8-1)&amp;", "&amp;($L28+36+$M$8-1)&amp;", "&amp;($L28+36+$N$8-1),IF($K$4,$K$8,IF($K$5,UPPER(MID($L28,1,1))&amp;MID($L28,3,1)&amp;$O$8,"ХЗ")))</f>
+        <v>Em</v>
+      </c>
+      <c r="O26" s="19"/>
+      <c r="P26" s="18" t="str">
+        <f>IF($K$3,($L30+36+$L$10-1)&amp;", "&amp;($L30+36+$M$10-1)&amp;", "&amp;($L30+36+$N$10-1),IF($K$4,$K$10,IF($K$5,UPPER(MID($L30,1,1))&amp;MID($L30,3,1)&amp;$O$10,"ХЗ")))</f>
+        <v>Cm7</v>
+      </c>
+      <c r="R26" s="9"/>
+      <c r="S26" s="9"/>
+      <c r="T26" s="9"/>
+      <c r="U26" s="9"/>
+      <c r="V26" s="9"/>
+      <c r="W26" s="9"/>
+      <c r="X26" s="9"/>
+      <c r="Y26" s="9"/>
+      <c r="Z26" s="9"/>
+      <c r="AA26" s="9"/>
+      <c r="AB26" s="8"/>
+      <c r="AC26" s="8"/>
     </row>
     <row r="27" spans="1:29" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="2">
@@ -3020,7 +2960,7 @@
         <f t="shared" si="1"/>
         <v>32.703195662574828</v>
       </c>
-      <c r="C27" s="8" t="s">
+      <c r="C27" s="25" t="s">
         <v>14</v>
       </c>
       <c r="D27" s="2" t="s">
@@ -3030,43 +2970,43 @@
         <v>34</v>
       </c>
       <c r="F27" s="3"/>
-      <c r="G27" s="23">
+      <c r="G27" s="18" t="str">
         <f>IF($G$3,$A74,IF($G$4,$D74,IF($G$5,$E74,"ХЗ")))</f>
-        <v>71</v>
-      </c>
-      <c r="H27" s="22"/>
-      <c r="I27" s="23">
+        <v>b4</v>
+      </c>
+      <c r="H27" s="17"/>
+      <c r="I27" s="18" t="str">
         <f>IF($G$3,$A75,IF($G$4,$D75,IF($G$5,$E75,"ХЗ")))</f>
-        <v>72</v>
-      </c>
-      <c r="J27" s="12"/>
-      <c r="K27" s="21">
+        <v>c5</v>
+      </c>
+      <c r="J27" s="9"/>
+      <c r="K27" s="16" t="str">
         <f>IF($K$3,$A$42,IF($K$4,$D$42,IF($K$5,$E$42,"ХЗ")))</f>
-        <v>39</v>
-      </c>
-      <c r="L27" s="24"/>
-      <c r="M27" s="23" t="str">
-        <f t="shared" ref="M27:M52" si="30">IF($K$3,($L28+36+$S$3-1)&amp;", "&amp;($L28+36+$T$3-1)&amp;", "&amp;($L28+36+$U$3-1),IF($K$4,$R$3,IF($K$5,$R$12&amp;$V$3,"ХЗ")))</f>
-        <v>76, 80, 83</v>
-      </c>
-      <c r="N27" s="24"/>
-      <c r="O27" s="23" t="str">
-        <f t="shared" ref="O27" si="31">IF($K$3,($L30+36+$S$5-1)&amp;", "&amp;($L30+36+$T$5-1)&amp;", "&amp;($L30+36+$U$5-1),IF($K$4,$R$5,IF($K$5,$R$12&amp;$V$5,"ХЗ")))</f>
-        <v>60, 64, 71</v>
-      </c>
-      <c r="P27" s="24"/>
-      <c r="R27" s="12"/>
-      <c r="S27" s="12"/>
-      <c r="T27" s="12"/>
-      <c r="U27" s="12"/>
-      <c r="V27" s="12"/>
-      <c r="W27" s="12"/>
-      <c r="X27" s="12"/>
-      <c r="Y27" s="12"/>
-      <c r="Z27" s="12"/>
-      <c r="AA27" s="12"/>
-      <c r="AB27" s="11"/>
-      <c r="AC27" s="11"/>
+        <v>d2s</v>
+      </c>
+      <c r="L27" s="19"/>
+      <c r="M27" s="18" t="str">
+        <f>IF($K$3,($L28+36+$L$7-1)&amp;", "&amp;($L28+36+$M$7-1)&amp;", "&amp;($L28+36+$N$7-1),IF($K$4,$K$7,IF($K$5,UPPER(MID($L28,1,1))&amp;MID($L28,3,1)&amp;$O$7,"ХЗ")))</f>
+        <v>E</v>
+      </c>
+      <c r="N27" s="19"/>
+      <c r="O27" s="18" t="str">
+        <f>IF($K$3,($L30+36+$L$9-1)&amp;", "&amp;($L30+36+$M$9-1)&amp;", "&amp;($L30+36+$N$9-1),IF($K$4,$K$9,IF($K$5,UPPER(MID($L30,1,1))&amp;MID($L30,3,1)&amp;$O$9,"ХЗ")))</f>
+        <v>C7</v>
+      </c>
+      <c r="P27" s="19"/>
+      <c r="R27" s="9"/>
+      <c r="S27" s="9"/>
+      <c r="T27" s="9"/>
+      <c r="U27" s="9"/>
+      <c r="V27" s="9"/>
+      <c r="W27" s="9"/>
+      <c r="X27" s="9"/>
+      <c r="Y27" s="9"/>
+      <c r="Z27" s="9"/>
+      <c r="AA27" s="9"/>
+      <c r="AB27" s="8"/>
+      <c r="AC27" s="8"/>
     </row>
     <row r="28" spans="1:29" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="2">
@@ -3077,7 +3017,7 @@
         <f t="shared" si="1"/>
         <v>34.647828872109017</v>
       </c>
-      <c r="C28" s="8"/>
+      <c r="C28" s="25"/>
       <c r="D28" s="2" t="s">
         <v>2</v>
       </c>
@@ -3085,40 +3025,40 @@
         <v>35</v>
       </c>
       <c r="F28" s="3"/>
-      <c r="G28" s="24"/>
-      <c r="H28" s="21">
+      <c r="G28" s="19"/>
+      <c r="H28" s="16" t="str">
         <f>IF($G$3,$A76,IF($G$4,$D76,IF($G$5,$E76,"ХЗ")))</f>
-        <v>73</v>
-      </c>
-      <c r="I28" s="24"/>
-      <c r="J28" s="12"/>
-      <c r="K28" s="22"/>
-      <c r="L28" s="23">
+        <v>c5s</v>
+      </c>
+      <c r="I28" s="19"/>
+      <c r="J28" s="9"/>
+      <c r="K28" s="17"/>
+      <c r="L28" s="18" t="str">
         <f>IF($K$3,$A$43,IF($K$4,$D$43,IF($K$5,$E$43,"ХЗ")))</f>
-        <v>40</v>
-      </c>
-      <c r="M28" s="24"/>
-      <c r="N28" s="23" t="str">
-        <f t="shared" ref="N28" si="32">IF($K$3,($L30+36+$S$4-1)&amp;", "&amp;($L30+36+$T$4-1)&amp;", "&amp;($L30+36+$U$4-1),IF($K$4,$R$4,IF($K$5,$R$12&amp;$V$4,"ХЗ")))</f>
-        <v>60, 63, 67</v>
-      </c>
-      <c r="O28" s="24"/>
-      <c r="P28" s="23" t="str">
-        <f t="shared" ref="P28" si="33">IF($K$3,($L32+36+$S$6-1)&amp;", "&amp;($L32+36+$T$6-1)&amp;", "&amp;($L32+36+$U$6-1),IF($K$4,$R$6,IF($K$5,$R$12&amp;$V$6,"ХЗ")))</f>
-        <v>65, 68, 75</v>
-      </c>
-      <c r="R28" s="12"/>
-      <c r="S28" s="12"/>
-      <c r="T28" s="12"/>
-      <c r="U28" s="12"/>
-      <c r="V28" s="12"/>
-      <c r="W28" s="12"/>
-      <c r="X28" s="12"/>
-      <c r="Y28" s="12"/>
-      <c r="Z28" s="12"/>
-      <c r="AA28" s="12"/>
-      <c r="AB28" s="11"/>
-      <c r="AC28" s="11"/>
+        <v>e2</v>
+      </c>
+      <c r="M28" s="19"/>
+      <c r="N28" s="18" t="str">
+        <f>IF($K$3,($L30+36+$L$8-1)&amp;", "&amp;($L30+36+$M$8-1)&amp;", "&amp;($L30+36+$N$8-1),IF($K$4,$K$8,IF($K$5,UPPER(MID($L30,1,1))&amp;MID($L30,3,1)&amp;$O$8,"ХЗ")))</f>
+        <v>Cm</v>
+      </c>
+      <c r="O28" s="19"/>
+      <c r="P28" s="18" t="str">
+        <f>IF($K$3,($L32+36+$L$10-1)&amp;", "&amp;($L32+36+$M$10-1)&amp;", "&amp;($L32+36+$N$10-1),IF($K$4,$K$10,IF($K$5,UPPER(MID($L32,1,1))&amp;MID($L32,3,1)&amp;$O$10,"ХЗ")))</f>
+        <v>Fm7</v>
+      </c>
+      <c r="R28" s="9"/>
+      <c r="S28" s="9"/>
+      <c r="T28" s="9"/>
+      <c r="U28" s="9"/>
+      <c r="V28" s="9"/>
+      <c r="W28" s="9"/>
+      <c r="X28" s="9"/>
+      <c r="Y28" s="9"/>
+      <c r="Z28" s="9"/>
+      <c r="AA28" s="9"/>
+      <c r="AB28" s="8"/>
+      <c r="AC28" s="8"/>
     </row>
     <row r="29" spans="1:29" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="2">
@@ -3129,7 +3069,7 @@
         <f t="shared" si="1"/>
         <v>36.708095989675947</v>
       </c>
-      <c r="C29" s="8"/>
+      <c r="C29" s="25"/>
       <c r="D29" s="2" t="s">
         <v>3</v>
       </c>
@@ -3137,43 +3077,43 @@
         <v>36</v>
       </c>
       <c r="F29" s="3"/>
-      <c r="G29" s="23">
+      <c r="G29" s="18" t="str">
         <f>IF($G$3,$A77,IF($G$4,$D77,IF($G$5,$E77,"ХЗ")))</f>
-        <v>74</v>
-      </c>
-      <c r="H29" s="22"/>
-      <c r="I29" s="21">
+        <v>d5</v>
+      </c>
+      <c r="H29" s="17"/>
+      <c r="I29" s="16" t="str">
         <f>IF($G$3,$A78,IF($G$4,$D78,IF($G$5,$E78,"ХЗ")))</f>
-        <v>75</v>
-      </c>
-      <c r="J29" s="12"/>
-      <c r="K29" s="21">
+        <v>d5s</v>
+      </c>
+      <c r="J29" s="9"/>
+      <c r="K29" s="16" t="str">
         <f>IF($K$3,$A$35,IF($K$4,$D$35,IF($K$5,$E$35,"ХЗ")))</f>
-        <v>32</v>
-      </c>
-      <c r="L29" s="24"/>
-      <c r="M29" s="23" t="str">
-        <f t="shared" ref="M29:M52" si="34">IF($K$3,($L30+36+$S$3-1)&amp;", "&amp;($L30+36+$T$3-1)&amp;", "&amp;($L30+36+$U$3-1),IF($K$4,$R$3,IF($K$5,$R$12&amp;$V$3,"ХЗ")))</f>
-        <v>60, 64, 67</v>
-      </c>
-      <c r="N29" s="24"/>
-      <c r="O29" s="23" t="str">
-        <f t="shared" ref="O29" si="35">IF($K$3,($L32+36+$S$5-1)&amp;", "&amp;($L32+36+$T$5-1)&amp;", "&amp;($L32+36+$U$5-1),IF($K$4,$R$5,IF($K$5,$R$12&amp;$V$5,"ХЗ")))</f>
-        <v>65, 69, 76</v>
-      </c>
-      <c r="P29" s="24"/>
-      <c r="R29" s="12"/>
-      <c r="S29" s="12"/>
-      <c r="T29" s="12"/>
-      <c r="U29" s="12"/>
-      <c r="V29" s="12"/>
-      <c r="W29" s="12"/>
-      <c r="X29" s="12"/>
-      <c r="Y29" s="12"/>
-      <c r="Z29" s="12"/>
-      <c r="AA29" s="12"/>
-      <c r="AB29" s="11"/>
-      <c r="AC29" s="11"/>
+        <v>g1s</v>
+      </c>
+      <c r="L29" s="19"/>
+      <c r="M29" s="18" t="str">
+        <f>IF($K$3,($L30+36+$L$7-1)&amp;", "&amp;($L30+36+$M$7-1)&amp;", "&amp;($L30+36+$N$7-1),IF($K$4,$K$7,IF($K$5,UPPER(MID($L30,1,1))&amp;MID($L30,3,1)&amp;$O$7,"ХЗ")))</f>
+        <v>C</v>
+      </c>
+      <c r="N29" s="19"/>
+      <c r="O29" s="18" t="str">
+        <f>IF($K$3,($L32+36+$L$9-1)&amp;", "&amp;($L32+36+$M$9-1)&amp;", "&amp;($L32+36+$N$9-1),IF($K$4,$K$9,IF($K$5,UPPER(MID($L32,1,1))&amp;MID($L32,3,1)&amp;$O$9,"ХЗ")))</f>
+        <v>F7</v>
+      </c>
+      <c r="P29" s="19"/>
+      <c r="R29" s="9"/>
+      <c r="S29" s="9"/>
+      <c r="T29" s="9"/>
+      <c r="U29" s="9"/>
+      <c r="V29" s="9"/>
+      <c r="W29" s="9"/>
+      <c r="X29" s="9"/>
+      <c r="Y29" s="9"/>
+      <c r="Z29" s="9"/>
+      <c r="AA29" s="9"/>
+      <c r="AB29" s="8"/>
+      <c r="AC29" s="8"/>
     </row>
     <row r="30" spans="1:29" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" s="2">
@@ -3184,7 +3124,7 @@
         <f t="shared" si="1"/>
         <v>38.890872965260115</v>
       </c>
-      <c r="C30" s="8"/>
+      <c r="C30" s="25"/>
       <c r="D30" s="2" t="s">
         <v>4</v>
       </c>
@@ -3192,40 +3132,40 @@
         <v>37</v>
       </c>
       <c r="F30" s="3"/>
-      <c r="G30" s="24"/>
-      <c r="H30" s="23">
+      <c r="G30" s="19"/>
+      <c r="H30" s="18" t="str">
         <f>IF($G$3,$A79,IF($G$4,$D79,IF($G$5,$E79,"ХЗ")))</f>
-        <v>76</v>
-      </c>
-      <c r="I30" s="22"/>
-      <c r="J30" s="12"/>
-      <c r="K30" s="22"/>
-      <c r="L30" s="23">
+        <v>e5</v>
+      </c>
+      <c r="I30" s="17"/>
+      <c r="J30" s="9"/>
+      <c r="K30" s="17"/>
+      <c r="L30" s="18" t="str">
         <f>IF($K$3,$A27,IF($K$4,$D27,IF($K$5,$E27,"ХЗ")))</f>
-        <v>24</v>
-      </c>
-      <c r="M30" s="24"/>
-      <c r="N30" s="23" t="str">
-        <f t="shared" ref="N30" si="36">IF($K$3,($L32+36+$S$4-1)&amp;", "&amp;($L32+36+$T$4-1)&amp;", "&amp;($L32+36+$U$4-1),IF($K$4,$R$4,IF($K$5,$R$12&amp;$V$4,"ХЗ")))</f>
-        <v>65, 68, 72</v>
-      </c>
-      <c r="O30" s="24"/>
-      <c r="P30" s="23" t="str">
-        <f t="shared" ref="P30" si="37">IF($K$3,($L34+36+$S$6-1)&amp;", "&amp;($L34+36+$T$6-1)&amp;", "&amp;($L34+36+$U$6-1),IF($K$4,$R$6,IF($K$5,$R$12&amp;$V$6,"ХЗ")))</f>
-        <v>67, 70, 77</v>
-      </c>
-      <c r="R30" s="12"/>
-      <c r="S30" s="12"/>
-      <c r="T30" s="12"/>
-      <c r="U30" s="12"/>
-      <c r="V30" s="12"/>
-      <c r="W30" s="12"/>
-      <c r="X30" s="12"/>
-      <c r="Y30" s="12"/>
-      <c r="Z30" s="12"/>
-      <c r="AA30" s="12"/>
-      <c r="AB30" s="11"/>
-      <c r="AC30" s="11"/>
+        <v>c1</v>
+      </c>
+      <c r="M30" s="19"/>
+      <c r="N30" s="18" t="str">
+        <f>IF($K$3,($L32+36+$L$8-1)&amp;", "&amp;($L32+36+$M$8-1)&amp;", "&amp;($L32+36+$N$8-1),IF($K$4,$K$8,IF($K$5,UPPER(MID($L32,1,1))&amp;MID($L32,3,1)&amp;$O$8,"ХЗ")))</f>
+        <v>Fm</v>
+      </c>
+      <c r="O30" s="19"/>
+      <c r="P30" s="18" t="str">
+        <f>IF($K$3,($L34+36+$L$10-1)&amp;", "&amp;($L34+36+$M$10-1)&amp;", "&amp;($L34+36+$N$10-1),IF($K$4,$K$10,IF($K$5,UPPER(MID($L34,1,1))&amp;MID($L34,3,1)&amp;$O$10,"ХЗ")))</f>
+        <v>Gm7</v>
+      </c>
+      <c r="R30" s="9"/>
+      <c r="S30" s="9"/>
+      <c r="T30" s="9"/>
+      <c r="U30" s="9"/>
+      <c r="V30" s="9"/>
+      <c r="W30" s="9"/>
+      <c r="X30" s="9"/>
+      <c r="Y30" s="9"/>
+      <c r="Z30" s="9"/>
+      <c r="AA30" s="9"/>
+      <c r="AB30" s="8"/>
+      <c r="AC30" s="8"/>
     </row>
     <row r="31" spans="1:29" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" s="2">
@@ -3236,7 +3176,7 @@
         <f t="shared" si="1"/>
         <v>41.203444614108754</v>
       </c>
-      <c r="C31" s="8"/>
+      <c r="C31" s="25"/>
       <c r="D31" s="2" t="s">
         <v>5</v>
       </c>
@@ -3244,43 +3184,43 @@
         <v>38</v>
       </c>
       <c r="F31" s="3"/>
-      <c r="G31" s="23">
+      <c r="G31" s="18" t="str">
         <f>IF($G$3,$A80,IF($G$4,$D80,IF($G$5,$E80,"ХЗ")))</f>
-        <v>77</v>
-      </c>
-      <c r="H31" s="24"/>
-      <c r="I31" s="21">
+        <v>f5</v>
+      </c>
+      <c r="H31" s="19"/>
+      <c r="I31" s="16" t="str">
         <f>IF($G$3,$A81,IF($G$4,$D81,IF($G$5,$E81,"ХЗ")))</f>
-        <v>78</v>
-      </c>
-      <c r="J31" s="12"/>
-      <c r="K31" s="21">
+        <v>f5s</v>
+      </c>
+      <c r="J31" s="9"/>
+      <c r="K31" s="16" t="str">
         <f>IF($K$3,$A$40,IF($K$4,$D$40,IF($K$5,$E$40,"ХЗ")))</f>
-        <v>37</v>
-      </c>
-      <c r="L31" s="24"/>
-      <c r="M31" s="23" t="str">
-        <f t="shared" ref="M31:M52" si="38">IF($K$3,($L32+36+$S$3-1)&amp;", "&amp;($L32+36+$T$3-1)&amp;", "&amp;($L32+36+$U$3-1),IF($K$4,$R$3,IF($K$5,$R$12&amp;$V$3,"ХЗ")))</f>
-        <v>65, 69, 72</v>
-      </c>
-      <c r="N31" s="24"/>
-      <c r="O31" s="23" t="str">
-        <f t="shared" ref="O31" si="39">IF($K$3,($L34+36+$S$5-1)&amp;", "&amp;($L34+36+$T$5-1)&amp;", "&amp;($L34+36+$U$5-1),IF($K$4,$R$5,IF($K$5,$R$12&amp;$V$5,"ХЗ")))</f>
-        <v>67, 71, 78</v>
-      </c>
-      <c r="P31" s="24"/>
-      <c r="R31" s="12"/>
-      <c r="S31" s="12"/>
-      <c r="T31" s="12"/>
-      <c r="U31" s="12"/>
-      <c r="V31" s="12"/>
-      <c r="W31" s="12"/>
-      <c r="X31" s="12"/>
-      <c r="Y31" s="12"/>
-      <c r="Z31" s="12"/>
-      <c r="AA31" s="12"/>
-      <c r="AB31" s="11"/>
-      <c r="AC31" s="11"/>
+        <v>c2s</v>
+      </c>
+      <c r="L31" s="19"/>
+      <c r="M31" s="18" t="str">
+        <f>IF($K$3,($L32+36+$L$7-1)&amp;", "&amp;($L32+36+$M$7-1)&amp;", "&amp;($L32+36+$N$7-1),IF($K$4,$K$7,IF($K$5,UPPER(MID($L32,1,1))&amp;MID($L32,3,1)&amp;$O$7,"ХЗ")))</f>
+        <v>F</v>
+      </c>
+      <c r="N31" s="19"/>
+      <c r="O31" s="18" t="str">
+        <f>IF($K$3,($L34+36+$L$9-1)&amp;", "&amp;($L34+36+$M$9-1)&amp;", "&amp;($L34+36+$N$9-1),IF($K$4,$K$9,IF($K$5,UPPER(MID($L34,1,1))&amp;MID($L34,3,1)&amp;$O$9,"ХЗ")))</f>
+        <v>G7</v>
+      </c>
+      <c r="P31" s="19"/>
+      <c r="R31" s="9"/>
+      <c r="S31" s="9"/>
+      <c r="T31" s="9"/>
+      <c r="U31" s="9"/>
+      <c r="V31" s="9"/>
+      <c r="W31" s="9"/>
+      <c r="X31" s="9"/>
+      <c r="Y31" s="9"/>
+      <c r="Z31" s="9"/>
+      <c r="AA31" s="9"/>
+      <c r="AB31" s="8"/>
+      <c r="AC31" s="8"/>
     </row>
     <row r="32" spans="1:29" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" s="2">
@@ -3291,7 +3231,7 @@
         <f t="shared" si="1"/>
         <v>43.653528929125486</v>
       </c>
-      <c r="C32" s="8"/>
+      <c r="C32" s="25"/>
       <c r="D32" s="2" t="s">
         <v>6</v>
       </c>
@@ -3299,40 +3239,40 @@
         <v>39</v>
       </c>
       <c r="F32" s="3"/>
-      <c r="G32" s="24"/>
-      <c r="H32" s="23">
+      <c r="G32" s="19"/>
+      <c r="H32" s="18" t="str">
         <f>IF($G$3,$A82,IF($G$4,$D82,IF($G$5,$E82,"ХЗ")))</f>
-        <v>79</v>
-      </c>
-      <c r="I32" s="22"/>
-      <c r="J32" s="12"/>
-      <c r="K32" s="22"/>
-      <c r="L32" s="23">
+        <v>g5</v>
+      </c>
+      <c r="I32" s="17"/>
+      <c r="J32" s="9"/>
+      <c r="K32" s="17"/>
+      <c r="L32" s="18" t="str">
         <f>IF($K$3,$A32,IF($K$4,$D32,IF($K$5,$E32,"ХЗ")))</f>
-        <v>29</v>
-      </c>
-      <c r="M32" s="24"/>
-      <c r="N32" s="23" t="str">
-        <f t="shared" ref="N32" si="40">IF($K$3,($L34+36+$S$4-1)&amp;", "&amp;($L34+36+$T$4-1)&amp;", "&amp;($L34+36+$U$4-1),IF($K$4,$R$4,IF($K$5,$R$12&amp;$V$4,"ХЗ")))</f>
-        <v>67, 70, 74</v>
-      </c>
-      <c r="O32" s="24"/>
-      <c r="P32" s="23" t="str">
-        <f t="shared" ref="P32" si="41">IF($K$3,($L36+36+$S$6-1)&amp;", "&amp;($L36+36+$T$6-1)&amp;", "&amp;($L36+36+$U$6-1),IF($K$4,$R$6,IF($K$5,$R$12&amp;$V$6,"ХЗ")))</f>
-        <v>72, 75, 82</v>
-      </c>
-      <c r="R32" s="12"/>
-      <c r="S32" s="12"/>
-      <c r="T32" s="12"/>
-      <c r="U32" s="12"/>
-      <c r="V32" s="12"/>
-      <c r="W32" s="12"/>
-      <c r="X32" s="12"/>
-      <c r="Y32" s="12"/>
-      <c r="Z32" s="12"/>
-      <c r="AA32" s="12"/>
-      <c r="AB32" s="11"/>
-      <c r="AC32" s="11"/>
+        <v>f1</v>
+      </c>
+      <c r="M32" s="19"/>
+      <c r="N32" s="18" t="str">
+        <f>IF($K$3,($L34+36+$L$8-1)&amp;", "&amp;($L34+36+$M$8-1)&amp;", "&amp;($L34+36+$N$8-1),IF($K$4,$K$8,IF($K$5,UPPER(MID($L34,1,1))&amp;MID($L34,3,1)&amp;$O$8,"ХЗ")))</f>
+        <v>Gm</v>
+      </c>
+      <c r="O32" s="19"/>
+      <c r="P32" s="18" t="str">
+        <f>IF($K$3,($L36+36+$L$10-1)&amp;", "&amp;($L36+36+$M$10-1)&amp;", "&amp;($L36+36+$N$10-1),IF($K$4,$K$10,IF($K$5,UPPER(MID($L36,1,1))&amp;MID($L36,3,1)&amp;$O$10,"ХЗ")))</f>
+        <v>Cm7</v>
+      </c>
+      <c r="R32" s="9"/>
+      <c r="S32" s="9"/>
+      <c r="T32" s="9"/>
+      <c r="U32" s="9"/>
+      <c r="V32" s="9"/>
+      <c r="W32" s="9"/>
+      <c r="X32" s="9"/>
+      <c r="Y32" s="9"/>
+      <c r="Z32" s="9"/>
+      <c r="AA32" s="9"/>
+      <c r="AB32" s="8"/>
+      <c r="AC32" s="8"/>
     </row>
     <row r="33" spans="1:29" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A33" s="2">
@@ -3343,7 +3283,7 @@
         <f t="shared" si="1"/>
         <v>46.249302838954307</v>
       </c>
-      <c r="C33" s="8"/>
+      <c r="C33" s="25"/>
       <c r="D33" s="2" t="s">
         <v>7</v>
       </c>
@@ -3351,43 +3291,43 @@
         <v>40</v>
       </c>
       <c r="F33" s="3"/>
-      <c r="G33" s="21">
+      <c r="G33" s="16" t="str">
         <f>IF($G$3,$A83,IF($G$4,$D83,IF($G$5,$E83,"ХЗ")))</f>
-        <v>80</v>
-      </c>
-      <c r="H33" s="24"/>
-      <c r="I33" s="23">
+        <v>g5s</v>
+      </c>
+      <c r="H33" s="19"/>
+      <c r="I33" s="18" t="str">
         <f>IF($G$3,$A84,IF($G$4,$D84,IF($G$5,$E84,"ХЗ")))</f>
-        <v>81</v>
-      </c>
-      <c r="J33" s="12"/>
-      <c r="K33" s="21">
+        <v>a5</v>
+      </c>
+      <c r="J33" s="9"/>
+      <c r="K33" s="16" t="str">
         <f>IF($K$3,$A$33,IF($K$4,$D$33,IF($K$5,$E$33,"ХЗ")))</f>
-        <v>30</v>
-      </c>
-      <c r="L33" s="24"/>
-      <c r="M33" s="23" t="str">
-        <f t="shared" ref="M33:M52" si="42">IF($K$3,($L34+36+$S$3-1)&amp;", "&amp;($L34+36+$T$3-1)&amp;", "&amp;($L34+36+$U$3-1),IF($K$4,$R$3,IF($K$5,$R$12&amp;$V$3,"ХЗ")))</f>
-        <v>67, 71, 74</v>
-      </c>
-      <c r="N33" s="24"/>
-      <c r="O33" s="23" t="str">
-        <f t="shared" ref="O33" si="43">IF($K$3,($L36+36+$S$5-1)&amp;", "&amp;($L36+36+$T$5-1)&amp;", "&amp;($L36+36+$U$5-1),IF($K$4,$R$5,IF($K$5,$R$12&amp;$V$5,"ХЗ")))</f>
-        <v>72, 76, 83</v>
-      </c>
-      <c r="P33" s="24"/>
-      <c r="R33" s="12"/>
-      <c r="S33" s="12"/>
-      <c r="T33" s="12"/>
-      <c r="U33" s="12"/>
-      <c r="V33" s="12"/>
-      <c r="W33" s="12"/>
-      <c r="X33" s="12"/>
-      <c r="Y33" s="12"/>
-      <c r="Z33" s="12"/>
-      <c r="AA33" s="12"/>
-      <c r="AB33" s="11"/>
-      <c r="AC33" s="11"/>
+        <v>f1s</v>
+      </c>
+      <c r="L33" s="19"/>
+      <c r="M33" s="18" t="str">
+        <f>IF($K$3,($L34+36+$L$7-1)&amp;", "&amp;($L34+36+$M$7-1)&amp;", "&amp;($L34+36+$N$7-1),IF($K$4,$K$7,IF($K$5,UPPER(MID($L34,1,1))&amp;MID($L34,3,1)&amp;$O$7,"ХЗ")))</f>
+        <v>G</v>
+      </c>
+      <c r="N33" s="19"/>
+      <c r="O33" s="18" t="str">
+        <f>IF($K$3,($L36+36+$L$9-1)&amp;", "&amp;($L36+36+$M$9-1)&amp;", "&amp;($L36+36+$N$9-1),IF($K$4,$K$9,IF($K$5,UPPER(MID($L36,1,1))&amp;MID($L36,3,1)&amp;$O$9,"ХЗ")))</f>
+        <v>C7</v>
+      </c>
+      <c r="P33" s="19"/>
+      <c r="R33" s="9"/>
+      <c r="S33" s="9"/>
+      <c r="T33" s="9"/>
+      <c r="U33" s="9"/>
+      <c r="V33" s="9"/>
+      <c r="W33" s="9"/>
+      <c r="X33" s="9"/>
+      <c r="Y33" s="9"/>
+      <c r="Z33" s="9"/>
+      <c r="AA33" s="9"/>
+      <c r="AB33" s="8"/>
+      <c r="AC33" s="8"/>
     </row>
     <row r="34" spans="1:29" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A34" s="2">
@@ -3398,7 +3338,7 @@
         <f t="shared" si="1"/>
         <v>48.99942949771868</v>
       </c>
-      <c r="C34" s="8"/>
+      <c r="C34" s="25"/>
       <c r="D34" s="2" t="s">
         <v>8</v>
       </c>
@@ -3406,40 +3346,40 @@
         <v>41</v>
       </c>
       <c r="F34" s="3"/>
-      <c r="G34" s="22"/>
-      <c r="H34" s="21">
+      <c r="G34" s="17"/>
+      <c r="H34" s="16" t="str">
         <f>IF($G$3,$A85,IF($G$4,$D85,IF($G$5,$E85,"ХЗ")))</f>
-        <v>82</v>
-      </c>
-      <c r="I34" s="24"/>
-      <c r="J34" s="12"/>
-      <c r="K34" s="22"/>
-      <c r="L34" s="23">
+        <v>a5s</v>
+      </c>
+      <c r="I34" s="19"/>
+      <c r="J34" s="9"/>
+      <c r="K34" s="17"/>
+      <c r="L34" s="18" t="str">
         <f>IF($K$3,$A$34,IF($K$4,$D$34,IF($K$5,$E$34,"ХЗ")))</f>
-        <v>31</v>
-      </c>
-      <c r="M34" s="24"/>
-      <c r="N34" s="23" t="str">
-        <f t="shared" ref="N34" si="44">IF($K$3,($L36+36+$S$4-1)&amp;", "&amp;($L36+36+$T$4-1)&amp;", "&amp;($L36+36+$U$4-1),IF($K$4,$R$4,IF($K$5,$R$12&amp;$V$4,"ХЗ")))</f>
-        <v>72, 75, 79</v>
-      </c>
-      <c r="O34" s="24"/>
-      <c r="P34" s="23" t="str">
-        <f t="shared" ref="P34" si="45">IF($K$3,($L38+36+$S$6-1)&amp;", "&amp;($L38+36+$T$6-1)&amp;", "&amp;($L38+36+$U$6-1),IF($K$4,$R$6,IF($K$5,$R$12&amp;$V$6,"ХЗ")))</f>
-        <v>65, 68, 75</v>
-      </c>
-      <c r="R34" s="12"/>
-      <c r="S34" s="12"/>
-      <c r="T34" s="12"/>
-      <c r="U34" s="12"/>
-      <c r="V34" s="12"/>
-      <c r="W34" s="12"/>
-      <c r="X34" s="12"/>
-      <c r="Y34" s="12"/>
-      <c r="Z34" s="12"/>
-      <c r="AA34" s="12"/>
-      <c r="AB34" s="11"/>
-      <c r="AC34" s="11"/>
+        <v>g1</v>
+      </c>
+      <c r="M34" s="19"/>
+      <c r="N34" s="18" t="str">
+        <f>IF($K$3,($L36+36+$L$8-1)&amp;", "&amp;($L36+36+$M$8-1)&amp;", "&amp;($L36+36+$N$8-1),IF($K$4,$K$8,IF($K$5,UPPER(MID($L36,1,1))&amp;MID($L36,3,1)&amp;$O$8,"ХЗ")))</f>
+        <v>Cm</v>
+      </c>
+      <c r="O34" s="19"/>
+      <c r="P34" s="18" t="str">
+        <f>IF($K$3,($L38+36+$L$10-1)&amp;", "&amp;($L38+36+$M$10-1)&amp;", "&amp;($L38+36+$N$10-1),IF($K$4,$K$10,IF($K$5,UPPER(MID($L38,1,1))&amp;MID($L38,3,1)&amp;$O$10,"ХЗ")))</f>
+        <v>Fm7</v>
+      </c>
+      <c r="R34" s="9"/>
+      <c r="S34" s="9"/>
+      <c r="T34" s="9"/>
+      <c r="U34" s="9"/>
+      <c r="V34" s="9"/>
+      <c r="W34" s="9"/>
+      <c r="X34" s="9"/>
+      <c r="Y34" s="9"/>
+      <c r="Z34" s="9"/>
+      <c r="AA34" s="9"/>
+      <c r="AB34" s="8"/>
+      <c r="AC34" s="8"/>
     </row>
     <row r="35" spans="1:29" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A35" s="2">
@@ -3450,7 +3390,7 @@
         <f t="shared" si="1"/>
         <v>51.913087197493141</v>
       </c>
-      <c r="C35" s="8"/>
+      <c r="C35" s="25"/>
       <c r="D35" s="2" t="s">
         <v>9</v>
       </c>
@@ -3458,43 +3398,43 @@
         <v>42</v>
       </c>
       <c r="F35" s="3"/>
-      <c r="G35" s="23">
+      <c r="G35" s="18" t="str">
         <f>IF($G$3,$A86,IF($G$4,$D86,IF($G$5,$E86,"ХЗ")))</f>
-        <v>83</v>
-      </c>
-      <c r="H35" s="22"/>
-      <c r="I35" s="23">
+        <v>b5</v>
+      </c>
+      <c r="H35" s="17"/>
+      <c r="I35" s="18" t="str">
         <f>IF($G$3,$A87,IF($G$4,$D87,IF($G$5,$E87,"ХЗ")))</f>
-        <v>84</v>
-      </c>
-      <c r="J35" s="12"/>
-      <c r="K35" s="23">
+        <v>c6</v>
+      </c>
+      <c r="J35" s="9"/>
+      <c r="K35" s="18" t="str">
         <f>IF($K$3,$A$38,IF($K$4,$D$38,IF($K$5,$E$38,"ХЗ")))</f>
-        <v>35</v>
-      </c>
-      <c r="L35" s="24"/>
-      <c r="M35" s="23" t="str">
-        <f t="shared" ref="M35:M52" si="46">IF($K$3,($L36+36+$S$3-1)&amp;", "&amp;($L36+36+$T$3-1)&amp;", "&amp;($L36+36+$U$3-1),IF($K$4,$R$3,IF($K$5,$R$12&amp;$V$3,"ХЗ")))</f>
-        <v>72, 76, 79</v>
-      </c>
-      <c r="N35" s="24"/>
-      <c r="O35" s="23" t="str">
-        <f t="shared" ref="O35" si="47">IF($K$3,($L38+36+$S$5-1)&amp;", "&amp;($L38+36+$T$5-1)&amp;", "&amp;($L38+36+$U$5-1),IF($K$4,$R$5,IF($K$5,$R$12&amp;$V$5,"ХЗ")))</f>
-        <v>65, 69, 76</v>
-      </c>
-      <c r="P35" s="24"/>
-      <c r="R35" s="12"/>
-      <c r="S35" s="12"/>
-      <c r="T35" s="12"/>
-      <c r="U35" s="12"/>
-      <c r="V35" s="12"/>
-      <c r="W35" s="12"/>
-      <c r="X35" s="12"/>
-      <c r="Y35" s="12"/>
-      <c r="Z35" s="12"/>
-      <c r="AA35" s="12"/>
-      <c r="AB35" s="11"/>
-      <c r="AC35" s="11"/>
+        <v>b1</v>
+      </c>
+      <c r="L35" s="19"/>
+      <c r="M35" s="18" t="str">
+        <f>IF($K$3,($L36+36+$L$7-1)&amp;", "&amp;($L36+36+$M$7-1)&amp;", "&amp;($L36+36+$N$7-1),IF($K$4,$K$7,IF($K$5,UPPER(MID($L36,1,1))&amp;MID($L36,3,1)&amp;$O$7,"ХЗ")))</f>
+        <v>C</v>
+      </c>
+      <c r="N35" s="19"/>
+      <c r="O35" s="18" t="str">
+        <f>IF($K$3,($L38+36+$L$9-1)&amp;", "&amp;($L38+36+$M$9-1)&amp;", "&amp;($L38+36+$N$9-1),IF($K$4,$K$9,IF($K$5,UPPER(MID($L38,1,1))&amp;MID($L38,3,1)&amp;$O$9,"ХЗ")))</f>
+        <v>F7</v>
+      </c>
+      <c r="P35" s="19"/>
+      <c r="R35" s="9"/>
+      <c r="S35" s="9"/>
+      <c r="T35" s="9"/>
+      <c r="U35" s="9"/>
+      <c r="V35" s="9"/>
+      <c r="W35" s="9"/>
+      <c r="X35" s="9"/>
+      <c r="Y35" s="9"/>
+      <c r="Z35" s="9"/>
+      <c r="AA35" s="9"/>
+      <c r="AB35" s="8"/>
+      <c r="AC35" s="8"/>
     </row>
     <row r="36" spans="1:29" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A36" s="2">
@@ -3505,7 +3445,7 @@
         <f t="shared" si="1"/>
         <v>55</v>
       </c>
-      <c r="C36" s="8"/>
+      <c r="C36" s="25"/>
       <c r="D36" s="2" t="s">
         <v>10</v>
       </c>
@@ -3513,40 +3453,40 @@
         <v>43</v>
       </c>
       <c r="F36" s="3"/>
-      <c r="G36" s="24"/>
-      <c r="H36" s="21">
+      <c r="G36" s="19"/>
+      <c r="H36" s="16" t="str">
         <f>IF($G$3,$A88,IF($G$4,$D88,IF($G$5,$E88,"ХЗ")))</f>
-        <v>85</v>
-      </c>
-      <c r="I36" s="24"/>
-      <c r="J36" s="12"/>
-      <c r="K36" s="24"/>
-      <c r="L36" s="23">
+        <v>c6s</v>
+      </c>
+      <c r="I36" s="19"/>
+      <c r="J36" s="9"/>
+      <c r="K36" s="19"/>
+      <c r="L36" s="18" t="str">
         <f>IF($K$3,$A$39,IF($K$4,$D$39,IF($K$5,$E$39,"ХЗ")))</f>
-        <v>36</v>
-      </c>
-      <c r="M36" s="24"/>
-      <c r="N36" s="23" t="str">
-        <f t="shared" ref="N36" si="48">IF($K$3,($L38+36+$S$4-1)&amp;", "&amp;($L38+36+$T$4-1)&amp;", "&amp;($L38+36+$U$4-1),IF($K$4,$R$4,IF($K$5,$R$12&amp;$V$4,"ХЗ")))</f>
-        <v>65, 68, 72</v>
-      </c>
-      <c r="O36" s="24"/>
-      <c r="P36" s="21" t="str">
-        <f t="shared" ref="P36" si="49">IF($K$3,($L40+36+$S$6-1)&amp;", "&amp;($L40+36+$T$6-1)&amp;", "&amp;($L40+36+$U$6-1),IF($K$4,$R$6,IF($K$5,$R$12&amp;$V$6,"ХЗ")))</f>
-        <v>70, 73, 80</v>
-      </c>
-      <c r="R36" s="12"/>
-      <c r="S36" s="12"/>
-      <c r="T36" s="12"/>
-      <c r="U36" s="12"/>
-      <c r="V36" s="12"/>
-      <c r="W36" s="12"/>
-      <c r="X36" s="12"/>
-      <c r="Y36" s="12"/>
-      <c r="Z36" s="12"/>
-      <c r="AA36" s="12"/>
-      <c r="AB36" s="11"/>
-      <c r="AC36" s="11"/>
+        <v>c2</v>
+      </c>
+      <c r="M36" s="19"/>
+      <c r="N36" s="18" t="str">
+        <f>IF($K$3,($L38+36+$L$8-1)&amp;", "&amp;($L38+36+$M$8-1)&amp;", "&amp;($L38+36+$N$8-1),IF($K$4,$K$8,IF($K$5,UPPER(MID($L38,1,1))&amp;MID($L38,3,1)&amp;$O$8,"ХЗ")))</f>
+        <v>Fm</v>
+      </c>
+      <c r="O36" s="19"/>
+      <c r="P36" s="16" t="str">
+        <f>IF($K$3,($L40+36+$L$10-1)&amp;", "&amp;($L40+36+$M$10-1)&amp;", "&amp;($L40+36+$N$10-1),IF($K$4,$K$10,IF($K$5,UPPER(MID($L40,1,1))&amp;MID($L40,3,1)&amp;$O$10,"ХЗ")))</f>
+        <v>Asm7</v>
+      </c>
+      <c r="R36" s="9"/>
+      <c r="S36" s="9"/>
+      <c r="T36" s="9"/>
+      <c r="U36" s="9"/>
+      <c r="V36" s="9"/>
+      <c r="W36" s="9"/>
+      <c r="X36" s="9"/>
+      <c r="Y36" s="9"/>
+      <c r="Z36" s="9"/>
+      <c r="AA36" s="9"/>
+      <c r="AB36" s="8"/>
+      <c r="AC36" s="8"/>
     </row>
     <row r="37" spans="1:29" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A37" s="2">
@@ -3557,7 +3497,7 @@
         <f t="shared" si="1"/>
         <v>58.270470189761255</v>
       </c>
-      <c r="C37" s="8"/>
+      <c r="C37" s="25"/>
       <c r="D37" s="2" t="s">
         <v>11</v>
       </c>
@@ -3565,43 +3505,43 @@
         <v>44</v>
       </c>
       <c r="F37" s="3"/>
-      <c r="G37" s="23">
+      <c r="G37" s="18" t="str">
         <f>IF($G$3,$A89,IF($G$4,$D89,IF($G$5,$E89,"ХЗ")))</f>
-        <v>86</v>
-      </c>
-      <c r="H37" s="22"/>
-      <c r="I37" s="21">
+        <v>d6</v>
+      </c>
+      <c r="H37" s="17"/>
+      <c r="I37" s="16" t="str">
         <f>IF($G$3,$A90,IF($G$4,$D90,IF($G$5,$E90,"ХЗ")))</f>
-        <v>87</v>
-      </c>
-      <c r="J37" s="12"/>
-      <c r="K37" s="23">
+        <v>d6s</v>
+      </c>
+      <c r="J37" s="9"/>
+      <c r="K37" s="18" t="str">
         <f>IF($K$3,$A$43,IF($K$4,$D$43,IF($K$5,$E$43,"ХЗ")))</f>
-        <v>40</v>
-      </c>
-      <c r="L37" s="24"/>
-      <c r="M37" s="23" t="str">
-        <f t="shared" ref="M37:M52" si="50">IF($K$3,($L38+36+$S$3-1)&amp;", "&amp;($L38+36+$T$3-1)&amp;", "&amp;($L38+36+$U$3-1),IF($K$4,$R$3,IF($K$5,$R$12&amp;$V$3,"ХЗ")))</f>
-        <v>65, 69, 72</v>
-      </c>
-      <c r="N37" s="24"/>
-      <c r="O37" s="21" t="str">
-        <f t="shared" ref="O37" si="51">IF($K$3,($L40+36+$S$5-1)&amp;", "&amp;($L40+36+$T$5-1)&amp;", "&amp;($L40+36+$U$5-1),IF($K$4,$R$5,IF($K$5,$R$12&amp;$V$5,"ХЗ")))</f>
-        <v>70, 74, 81</v>
-      </c>
-      <c r="P37" s="22"/>
-      <c r="R37" s="12"/>
-      <c r="S37" s="12"/>
-      <c r="T37" s="12"/>
-      <c r="U37" s="12"/>
-      <c r="V37" s="12"/>
-      <c r="W37" s="12"/>
-      <c r="X37" s="12"/>
-      <c r="Y37" s="12"/>
-      <c r="Z37" s="12"/>
-      <c r="AA37" s="12"/>
-      <c r="AB37" s="11"/>
-      <c r="AC37" s="11"/>
+        <v>e2</v>
+      </c>
+      <c r="L37" s="19"/>
+      <c r="M37" s="18" t="str">
+        <f>IF($K$3,($L38+36+$L$7-1)&amp;", "&amp;($L38+36+$M$7-1)&amp;", "&amp;($L38+36+$N$7-1),IF($K$4,$K$7,IF($K$5,UPPER(MID($L38,1,1))&amp;MID($L38,3,1)&amp;$O$7,"ХЗ")))</f>
+        <v>F</v>
+      </c>
+      <c r="N37" s="19"/>
+      <c r="O37" s="16" t="str">
+        <f>IF($K$3,($L40+36+$L$9-1)&amp;", "&amp;($L40+36+$M$9-1)&amp;", "&amp;($L40+36+$N$9-1),IF($K$4,$K$9,IF($K$5,UPPER(MID($L40,1,1))&amp;MID($L40,3,1)&amp;$O$9,"ХЗ")))</f>
+        <v>As7</v>
+      </c>
+      <c r="P37" s="17"/>
+      <c r="R37" s="9"/>
+      <c r="S37" s="9"/>
+      <c r="T37" s="9"/>
+      <c r="U37" s="9"/>
+      <c r="V37" s="9"/>
+      <c r="W37" s="9"/>
+      <c r="X37" s="9"/>
+      <c r="Y37" s="9"/>
+      <c r="Z37" s="9"/>
+      <c r="AA37" s="9"/>
+      <c r="AB37" s="8"/>
+      <c r="AC37" s="8"/>
     </row>
     <row r="38" spans="1:29" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A38" s="2">
@@ -3612,7 +3552,7 @@
         <f t="shared" si="1"/>
         <v>61.735412657015516</v>
       </c>
-      <c r="C38" s="8"/>
+      <c r="C38" s="25"/>
       <c r="D38" s="2" t="s">
         <v>12</v>
       </c>
@@ -3620,40 +3560,40 @@
         <v>45</v>
       </c>
       <c r="F38" s="3"/>
-      <c r="G38" s="24"/>
-      <c r="H38" s="23">
+      <c r="G38" s="19"/>
+      <c r="H38" s="18" t="str">
         <f>IF($G$3,$A91,IF($G$4,$D91,IF($G$5,$E91,"ХЗ")))</f>
-        <v>88</v>
-      </c>
-      <c r="I38" s="22"/>
-      <c r="J38" s="12"/>
-      <c r="K38" s="24"/>
-      <c r="L38" s="23">
+        <v>e6</v>
+      </c>
+      <c r="I38" s="17"/>
+      <c r="J38" s="9"/>
+      <c r="K38" s="19"/>
+      <c r="L38" s="18" t="str">
         <f>IF($K$3,$A$32,IF($K$4,$D$32,IF($K$5,$E$32,"ХЗ")))</f>
-        <v>29</v>
-      </c>
-      <c r="M38" s="24"/>
-      <c r="N38" s="21" t="str">
-        <f t="shared" ref="N38" si="52">IF($K$3,($L40+36+$S$4-1)&amp;", "&amp;($L40+36+$T$4-1)&amp;", "&amp;($L40+36+$U$4-1),IF($K$4,$R$4,IF($K$5,$R$12&amp;$V$4,"ХЗ")))</f>
-        <v>70, 73, 77</v>
-      </c>
-      <c r="O38" s="22"/>
-      <c r="P38" s="21" t="str">
-        <f t="shared" ref="P38" si="53">IF($K$3,($L42+36+$S$6-1)&amp;", "&amp;($L42+36+$T$6-1)&amp;", "&amp;($L42+36+$U$6-1),IF($K$4,$R$6,IF($K$5,$R$12&amp;$V$6,"ХЗ")))</f>
-        <v>75, 78, 85</v>
-      </c>
-      <c r="R38" s="12"/>
-      <c r="S38" s="12"/>
-      <c r="T38" s="12"/>
-      <c r="U38" s="12"/>
-      <c r="V38" s="12"/>
-      <c r="W38" s="12"/>
-      <c r="X38" s="12"/>
-      <c r="Y38" s="12"/>
-      <c r="Z38" s="12"/>
-      <c r="AA38" s="12"/>
-      <c r="AB38" s="11"/>
-      <c r="AC38" s="11"/>
+        <v>f1</v>
+      </c>
+      <c r="M38" s="19"/>
+      <c r="N38" s="16" t="str">
+        <f>IF($K$3,($L40+36+$L$8-1)&amp;", "&amp;($L40+36+$M$8-1)&amp;", "&amp;($L40+36+$N$8-1),IF($K$4,$K$8,IF($K$5,UPPER(MID($L40,1,1))&amp;MID($L40,3,1)&amp;$O$8,"ХЗ")))</f>
+        <v>Asm</v>
+      </c>
+      <c r="O38" s="17"/>
+      <c r="P38" s="16" t="str">
+        <f>IF($K$3,($L42+36+$L$10-1)&amp;", "&amp;($L42+36+$M$10-1)&amp;", "&amp;($L42+36+$N$10-1),IF($K$4,$K$10,IF($K$5,UPPER(MID($L42,1,1))&amp;MID($L42,3,1)&amp;$O$10,"ХЗ")))</f>
+        <v>Dsm7</v>
+      </c>
+      <c r="R38" s="9"/>
+      <c r="S38" s="9"/>
+      <c r="T38" s="9"/>
+      <c r="U38" s="9"/>
+      <c r="V38" s="9"/>
+      <c r="W38" s="9"/>
+      <c r="X38" s="9"/>
+      <c r="Y38" s="9"/>
+      <c r="Z38" s="9"/>
+      <c r="AA38" s="9"/>
+      <c r="AB38" s="8"/>
+      <c r="AC38" s="8"/>
     </row>
     <row r="39" spans="1:29" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A39" s="2">
@@ -3664,7 +3604,7 @@
         <f t="shared" si="1"/>
         <v>65.406391325149656</v>
       </c>
-      <c r="C39" s="8" t="s">
+      <c r="C39" s="25" t="s">
         <v>15</v>
       </c>
       <c r="D39" s="2" t="s">
@@ -3674,43 +3614,43 @@
         <v>46</v>
       </c>
       <c r="F39" s="3"/>
-      <c r="G39" s="23">
+      <c r="G39" s="18" t="str">
         <f>IF($G$3,$A92,IF($G$4,$D92,IF($G$5,$E92,"ХЗ")))</f>
-        <v>89</v>
-      </c>
-      <c r="H39" s="24"/>
-      <c r="I39" s="21">
+        <v>f6</v>
+      </c>
+      <c r="H39" s="19"/>
+      <c r="I39" s="16" t="str">
         <f>IF($G$3,$A93,IF($G$4,$D93,IF($G$5,$E93,"ХЗ")))</f>
-        <v>90</v>
-      </c>
-      <c r="J39" s="12"/>
-      <c r="K39" s="23">
+        <v>f6s</v>
+      </c>
+      <c r="J39" s="9"/>
+      <c r="K39" s="18" t="str">
         <f>IF($K$3,$A36,IF($K$4,$D36,IF($K$5,$E36,"ХЗ")))</f>
-        <v>33</v>
-      </c>
-      <c r="L39" s="24"/>
-      <c r="M39" s="21" t="str">
-        <f t="shared" ref="M39:M52" si="54">IF($K$3,($L40+36+$S$3-1)&amp;", "&amp;($L40+36+$T$3-1)&amp;", "&amp;($L40+36+$U$3-1),IF($K$4,$R$3,IF($K$5,$R$12&amp;$V$3,"ХЗ")))</f>
-        <v>70, 74, 77</v>
-      </c>
-      <c r="N39" s="22"/>
-      <c r="O39" s="21" t="str">
-        <f t="shared" ref="O39" si="55">IF($K$3,($L42+36+$S$5-1)&amp;", "&amp;($L42+36+$T$5-1)&amp;", "&amp;($L42+36+$U$5-1),IF($K$4,$R$5,IF($K$5,$R$12&amp;$V$5,"ХЗ")))</f>
-        <v>75, 79, 86</v>
-      </c>
-      <c r="P39" s="22"/>
-      <c r="R39" s="12"/>
-      <c r="S39" s="12"/>
-      <c r="T39" s="12"/>
-      <c r="U39" s="12"/>
-      <c r="V39" s="12"/>
-      <c r="W39" s="12"/>
-      <c r="X39" s="12"/>
-      <c r="Y39" s="12"/>
-      <c r="Z39" s="12"/>
-      <c r="AA39" s="12"/>
-      <c r="AB39" s="11"/>
-      <c r="AC39" s="11"/>
+        <v>a1</v>
+      </c>
+      <c r="L39" s="19"/>
+      <c r="M39" s="16" t="str">
+        <f>IF($K$3,($L40+36+$L$7-1)&amp;", "&amp;($L40+36+$M$7-1)&amp;", "&amp;($L40+36+$N$7-1),IF($K$4,$K$7,IF($K$5,UPPER(MID($L40,1,1))&amp;MID($L40,3,1)&amp;$O$7,"ХЗ")))</f>
+        <v>As</v>
+      </c>
+      <c r="N39" s="17"/>
+      <c r="O39" s="16" t="str">
+        <f>IF($K$3,($L42+36+$L$9-1)&amp;", "&amp;($L42+36+$M$9-1)&amp;", "&amp;($L42+36+$N$9-1),IF($K$4,$K$9,IF($K$5,UPPER(MID($L42,1,1))&amp;MID($L42,3,1)&amp;$O$9,"ХЗ")))</f>
+        <v>Ds7</v>
+      </c>
+      <c r="P39" s="17"/>
+      <c r="R39" s="9"/>
+      <c r="S39" s="9"/>
+      <c r="T39" s="9"/>
+      <c r="U39" s="9"/>
+      <c r="V39" s="9"/>
+      <c r="W39" s="9"/>
+      <c r="X39" s="9"/>
+      <c r="Y39" s="9"/>
+      <c r="Z39" s="9"/>
+      <c r="AA39" s="9"/>
+      <c r="AB39" s="8"/>
+      <c r="AC39" s="8"/>
     </row>
     <row r="40" spans="1:29" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A40" s="2">
@@ -3721,7 +3661,7 @@
         <f t="shared" si="1"/>
         <v>69.295657744218019</v>
       </c>
-      <c r="C40" s="8"/>
+      <c r="C40" s="25"/>
       <c r="D40" s="2" t="s">
         <v>2</v>
       </c>
@@ -3729,26 +3669,26 @@
         <v>47</v>
       </c>
       <c r="F40" s="3"/>
-      <c r="G40" s="24"/>
-      <c r="H40" s="23">
+      <c r="G40" s="19"/>
+      <c r="H40" s="18" t="str">
         <f>IF($G$3,$A94,IF($G$4,$D94,IF($G$5,$E94,"ХЗ")))</f>
-        <v>91</v>
-      </c>
-      <c r="I40" s="22"/>
-      <c r="K40" s="24"/>
-      <c r="L40" s="21">
+        <v>g6</v>
+      </c>
+      <c r="I40" s="17"/>
+      <c r="K40" s="19"/>
+      <c r="L40" s="16" t="str">
         <f>IF($K$3,$A$37,IF($K$4,$D$37,IF($K$5,$E$37,"ХЗ")))</f>
-        <v>34</v>
-      </c>
-      <c r="M40" s="22"/>
-      <c r="N40" s="21" t="str">
-        <f t="shared" ref="N40" si="56">IF($K$3,($L42+36+$S$4-1)&amp;", "&amp;($L42+36+$T$4-1)&amp;", "&amp;($L42+36+$U$4-1),IF($K$4,$R$4,IF($K$5,$R$12&amp;$V$4,"ХЗ")))</f>
-        <v>75, 78, 82</v>
-      </c>
-      <c r="O40" s="22"/>
-      <c r="P40" s="21" t="str">
-        <f t="shared" ref="P40" si="57">IF($K$3,($L44+36+$S$6-1)&amp;", "&amp;($L44+36+$T$6-1)&amp;", "&amp;($L44+36+$U$6-1),IF($K$4,$R$6,IF($K$5,$R$12&amp;$V$6,"ХЗ")))</f>
-        <v>68, 71, 78</v>
+        <v>a1s</v>
+      </c>
+      <c r="M40" s="17"/>
+      <c r="N40" s="16" t="str">
+        <f>IF($K$3,($L42+36+$L$8-1)&amp;", "&amp;($L42+36+$M$8-1)&amp;", "&amp;($L42+36+$N$8-1),IF($K$4,$K$8,IF($K$5,UPPER(MID($L42,1,1))&amp;MID($L42,3,1)&amp;$O$8,"ХЗ")))</f>
+        <v>Dsm</v>
+      </c>
+      <c r="O40" s="17"/>
+      <c r="P40" s="16" t="str">
+        <f>IF($K$3,($L44+36+$L$10-1)&amp;", "&amp;($L44+36+$M$10-1)&amp;", "&amp;($L44+36+$N$10-1),IF($K$4,$K$10,IF($K$5,UPPER(MID($L44,1,1))&amp;MID($L44,3,1)&amp;$O$10,"ХЗ")))</f>
+        <v>Gsm7</v>
       </c>
     </row>
     <row r="41" spans="1:29" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -3760,7 +3700,7 @@
         <f t="shared" si="1"/>
         <v>73.416191979351879</v>
       </c>
-      <c r="C41" s="8"/>
+      <c r="C41" s="25"/>
       <c r="D41" s="2" t="s">
         <v>3</v>
       </c>
@@ -3768,30 +3708,30 @@
         <v>48</v>
       </c>
       <c r="F41" s="3"/>
-      <c r="G41" s="21">
+      <c r="G41" s="16" t="str">
         <f>IF($G$3,$A95,IF($G$4,$D95,IF($G$5,$E95,"ХЗ")))</f>
-        <v>92</v>
-      </c>
-      <c r="H41" s="24"/>
-      <c r="I41" s="23">
+        <v>g6s</v>
+      </c>
+      <c r="H41" s="19"/>
+      <c r="I41" s="18" t="str">
         <f>IF($G$3,$A96,IF($G$4,$D96,IF($G$5,$E96,"ХЗ")))</f>
-        <v>93</v>
-      </c>
-      <c r="K41" s="23">
+        <v>a6</v>
+      </c>
+      <c r="K41" s="18" t="str">
         <f>IF($K$3,$A41,IF($K$4,$D41,IF($K$5,$E41,"ХЗ")))</f>
-        <v>38</v>
-      </c>
-      <c r="L41" s="22"/>
-      <c r="M41" s="21" t="str">
-        <f t="shared" ref="M41:M52" si="58">IF($K$3,($L42+36+$S$3-1)&amp;", "&amp;($L42+36+$T$3-1)&amp;", "&amp;($L42+36+$U$3-1),IF($K$4,$R$3,IF($K$5,$R$12&amp;$V$3,"ХЗ")))</f>
-        <v>75, 79, 82</v>
-      </c>
-      <c r="N41" s="22"/>
-      <c r="O41" s="21" t="str">
-        <f t="shared" ref="O41" si="59">IF($K$3,($L44+36+$S$5-1)&amp;", "&amp;($L44+36+$T$5-1)&amp;", "&amp;($L44+36+$U$5-1),IF($K$4,$R$5,IF($K$5,$R$12&amp;$V$5,"ХЗ")))</f>
-        <v>68, 72, 79</v>
-      </c>
-      <c r="P41" s="22"/>
+        <v>d2</v>
+      </c>
+      <c r="L41" s="17"/>
+      <c r="M41" s="16" t="str">
+        <f>IF($K$3,($L42+36+$L$7-1)&amp;", "&amp;($L42+36+$M$7-1)&amp;", "&amp;($L42+36+$N$7-1),IF($K$4,$K$7,IF($K$5,UPPER(MID($L42,1,1))&amp;MID($L42,3,1)&amp;$O$7,"ХЗ")))</f>
+        <v>Ds</v>
+      </c>
+      <c r="N41" s="17"/>
+      <c r="O41" s="16" t="str">
+        <f>IF($K$3,($L44+36+$L$9-1)&amp;", "&amp;($L44+36+$M$9-1)&amp;", "&amp;($L44+36+$N$9-1),IF($K$4,$K$9,IF($K$5,UPPER(MID($L44,1,1))&amp;MID($L44,3,1)&amp;$O$9,"ХЗ")))</f>
+        <v>Gs7</v>
+      </c>
+      <c r="P41" s="17"/>
     </row>
     <row r="42" spans="1:29" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A42" s="2">
@@ -3802,7 +3742,7 @@
         <f t="shared" si="1"/>
         <v>77.781745930520216</v>
       </c>
-      <c r="C42" s="8"/>
+      <c r="C42" s="25"/>
       <c r="D42" s="2" t="s">
         <v>4</v>
       </c>
@@ -3810,26 +3750,26 @@
         <v>49</v>
       </c>
       <c r="F42" s="3"/>
-      <c r="G42" s="22"/>
-      <c r="H42" s="21">
+      <c r="G42" s="17"/>
+      <c r="H42" s="16" t="str">
         <f>IF($G$3,$A97,IF($G$4,$D97,IF($G$5,$E97,"ХЗ")))</f>
-        <v>94</v>
-      </c>
-      <c r="I42" s="24"/>
-      <c r="K42" s="24"/>
-      <c r="L42" s="21">
+        <v>a6s</v>
+      </c>
+      <c r="I42" s="19"/>
+      <c r="K42" s="19"/>
+      <c r="L42" s="16" t="str">
         <f>IF($K$3,$A$42,IF($K$4,$D$42,IF($K$5,$E$42,"ХЗ")))</f>
-        <v>39</v>
-      </c>
-      <c r="M42" s="22"/>
-      <c r="N42" s="21" t="str">
-        <f t="shared" ref="N42" si="60">IF($K$3,($L44+36+$S$4-1)&amp;", "&amp;($L44+36+$T$4-1)&amp;", "&amp;($L44+36+$U$4-1),IF($K$4,$R$4,IF($K$5,$R$12&amp;$V$4,"ХЗ")))</f>
-        <v>68, 71, 75</v>
-      </c>
-      <c r="O42" s="22"/>
-      <c r="P42" s="21" t="str">
-        <f t="shared" ref="P42" si="61">IF($K$3,($L46+36+$S$6-1)&amp;", "&amp;($L46+36+$T$6-1)&amp;", "&amp;($L46+36+$U$6-1),IF($K$4,$R$6,IF($K$5,$R$12&amp;$V$6,"ХЗ")))</f>
-        <v>73, 76, 83</v>
+        <v>d2s</v>
+      </c>
+      <c r="M42" s="17"/>
+      <c r="N42" s="16" t="str">
+        <f>IF($K$3,($L44+36+$L$8-1)&amp;", "&amp;($L44+36+$M$8-1)&amp;", "&amp;($L44+36+$N$8-1),IF($K$4,$K$8,IF($K$5,UPPER(MID($L44,1,1))&amp;MID($L44,3,1)&amp;$O$8,"ХЗ")))</f>
+        <v>Gsm</v>
+      </c>
+      <c r="O42" s="17"/>
+      <c r="P42" s="16" t="str">
+        <f>IF($K$3,($L46+36+$L$10-1)&amp;", "&amp;($L46+36+$M$10-1)&amp;", "&amp;($L46+36+$N$10-1),IF($K$4,$K$10,IF($K$5,UPPER(MID($L46,1,1))&amp;MID($L46,3,1)&amp;$O$10,"ХЗ")))</f>
+        <v>Csm7</v>
       </c>
     </row>
     <row r="43" spans="1:29" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -3841,7 +3781,7 @@
         <f t="shared" si="1"/>
         <v>82.406889228217494</v>
       </c>
-      <c r="C43" s="8"/>
+      <c r="C43" s="25"/>
       <c r="D43" s="2" t="s">
         <v>5</v>
       </c>
@@ -3849,30 +3789,30 @@
         <v>50</v>
       </c>
       <c r="F43" s="3"/>
-      <c r="G43" s="18">
+      <c r="G43" s="23" t="str">
         <f>IF($G$3,$A98,IF($G$4,$D98,IF($G$5,$E98,"ХЗ")))</f>
-        <v>95</v>
-      </c>
-      <c r="H43" s="25"/>
-      <c r="I43" s="18">
+        <v>b6</v>
+      </c>
+      <c r="H43" s="22"/>
+      <c r="I43" s="23" t="str">
         <f>IF($G$3,$A99,IF($G$4,$D99,IF($G$5,$E99,"ХЗ")))</f>
-        <v>96</v>
-      </c>
-      <c r="K43" s="23">
+        <v>c7</v>
+      </c>
+      <c r="K43" s="18" t="str">
         <f>IF($K$3,$A$34,IF($K$4,$D$34,IF($K$5,$E$34,"ХЗ")))</f>
-        <v>31</v>
-      </c>
-      <c r="L43" s="22"/>
-      <c r="M43" s="21" t="str">
-        <f t="shared" ref="M43:M52" si="62">IF($K$3,($L44+36+$S$3-1)&amp;", "&amp;($L44+36+$T$3-1)&amp;", "&amp;($L44+36+$U$3-1),IF($K$4,$R$3,IF($K$5,$R$12&amp;$V$3,"ХЗ")))</f>
-        <v>68, 72, 75</v>
-      </c>
-      <c r="N43" s="22"/>
-      <c r="O43" s="21" t="str">
-        <f t="shared" ref="O43" si="63">IF($K$3,($L46+36+$S$5-1)&amp;", "&amp;($L46+36+$T$5-1)&amp;", "&amp;($L46+36+$U$5-1),IF($K$4,$R$5,IF($K$5,$R$12&amp;$V$5,"ХЗ")))</f>
-        <v>73, 77, 84</v>
-      </c>
-      <c r="P43" s="22"/>
+        <v>g1</v>
+      </c>
+      <c r="L43" s="17"/>
+      <c r="M43" s="16" t="str">
+        <f>IF($K$3,($L44+36+$L$7-1)&amp;", "&amp;($L44+36+$M$7-1)&amp;", "&amp;($L44+36+$N$7-1),IF($K$4,$K$7,IF($K$5,UPPER(MID($L44,1,1))&amp;MID($L44,3,1)&amp;$O$7,"ХЗ")))</f>
+        <v>Gs</v>
+      </c>
+      <c r="N43" s="17"/>
+      <c r="O43" s="16" t="str">
+        <f>IF($K$3,($L46+36+$L$9-1)&amp;", "&amp;($L46+36+$M$9-1)&amp;", "&amp;($L46+36+$N$9-1),IF($K$4,$K$9,IF($K$5,UPPER(MID($L46,1,1))&amp;MID($L46,3,1)&amp;$O$9,"ХЗ")))</f>
+        <v>Cs7</v>
+      </c>
+      <c r="P43" s="17"/>
     </row>
     <row r="44" spans="1:29" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A44" s="2">
@@ -3883,7 +3823,7 @@
         <f t="shared" si="1"/>
         <v>87.307057858250957</v>
       </c>
-      <c r="C44" s="8"/>
+      <c r="C44" s="25"/>
       <c r="D44" s="2" t="s">
         <v>6</v>
       </c>
@@ -3891,26 +3831,26 @@
         <v>51</v>
       </c>
       <c r="F44" s="3"/>
-      <c r="G44" s="18"/>
-      <c r="H44" s="26">
+      <c r="G44" s="23"/>
+      <c r="H44" s="24" t="str">
         <f>IF($G$3,$A100,IF($G$4,$D100,IF($G$5,$E100,"ХЗ")))</f>
-        <v>97</v>
-      </c>
-      <c r="I44" s="18"/>
-      <c r="K44" s="24"/>
-      <c r="L44" s="21">
+        <v>c7s</v>
+      </c>
+      <c r="I44" s="23"/>
+      <c r="K44" s="19"/>
+      <c r="L44" s="16" t="str">
         <f>IF($K$3,$A$35,IF($K$4,$D$35,IF($K$5,$E$35,"ХЗ")))</f>
-        <v>32</v>
-      </c>
-      <c r="M44" s="22"/>
-      <c r="N44" s="21" t="str">
-        <f t="shared" ref="N44" si="64">IF($K$3,($L46+36+$S$4-1)&amp;", "&amp;($L46+36+$T$4-1)&amp;", "&amp;($L46+36+$U$4-1),IF($K$4,$R$4,IF($K$5,$R$12&amp;$V$4,"ХЗ")))</f>
-        <v>73, 76, 80</v>
-      </c>
-      <c r="O44" s="22"/>
-      <c r="P44" s="21" t="str">
-        <f t="shared" ref="P44" si="65">IF($K$3,($L48+36+$S$6-1)&amp;", "&amp;($L48+36+$T$6-1)&amp;", "&amp;($L48+36+$U$6-1),IF($K$4,$R$6,IF($K$5,$R$12&amp;$V$6,"ХЗ")))</f>
-        <v>66, 69, 76</v>
+        <v>g1s</v>
+      </c>
+      <c r="M44" s="17"/>
+      <c r="N44" s="16" t="str">
+        <f>IF($K$3,($L46+36+$L$8-1)&amp;", "&amp;($L46+36+$M$8-1)&amp;", "&amp;($L46+36+$N$8-1),IF($K$4,$K$8,IF($K$5,UPPER(MID($L46,1,1))&amp;MID($L46,3,1)&amp;$O$8,"ХЗ")))</f>
+        <v>Csm</v>
+      </c>
+      <c r="O44" s="17"/>
+      <c r="P44" s="16" t="str">
+        <f>IF($K$3,($L48+36+$L$10-1)&amp;", "&amp;($L48+36+$M$10-1)&amp;", "&amp;($L48+36+$N$10-1),IF($K$4,$K$10,IF($K$5,UPPER(MID($L48,1,1))&amp;MID($L48,3,1)&amp;$O$10,"ХЗ")))</f>
+        <v>Fsm7</v>
       </c>
     </row>
     <row r="45" spans="1:29" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -3922,7 +3862,7 @@
         <f t="shared" si="1"/>
         <v>92.498605677908614</v>
       </c>
-      <c r="C45" s="8"/>
+      <c r="C45" s="25"/>
       <c r="D45" s="2" t="s">
         <v>7</v>
       </c>
@@ -3930,24 +3870,24 @@
         <v>52</v>
       </c>
       <c r="F45" s="3"/>
-      <c r="G45" s="19"/>
-      <c r="H45" s="26"/>
-      <c r="I45" s="19"/>
-      <c r="K45" s="23">
+      <c r="G45" s="13"/>
+      <c r="H45" s="24"/>
+      <c r="I45" s="13"/>
+      <c r="K45" s="18" t="str">
         <f>IF($K$3,$A$39,IF($K$4,$D$39,IF($K$5,$E$39,"ХЗ")))</f>
-        <v>36</v>
-      </c>
-      <c r="L45" s="22"/>
-      <c r="M45" s="21" t="str">
-        <f t="shared" ref="M45:M52" si="66">IF($K$3,($L46+36+$S$3-1)&amp;", "&amp;($L46+36+$T$3-1)&amp;", "&amp;($L46+36+$U$3-1),IF($K$4,$R$3,IF($K$5,$R$12&amp;$V$3,"ХЗ")))</f>
-        <v>73, 77, 80</v>
-      </c>
-      <c r="N45" s="22"/>
-      <c r="O45" s="21" t="str">
-        <f t="shared" ref="O45" si="67">IF($K$3,($L48+36+$S$5-1)&amp;", "&amp;($L48+36+$T$5-1)&amp;", "&amp;($L48+36+$U$5-1),IF($K$4,$R$5,IF($K$5,$R$12&amp;$V$5,"ХЗ")))</f>
-        <v>66, 70, 77</v>
-      </c>
-      <c r="P45" s="22"/>
+        <v>c2</v>
+      </c>
+      <c r="L45" s="17"/>
+      <c r="M45" s="16" t="str">
+        <f>IF($K$3,($L46+36+$L$7-1)&amp;", "&amp;($L46+36+$M$7-1)&amp;", "&amp;($L46+36+$N$7-1),IF($K$4,$K$7,IF($K$5,UPPER(MID($L46,1,1))&amp;MID($L46,3,1)&amp;$O$7,"ХЗ")))</f>
+        <v>Cs</v>
+      </c>
+      <c r="N45" s="17"/>
+      <c r="O45" s="16" t="str">
+        <f>IF($K$3,($L48+36+$L$9-1)&amp;", "&amp;($L48+36+$M$9-1)&amp;", "&amp;($L48+36+$N$9-1),IF($K$4,$K$9,IF($K$5,UPPER(MID($L48,1,1))&amp;MID($L48,3,1)&amp;$O$9,"ХЗ")))</f>
+        <v>Fs7</v>
+      </c>
+      <c r="P45" s="17"/>
     </row>
     <row r="46" spans="1:29" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A46" s="2">
@@ -3958,7 +3898,7 @@
         <f t="shared" si="1"/>
         <v>97.998858995437345</v>
       </c>
-      <c r="C46" s="8"/>
+      <c r="C46" s="25"/>
       <c r="D46" s="2" t="s">
         <v>8</v>
       </c>
@@ -3966,23 +3906,23 @@
         <v>53</v>
       </c>
       <c r="F46" s="3"/>
-      <c r="G46" s="19"/>
-      <c r="H46" s="19"/>
-      <c r="I46" s="19"/>
-      <c r="K46" s="24"/>
-      <c r="L46" s="21">
+      <c r="G46" s="13"/>
+      <c r="H46" s="13"/>
+      <c r="I46" s="13"/>
+      <c r="K46" s="19"/>
+      <c r="L46" s="16" t="str">
         <f>IF($K$3,$A$40,IF($K$4,$D$40,IF($K$5,$E$40,"ХЗ")))</f>
-        <v>37</v>
-      </c>
-      <c r="M46" s="22"/>
-      <c r="N46" s="21" t="str">
-        <f t="shared" ref="N46" si="68">IF($K$3,($L48+36+$S$4-1)&amp;", "&amp;($L48+36+$T$4-1)&amp;", "&amp;($L48+36+$U$4-1),IF($K$4,$R$4,IF($K$5,$R$12&amp;$V$4,"ХЗ")))</f>
-        <v>66, 69, 73</v>
-      </c>
-      <c r="O46" s="22"/>
-      <c r="P46" s="23" t="str">
-        <f t="shared" ref="P46" si="69">IF($K$3,($L50+36+$S$6-1)&amp;", "&amp;($L50+36+$T$6-1)&amp;", "&amp;($L50+36+$U$6-1),IF($K$4,$R$6,IF($K$5,$R$12&amp;$V$6,"ХЗ")))</f>
-        <v>71, 74, 81</v>
+        <v>c2s</v>
+      </c>
+      <c r="M46" s="17"/>
+      <c r="N46" s="16" t="str">
+        <f>IF($K$3,($L48+36+$L$8-1)&amp;", "&amp;($L48+36+$M$8-1)&amp;", "&amp;($L48+36+$N$8-1),IF($K$4,$K$8,IF($K$5,UPPER(MID($L48,1,1))&amp;MID($L48,3,1)&amp;$O$8,"ХЗ")))</f>
+        <v>Fsm</v>
+      </c>
+      <c r="O46" s="17"/>
+      <c r="P46" s="18" t="str">
+        <f>IF($K$3,($L50+36+$L$10-1)&amp;", "&amp;($L50+36+$M$10-1)&amp;", "&amp;($L50+36+$N$10-1),IF($K$4,$K$10,IF($K$5,UPPER(MID($L50,1,1))&amp;MID($L50,3,1)&amp;$O$10,"ХЗ")))</f>
+        <v>Bm7</v>
       </c>
     </row>
     <row r="47" spans="1:29" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -3994,7 +3934,7 @@
         <f t="shared" si="1"/>
         <v>103.82617439498628</v>
       </c>
-      <c r="C47" s="8"/>
+      <c r="C47" s="25"/>
       <c r="D47" s="2" t="s">
         <v>9</v>
       </c>
@@ -4002,24 +3942,24 @@
         <v>54</v>
       </c>
       <c r="F47" s="3"/>
-      <c r="G47" s="19"/>
-      <c r="H47" s="19"/>
-      <c r="I47" s="19"/>
-      <c r="K47" s="23">
+      <c r="G47" s="13"/>
+      <c r="H47" s="13"/>
+      <c r="I47" s="13"/>
+      <c r="K47" s="18" t="str">
         <f>IF($K$3,$A$32,IF($K$4,$D$32,IF($K$5,$E$32,"ХЗ")))</f>
-        <v>29</v>
-      </c>
-      <c r="L47" s="22"/>
-      <c r="M47" s="21" t="str">
-        <f t="shared" ref="M47:M52" si="70">IF($K$3,($L48+36+$S$3-1)&amp;", "&amp;($L48+36+$T$3-1)&amp;", "&amp;($L48+36+$U$3-1),IF($K$4,$R$3,IF($K$5,$R$12&amp;$V$3,"ХЗ")))</f>
-        <v>66, 70, 73</v>
-      </c>
-      <c r="N47" s="22"/>
-      <c r="O47" s="23" t="str">
-        <f t="shared" ref="O47" si="71">IF($K$3,($L50+36+$S$5-1)&amp;", "&amp;($L50+36+$T$5-1)&amp;", "&amp;($L50+36+$U$5-1),IF($K$4,$R$5,IF($K$5,$R$12&amp;$V$5,"ХЗ")))</f>
-        <v>71, 75, 82</v>
-      </c>
-      <c r="P47" s="24"/>
+        <v>f1</v>
+      </c>
+      <c r="L47" s="17"/>
+      <c r="M47" s="16" t="str">
+        <f>IF($K$3,($L48+36+$L$7-1)&amp;", "&amp;($L48+36+$M$7-1)&amp;", "&amp;($L48+36+$N$7-1),IF($K$4,$K$7,IF($K$5,UPPER(MID($L48,1,1))&amp;MID($L48,3,1)&amp;$O$7,"ХЗ")))</f>
+        <v>Fs</v>
+      </c>
+      <c r="N47" s="17"/>
+      <c r="O47" s="18" t="str">
+        <f>IF($K$3,($L50+36+$L$9-1)&amp;", "&amp;($L50+36+$M$9-1)&amp;", "&amp;($L50+36+$N$9-1),IF($K$4,$K$9,IF($K$5,UPPER(MID($L50,1,1))&amp;MID($L50,3,1)&amp;$O$9,"ХЗ")))</f>
+        <v>B7</v>
+      </c>
+      <c r="P47" s="19"/>
     </row>
     <row r="48" spans="1:29" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A48" s="2">
@@ -4030,7 +3970,7 @@
         <f t="shared" si="1"/>
         <v>110</v>
       </c>
-      <c r="C48" s="8"/>
+      <c r="C48" s="25"/>
       <c r="D48" s="2" t="s">
         <v>10</v>
       </c>
@@ -4038,20 +3978,20 @@
         <v>55</v>
       </c>
       <c r="F48" s="3"/>
-      <c r="K48" s="24"/>
-      <c r="L48" s="21">
+      <c r="K48" s="19"/>
+      <c r="L48" s="16" t="str">
         <f>IF($K$3,$A$33,IF($K$4,$D$33,IF($K$5,$E$33,"ХЗ")))</f>
-        <v>30</v>
-      </c>
-      <c r="M48" s="22"/>
-      <c r="N48" s="23" t="str">
-        <f t="shared" ref="N48" si="72">IF($K$3,($L50+36+$S$4-1)&amp;", "&amp;($L50+36+$T$4-1)&amp;", "&amp;($L50+36+$U$4-1),IF($K$4,$R$4,IF($K$5,$R$12&amp;$V$4,"ХЗ")))</f>
-        <v>71, 74, 78</v>
-      </c>
-      <c r="O48" s="24"/>
-      <c r="P48" s="23" t="str">
-        <f t="shared" ref="P48" si="73">IF($K$3,($L52+36+$S$6-1)&amp;", "&amp;($L52+36+$T$6-1)&amp;", "&amp;($L52+36+$U$6-1),IF($K$4,$R$6,IF($K$5,$R$12&amp;$V$6,"ХЗ")))</f>
-        <v>76, 79, 86</v>
+        <v>f1s</v>
+      </c>
+      <c r="M48" s="17"/>
+      <c r="N48" s="18" t="str">
+        <f>IF($K$3,($L50+36+$L$8-1)&amp;", "&amp;($L50+36+$M$8-1)&amp;", "&amp;($L50+36+$N$8-1),IF($K$4,$K$8,IF($K$5,UPPER(MID($L50,1,1))&amp;MID($L50,3,1)&amp;$O$8,"ХЗ")))</f>
+        <v>Bm</v>
+      </c>
+      <c r="O48" s="19"/>
+      <c r="P48" s="18" t="str">
+        <f>IF($K$3,($L52+36+$L$10-1)&amp;", "&amp;($L52+36+$M$10-1)&amp;", "&amp;($L52+36+$N$10-1),IF($K$4,$K$10,IF($K$5,UPPER(MID($L52,1,1))&amp;MID($L52,3,1)&amp;$O$10,"ХЗ")))</f>
+        <v>Em7</v>
       </c>
     </row>
     <row r="49" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -4063,29 +4003,29 @@
         <f t="shared" si="1"/>
         <v>116.54094037952248</v>
       </c>
-      <c r="C49" s="8"/>
+      <c r="C49" s="25"/>
       <c r="D49" s="2" t="s">
         <v>11</v>
       </c>
       <c r="E49" s="2" t="s">
         <v>56</v>
       </c>
-      <c r="F49" s="12"/>
-      <c r="K49" s="21">
+      <c r="F49" s="9"/>
+      <c r="K49" s="16" t="str">
         <f>IF($K$3,$A$37,IF($K$4,$D$37,IF($K$5,$E$37,"ХЗ")))</f>
-        <v>34</v>
-      </c>
-      <c r="L49" s="22"/>
-      <c r="M49" s="23" t="str">
-        <f t="shared" ref="M49:M52" si="74">IF($K$3,($L50+36+$S$3-1)&amp;", "&amp;($L50+36+$T$3-1)&amp;", "&amp;($L50+36+$U$3-1),IF($K$4,$R$3,IF($K$5,$R$12&amp;$V$3,"ХЗ")))</f>
-        <v>71, 75, 78</v>
-      </c>
-      <c r="N49" s="24"/>
-      <c r="O49" s="23" t="str">
-        <f t="shared" ref="O49" si="75">IF($K$3,($L52+36+$S$5-1)&amp;", "&amp;($L52+36+$T$5-1)&amp;", "&amp;($L52+36+$U$5-1),IF($K$4,$R$5,IF($K$5,$R$12&amp;$V$5,"ХЗ")))</f>
-        <v>76, 80, 87</v>
-      </c>
-      <c r="P49" s="24"/>
+        <v>a1s</v>
+      </c>
+      <c r="L49" s="17"/>
+      <c r="M49" s="18" t="str">
+        <f>IF($K$3,($L50+36+$L$7-1)&amp;", "&amp;($L50+36+$M$7-1)&amp;", "&amp;($L50+36+$N$7-1),IF($K$4,$K$7,IF($K$5,UPPER(MID($L50,1,1))&amp;MID($L50,3,1)&amp;$O$7,"ХЗ")))</f>
+        <v>B</v>
+      </c>
+      <c r="N49" s="19"/>
+      <c r="O49" s="18" t="str">
+        <f>IF($K$3,($L52+36+$L$9-1)&amp;", "&amp;($L52+36+$M$9-1)&amp;", "&amp;($L52+36+$N$9-1),IF($K$4,$K$9,IF($K$5,UPPER(MID($L52,1,1))&amp;MID($L52,3,1)&amp;$O$9,"ХЗ")))</f>
+        <v>E7</v>
+      </c>
+      <c r="P49" s="19"/>
     </row>
     <row r="50" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A50" s="2">
@@ -4096,25 +4036,25 @@
         <f t="shared" si="1"/>
         <v>123.47082531403106</v>
       </c>
-      <c r="C50" s="8"/>
+      <c r="C50" s="25"/>
       <c r="D50" s="2" t="s">
         <v>12</v>
       </c>
       <c r="E50" s="2" t="s">
         <v>57</v>
       </c>
-      <c r="F50" s="12"/>
-      <c r="K50" s="22"/>
-      <c r="L50" s="23">
+      <c r="F50" s="9"/>
+      <c r="K50" s="17"/>
+      <c r="L50" s="18" t="str">
         <f>IF($K$3,$A$38,IF($K$4,$D$38,IF($K$5,$E$38,"ХЗ")))</f>
-        <v>35</v>
-      </c>
-      <c r="M50" s="24"/>
-      <c r="N50" s="23" t="str">
-        <f t="shared" ref="N50" si="76">IF($K$3,($L52+36+$S$4-1)&amp;", "&amp;($L52+36+$T$4-1)&amp;", "&amp;($L52+36+$U$4-1),IF($K$4,$R$4,IF($K$5,$R$12&amp;$V$4,"ХЗ")))</f>
-        <v>76, 79, 83</v>
-      </c>
-      <c r="O50" s="24"/>
+        <v>b1</v>
+      </c>
+      <c r="M50" s="19"/>
+      <c r="N50" s="18" t="str">
+        <f>IF($K$3,($L52+36+$L$8-1)&amp;", "&amp;($L52+36+$M$8-1)&amp;", "&amp;($L52+36+$N$8-1),IF($K$4,$K$8,IF($K$5,UPPER(MID($L52,1,1))&amp;MID($L52,3,1)&amp;$O$8,"ХЗ")))</f>
+        <v>Em</v>
+      </c>
+      <c r="O50" s="19"/>
     </row>
     <row r="51" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A51" s="2">
@@ -4125,7 +4065,7 @@
         <f t="shared" si="1"/>
         <v>130.81278265029931</v>
       </c>
-      <c r="C51" s="8" t="s">
+      <c r="C51" s="25" t="s">
         <v>16</v>
       </c>
       <c r="D51" s="2" t="s">
@@ -4134,17 +4074,17 @@
       <c r="E51" s="2" t="s">
         <v>58</v>
       </c>
-      <c r="F51" s="12"/>
-      <c r="K51" s="21">
+      <c r="F51" s="9"/>
+      <c r="K51" s="16" t="str">
         <f>IF($K$3,$A$42,IF($K$4,$D$42,IF($K$5,$E$42,"ХЗ")))</f>
-        <v>39</v>
-      </c>
-      <c r="L51" s="24"/>
-      <c r="M51" s="23" t="str">
-        <f t="shared" ref="M51:M52" si="77">IF($K$3,($L52+36+$S$3-1)&amp;", "&amp;($L52+36+$T$3-1)&amp;", "&amp;($L52+36+$U$3-1),IF($K$4,$R$3,IF($K$5,$R$12&amp;$V$3,"ХЗ")))</f>
-        <v>76, 80, 83</v>
-      </c>
-      <c r="N51" s="24"/>
+        <v>d2s</v>
+      </c>
+      <c r="L51" s="19"/>
+      <c r="M51" s="18" t="str">
+        <f>IF($K$3,($L52+36+$L$7-1)&amp;", "&amp;($L52+36+$M$7-1)&amp;", "&amp;($L52+36+$N$7-1),IF($K$4,$K$7,IF($K$5,UPPER(MID($L52,1,1))&amp;MID($L52,3,1)&amp;$O$7,"ХЗ")))</f>
+        <v>E</v>
+      </c>
+      <c r="N51" s="19"/>
     </row>
     <row r="52" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A52" s="2">
@@ -4155,20 +4095,20 @@
         <f t="shared" si="1"/>
         <v>138.59131548843604</v>
       </c>
-      <c r="C52" s="8"/>
+      <c r="C52" s="25"/>
       <c r="D52" s="2" t="s">
         <v>2</v>
       </c>
       <c r="E52" s="2" t="s">
         <v>59</v>
       </c>
-      <c r="F52" s="12"/>
-      <c r="K52" s="22"/>
-      <c r="L52" s="23">
+      <c r="F52" s="9"/>
+      <c r="K52" s="17"/>
+      <c r="L52" s="18" t="str">
         <f>IF($K$3,$A$43,IF($K$4,$D$43,IF($K$5,$E$43,"ХЗ")))</f>
-        <v>40</v>
-      </c>
-      <c r="M52" s="24"/>
+        <v>e2</v>
+      </c>
+      <c r="M52" s="19"/>
     </row>
     <row r="53" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A53" s="2">
@@ -4179,19 +4119,19 @@
         <f t="shared" si="1"/>
         <v>146.83238395870382</v>
       </c>
-      <c r="C53" s="8"/>
+      <c r="C53" s="25"/>
       <c r="D53" s="2" t="s">
         <v>3</v>
       </c>
       <c r="E53" s="2" t="s">
         <v>60</v>
       </c>
-      <c r="F53" s="12"/>
-      <c r="K53" s="21">
+      <c r="F53" s="9"/>
+      <c r="K53" s="16" t="str">
         <f>IF($K$3,$A$35,IF($K$4,$D$35,IF($K$5,$E$35,"ХЗ")))</f>
-        <v>32</v>
-      </c>
-      <c r="L53" s="24"/>
+        <v>g1s</v>
+      </c>
+      <c r="L53" s="19"/>
     </row>
     <row r="54" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A54" s="2">
@@ -4202,15 +4142,15 @@
         <f t="shared" si="1"/>
         <v>155.56349186104046</v>
       </c>
-      <c r="C54" s="8"/>
+      <c r="C54" s="25"/>
       <c r="D54" s="2" t="s">
         <v>4</v>
       </c>
       <c r="E54" s="2" t="s">
         <v>61</v>
       </c>
-      <c r="F54" s="12"/>
-      <c r="K54" s="22"/>
+      <c r="F54" s="9"/>
+      <c r="K54" s="17"/>
     </row>
     <row r="55" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A55" s="2">
@@ -4221,14 +4161,14 @@
         <f t="shared" si="1"/>
         <v>164.81377845643496</v>
       </c>
-      <c r="C55" s="8"/>
+      <c r="C55" s="25"/>
       <c r="D55" s="2" t="s">
         <v>5</v>
       </c>
       <c r="E55" s="2" t="s">
         <v>62</v>
       </c>
-      <c r="F55" s="12"/>
+      <c r="F55" s="9"/>
     </row>
     <row r="56" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A56" s="2">
@@ -4239,14 +4179,14 @@
         <f t="shared" si="1"/>
         <v>174.61411571650197</v>
       </c>
-      <c r="C56" s="8"/>
+      <c r="C56" s="25"/>
       <c r="D56" s="2" t="s">
         <v>6</v>
       </c>
       <c r="E56" s="2" t="s">
         <v>63</v>
       </c>
-      <c r="F56" s="12"/>
+      <c r="F56" s="9"/>
     </row>
     <row r="57" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A57" s="2">
@@ -4257,14 +4197,14 @@
         <f t="shared" si="1"/>
         <v>184.99721135581723</v>
       </c>
-      <c r="C57" s="8"/>
+      <c r="C57" s="25"/>
       <c r="D57" s="2" t="s">
         <v>7</v>
       </c>
       <c r="E57" s="2" t="s">
         <v>64</v>
       </c>
-      <c r="F57" s="12"/>
+      <c r="F57" s="9"/>
     </row>
     <row r="58" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A58" s="2">
@@ -4275,14 +4215,14 @@
         <f t="shared" si="1"/>
         <v>195.99771799087463</v>
       </c>
-      <c r="C58" s="8"/>
+      <c r="C58" s="25"/>
       <c r="D58" s="2" t="s">
         <v>8</v>
       </c>
       <c r="E58" s="2" t="s">
         <v>65</v>
       </c>
-      <c r="F58" s="12"/>
+      <c r="F58" s="9"/>
     </row>
     <row r="59" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A59" s="2">
@@ -4293,14 +4233,14 @@
         <f t="shared" si="1"/>
         <v>207.65234878997259</v>
       </c>
-      <c r="C59" s="8"/>
+      <c r="C59" s="25"/>
       <c r="D59" s="2" t="s">
         <v>9</v>
       </c>
       <c r="E59" s="2" t="s">
         <v>66</v>
       </c>
-      <c r="F59" s="12"/>
+      <c r="F59" s="9"/>
     </row>
     <row r="60" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A60" s="2">
@@ -4311,14 +4251,14 @@
         <f t="shared" si="1"/>
         <v>220</v>
       </c>
-      <c r="C60" s="8"/>
+      <c r="C60" s="25"/>
       <c r="D60" s="2" t="s">
         <v>10</v>
       </c>
       <c r="E60" s="2" t="s">
         <v>67</v>
       </c>
-      <c r="F60" s="12"/>
+      <c r="F60" s="9"/>
     </row>
     <row r="61" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A61" s="2">
@@ -4329,14 +4269,14 @@
         <f t="shared" si="1"/>
         <v>233.08188075904496</v>
       </c>
-      <c r="C61" s="8"/>
+      <c r="C61" s="25"/>
       <c r="D61" s="2" t="s">
         <v>11</v>
       </c>
       <c r="E61" s="2" t="s">
         <v>68</v>
       </c>
-      <c r="F61" s="12"/>
+      <c r="F61" s="9"/>
     </row>
     <row r="62" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A62" s="2">
@@ -4347,14 +4287,14 @@
         <f t="shared" si="1"/>
         <v>246.94165062806206</v>
       </c>
-      <c r="C62" s="8"/>
+      <c r="C62" s="25"/>
       <c r="D62" s="2" t="s">
         <v>12</v>
       </c>
       <c r="E62" s="2" t="s">
         <v>69</v>
       </c>
-      <c r="F62" s="12"/>
+      <c r="F62" s="9"/>
     </row>
     <row r="63" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A63" s="2">
@@ -4365,7 +4305,7 @@
         <f t="shared" si="1"/>
         <v>261.62556530059862</v>
       </c>
-      <c r="C63" s="8" t="s">
+      <c r="C63" s="25" t="s">
         <v>17</v>
       </c>
       <c r="D63" s="2" t="s">
@@ -4374,7 +4314,7 @@
       <c r="E63" s="2" t="s">
         <v>70</v>
       </c>
-      <c r="F63" s="12"/>
+      <c r="F63" s="9"/>
     </row>
     <row r="64" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A64" s="2">
@@ -4385,14 +4325,14 @@
         <f t="shared" si="1"/>
         <v>277.18263097687208</v>
       </c>
-      <c r="C64" s="8"/>
+      <c r="C64" s="25"/>
       <c r="D64" s="2" t="s">
         <v>2</v>
       </c>
       <c r="E64" s="2" t="s">
         <v>71</v>
       </c>
-      <c r="F64" s="12"/>
+      <c r="F64" s="9"/>
     </row>
     <row r="65" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A65" s="2">
@@ -4403,14 +4343,14 @@
         <f t="shared" si="1"/>
         <v>293.66476791740757</v>
       </c>
-      <c r="C65" s="8"/>
+      <c r="C65" s="25"/>
       <c r="D65" s="2" t="s">
         <v>3</v>
       </c>
       <c r="E65" s="2" t="s">
         <v>72</v>
       </c>
-      <c r="F65" s="12"/>
+      <c r="F65" s="9"/>
     </row>
     <row r="66" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A66" s="2">
@@ -4421,14 +4361,14 @@
         <f t="shared" si="1"/>
         <v>311.12698372208087</v>
       </c>
-      <c r="C66" s="8"/>
+      <c r="C66" s="25"/>
       <c r="D66" s="2" t="s">
         <v>4</v>
       </c>
       <c r="E66" s="2" t="s">
         <v>73</v>
       </c>
-      <c r="F66" s="12"/>
+      <c r="F66" s="9"/>
     </row>
     <row r="67" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A67" s="2">
@@ -4439,14 +4379,14 @@
         <f t="shared" si="1"/>
         <v>329.62755691286992</v>
       </c>
-      <c r="C67" s="8"/>
+      <c r="C67" s="25"/>
       <c r="D67" s="2" t="s">
         <v>5</v>
       </c>
       <c r="E67" s="2" t="s">
         <v>74</v>
       </c>
-      <c r="F67" s="12"/>
+      <c r="F67" s="9"/>
     </row>
     <row r="68" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A68" s="2">
@@ -4457,133 +4397,133 @@
         <f t="shared" si="1"/>
         <v>349.22823143300388</v>
       </c>
-      <c r="C68" s="8"/>
+      <c r="C68" s="25"/>
       <c r="D68" s="2" t="s">
         <v>6</v>
       </c>
       <c r="E68" s="2" t="s">
         <v>75</v>
       </c>
-      <c r="F68" s="12"/>
+      <c r="F68" s="9"/>
     </row>
     <row r="69" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A69" s="2">
-        <f t="shared" ref="A69:A132" si="78">A68+1</f>
+        <f t="shared" ref="A69:A132" si="2">A68+1</f>
         <v>66</v>
       </c>
       <c r="B69" s="4">
-        <f t="shared" ref="B69:B132" si="79">2^((A69-69)/12)*440</f>
+        <f t="shared" ref="B69:B132" si="3">2^((A69-69)/12)*440</f>
         <v>369.99442271163446</v>
       </c>
-      <c r="C69" s="8"/>
+      <c r="C69" s="25"/>
       <c r="D69" s="2" t="s">
         <v>7</v>
       </c>
       <c r="E69" s="2" t="s">
         <v>76</v>
       </c>
-      <c r="F69" s="12"/>
+      <c r="F69" s="9"/>
     </row>
     <row r="70" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A70" s="2">
-        <f t="shared" si="78"/>
+        <f t="shared" si="2"/>
         <v>67</v>
       </c>
       <c r="B70" s="4">
-        <f t="shared" si="79"/>
+        <f t="shared" si="3"/>
         <v>391.99543598174927</v>
       </c>
-      <c r="C70" s="8"/>
+      <c r="C70" s="25"/>
       <c r="D70" s="2" t="s">
         <v>8</v>
       </c>
       <c r="E70" s="2" t="s">
         <v>77</v>
       </c>
-      <c r="F70" s="12"/>
+      <c r="F70" s="9"/>
     </row>
     <row r="71" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A71" s="2">
-        <f t="shared" si="78"/>
+        <f t="shared" si="2"/>
         <v>68</v>
       </c>
       <c r="B71" s="4">
-        <f t="shared" si="79"/>
+        <f t="shared" si="3"/>
         <v>415.30469757994513</v>
       </c>
-      <c r="C71" s="8"/>
+      <c r="C71" s="25"/>
       <c r="D71" s="2" t="s">
         <v>9</v>
       </c>
       <c r="E71" s="2" t="s">
         <v>78</v>
       </c>
-      <c r="F71" s="12"/>
+      <c r="F71" s="9"/>
     </row>
     <row r="72" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A72" s="2">
-        <f t="shared" si="78"/>
+        <f t="shared" si="2"/>
         <v>69</v>
       </c>
       <c r="B72" s="4">
-        <f t="shared" si="79"/>
+        <f t="shared" si="3"/>
         <v>440</v>
       </c>
-      <c r="C72" s="8"/>
+      <c r="C72" s="25"/>
       <c r="D72" s="2" t="s">
         <v>10</v>
       </c>
       <c r="E72" s="2" t="s">
         <v>79</v>
       </c>
-      <c r="F72" s="12"/>
+      <c r="F72" s="9"/>
     </row>
     <row r="73" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A73" s="2">
-        <f t="shared" si="78"/>
+        <f t="shared" si="2"/>
         <v>70</v>
       </c>
       <c r="B73" s="4">
-        <f t="shared" si="79"/>
+        <f t="shared" si="3"/>
         <v>466.16376151808993</v>
       </c>
-      <c r="C73" s="8"/>
+      <c r="C73" s="25"/>
       <c r="D73" s="2" t="s">
         <v>11</v>
       </c>
       <c r="E73" s="2" t="s">
         <v>80</v>
       </c>
-      <c r="F73" s="12"/>
+      <c r="F73" s="9"/>
     </row>
     <row r="74" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A74" s="2">
-        <f t="shared" si="78"/>
+        <f t="shared" si="2"/>
         <v>71</v>
       </c>
       <c r="B74" s="4">
-        <f t="shared" si="79"/>
+        <f t="shared" si="3"/>
         <v>493.88330125612413</v>
       </c>
-      <c r="C74" s="8"/>
+      <c r="C74" s="25"/>
       <c r="D74" s="2" t="s">
         <v>12</v>
       </c>
       <c r="E74" s="2" t="s">
         <v>81</v>
       </c>
-      <c r="F74" s="12"/>
+      <c r="F74" s="9"/>
     </row>
     <row r="75" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A75" s="2">
-        <f t="shared" si="78"/>
+        <f t="shared" si="2"/>
         <v>72</v>
       </c>
       <c r="B75" s="4">
-        <f t="shared" si="79"/>
+        <f t="shared" si="3"/>
         <v>523.25113060119725</v>
       </c>
-      <c r="C75" s="8" t="s">
+      <c r="C75" s="25" t="s">
         <v>18</v>
       </c>
       <c r="D75" s="2" t="s">
@@ -4592,216 +4532,216 @@
       <c r="E75" s="2" t="s">
         <v>82</v>
       </c>
-      <c r="F75" s="12"/>
+      <c r="F75" s="9"/>
     </row>
     <row r="76" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A76" s="2">
-        <f t="shared" si="78"/>
+        <f t="shared" si="2"/>
         <v>73</v>
       </c>
       <c r="B76" s="4">
-        <f t="shared" si="79"/>
+        <f t="shared" si="3"/>
         <v>554.36526195374415</v>
       </c>
-      <c r="C76" s="8"/>
+      <c r="C76" s="25"/>
       <c r="D76" s="2" t="s">
         <v>2</v>
       </c>
       <c r="E76" s="2" t="s">
         <v>83</v>
       </c>
-      <c r="F76" s="12"/>
+      <c r="F76" s="9"/>
     </row>
     <row r="77" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A77" s="2">
-        <f t="shared" si="78"/>
+        <f t="shared" si="2"/>
         <v>74</v>
       </c>
       <c r="B77" s="4">
-        <f t="shared" si="79"/>
+        <f t="shared" si="3"/>
         <v>587.32953583481515</v>
       </c>
-      <c r="C77" s="8"/>
+      <c r="C77" s="25"/>
       <c r="D77" s="2" t="s">
         <v>3</v>
       </c>
       <c r="E77" s="2" t="s">
         <v>84</v>
       </c>
-      <c r="F77" s="12"/>
+      <c r="F77" s="9"/>
     </row>
     <row r="78" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A78" s="2">
-        <f t="shared" si="78"/>
+        <f t="shared" si="2"/>
         <v>75</v>
       </c>
       <c r="B78" s="4">
-        <f t="shared" si="79"/>
+        <f t="shared" si="3"/>
         <v>622.25396744416184</v>
       </c>
-      <c r="C78" s="8"/>
+      <c r="C78" s="25"/>
       <c r="D78" s="2" t="s">
         <v>4</v>
       </c>
       <c r="E78" s="2" t="s">
         <v>85</v>
       </c>
-      <c r="F78" s="12"/>
+      <c r="F78" s="9"/>
     </row>
     <row r="79" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A79" s="2">
-        <f t="shared" si="78"/>
+        <f t="shared" si="2"/>
         <v>76</v>
       </c>
       <c r="B79" s="4">
-        <f t="shared" si="79"/>
+        <f t="shared" si="3"/>
         <v>659.25511382573984</v>
       </c>
-      <c r="C79" s="8"/>
+      <c r="C79" s="25"/>
       <c r="D79" s="2" t="s">
         <v>5</v>
       </c>
       <c r="E79" s="2" t="s">
         <v>86</v>
       </c>
-      <c r="F79" s="12"/>
+      <c r="F79" s="9"/>
     </row>
     <row r="80" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A80" s="2">
-        <f t="shared" si="78"/>
+        <f t="shared" si="2"/>
         <v>77</v>
       </c>
       <c r="B80" s="4">
-        <f t="shared" si="79"/>
+        <f t="shared" si="3"/>
         <v>698.45646286600777</v>
       </c>
-      <c r="C80" s="8"/>
+      <c r="C80" s="25"/>
       <c r="D80" s="2" t="s">
         <v>6</v>
       </c>
       <c r="E80" s="2" t="s">
         <v>87</v>
       </c>
-      <c r="F80" s="12"/>
+      <c r="F80" s="9"/>
     </row>
     <row r="81" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A81" s="2">
-        <f t="shared" si="78"/>
+        <f t="shared" si="2"/>
         <v>78</v>
       </c>
       <c r="B81" s="4">
-        <f t="shared" si="79"/>
+        <f t="shared" si="3"/>
         <v>739.9888454232688</v>
       </c>
-      <c r="C81" s="8"/>
+      <c r="C81" s="25"/>
       <c r="D81" s="2" t="s">
         <v>7</v>
       </c>
       <c r="E81" s="2" t="s">
         <v>88</v>
       </c>
-      <c r="F81" s="12"/>
+      <c r="F81" s="9"/>
     </row>
     <row r="82" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A82" s="2">
-        <f t="shared" si="78"/>
+        <f t="shared" si="2"/>
         <v>79</v>
       </c>
       <c r="B82" s="4">
-        <f t="shared" si="79"/>
+        <f t="shared" si="3"/>
         <v>783.99087196349853</v>
       </c>
-      <c r="C82" s="8"/>
+      <c r="C82" s="25"/>
       <c r="D82" s="2" t="s">
         <v>8</v>
       </c>
       <c r="E82" s="2" t="s">
         <v>89</v>
       </c>
-      <c r="F82" s="12"/>
+      <c r="F82" s="9"/>
     </row>
     <row r="83" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A83" s="2">
-        <f t="shared" si="78"/>
+        <f t="shared" si="2"/>
         <v>80</v>
       </c>
       <c r="B83" s="4">
-        <f t="shared" si="79"/>
+        <f t="shared" si="3"/>
         <v>830.60939515989025</v>
       </c>
-      <c r="C83" s="8"/>
+      <c r="C83" s="25"/>
       <c r="D83" s="2" t="s">
         <v>9</v>
       </c>
       <c r="E83" s="2" t="s">
         <v>90</v>
       </c>
-      <c r="F83" s="12"/>
+      <c r="F83" s="9"/>
     </row>
     <row r="84" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A84" s="2">
-        <f t="shared" si="78"/>
+        <f t="shared" si="2"/>
         <v>81</v>
       </c>
       <c r="B84" s="4">
-        <f t="shared" si="79"/>
+        <f t="shared" si="3"/>
         <v>880</v>
       </c>
-      <c r="C84" s="8"/>
+      <c r="C84" s="25"/>
       <c r="D84" s="2" t="s">
         <v>10</v>
       </c>
       <c r="E84" s="2" t="s">
         <v>91</v>
       </c>
-      <c r="F84" s="12"/>
+      <c r="F84" s="9"/>
     </row>
     <row r="85" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A85" s="2">
-        <f t="shared" si="78"/>
+        <f t="shared" si="2"/>
         <v>82</v>
       </c>
       <c r="B85" s="4">
-        <f t="shared" si="79"/>
+        <f t="shared" si="3"/>
         <v>932.32752303617963</v>
       </c>
-      <c r="C85" s="8"/>
+      <c r="C85" s="25"/>
       <c r="D85" s="2" t="s">
         <v>11</v>
       </c>
       <c r="E85" s="2" t="s">
         <v>92</v>
       </c>
-      <c r="F85" s="12"/>
+      <c r="F85" s="9"/>
     </row>
     <row r="86" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A86" s="2">
-        <f t="shared" si="78"/>
+        <f t="shared" si="2"/>
         <v>83</v>
       </c>
       <c r="B86" s="4">
-        <f t="shared" si="79"/>
+        <f t="shared" si="3"/>
         <v>987.76660251224826</v>
       </c>
-      <c r="C86" s="8"/>
+      <c r="C86" s="25"/>
       <c r="D86" s="2" t="s">
         <v>12</v>
       </c>
       <c r="E86" s="2" t="s">
         <v>93</v>
       </c>
-      <c r="F86" s="12"/>
+      <c r="F86" s="9"/>
     </row>
     <row r="87" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A87" s="2">
-        <f t="shared" si="78"/>
+        <f t="shared" si="2"/>
         <v>84</v>
       </c>
       <c r="B87" s="4">
-        <f t="shared" si="79"/>
+        <f t="shared" si="3"/>
         <v>1046.5022612023945</v>
       </c>
-      <c r="C87" s="8" t="s">
+      <c r="C87" s="25" t="s">
         <v>19</v>
       </c>
       <c r="D87" s="2" t="s">
@@ -4810,216 +4750,216 @@
       <c r="E87" s="2" t="s">
         <v>94</v>
       </c>
-      <c r="F87" s="12"/>
+      <c r="F87" s="9"/>
     </row>
     <row r="88" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A88" s="2">
-        <f t="shared" si="78"/>
+        <f t="shared" si="2"/>
         <v>85</v>
       </c>
       <c r="B88" s="4">
-        <f t="shared" si="79"/>
+        <f t="shared" si="3"/>
         <v>1108.7305239074883</v>
       </c>
-      <c r="C88" s="8"/>
+      <c r="C88" s="25"/>
       <c r="D88" s="2" t="s">
         <v>2</v>
       </c>
       <c r="E88" s="2" t="s">
         <v>95</v>
       </c>
-      <c r="F88" s="12"/>
+      <c r="F88" s="9"/>
     </row>
     <row r="89" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A89" s="2">
-        <f t="shared" si="78"/>
+        <f t="shared" si="2"/>
         <v>86</v>
       </c>
       <c r="B89" s="4">
-        <f t="shared" si="79"/>
+        <f t="shared" si="3"/>
         <v>1174.6590716696303</v>
       </c>
-      <c r="C89" s="8"/>
+      <c r="C89" s="25"/>
       <c r="D89" s="2" t="s">
         <v>3</v>
       </c>
       <c r="E89" s="2" t="s">
         <v>96</v>
       </c>
-      <c r="F89" s="12"/>
+      <c r="F89" s="9"/>
     </row>
     <row r="90" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A90" s="2">
-        <f t="shared" si="78"/>
+        <f t="shared" si="2"/>
         <v>87</v>
       </c>
       <c r="B90" s="4">
-        <f t="shared" si="79"/>
+        <f t="shared" si="3"/>
         <v>1244.5079348883235</v>
       </c>
-      <c r="C90" s="8"/>
+      <c r="C90" s="25"/>
       <c r="D90" s="2" t="s">
         <v>4</v>
       </c>
       <c r="E90" s="2" t="s">
         <v>97</v>
       </c>
-      <c r="F90" s="12"/>
+      <c r="F90" s="9"/>
     </row>
     <row r="91" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A91" s="2">
-        <f t="shared" si="78"/>
+        <f t="shared" si="2"/>
         <v>88</v>
       </c>
       <c r="B91" s="4">
-        <f t="shared" si="79"/>
+        <f t="shared" si="3"/>
         <v>1318.5102276514795</v>
       </c>
-      <c r="C91" s="8"/>
+      <c r="C91" s="25"/>
       <c r="D91" s="2" t="s">
         <v>5</v>
       </c>
       <c r="E91" s="2" t="s">
         <v>98</v>
       </c>
-      <c r="F91" s="12"/>
+      <c r="F91" s="9"/>
     </row>
     <row r="92" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A92" s="2">
-        <f t="shared" si="78"/>
+        <f t="shared" si="2"/>
         <v>89</v>
       </c>
       <c r="B92" s="4">
-        <f t="shared" si="79"/>
+        <f t="shared" si="3"/>
         <v>1396.9129257320155</v>
       </c>
-      <c r="C92" s="8"/>
+      <c r="C92" s="25"/>
       <c r="D92" s="2" t="s">
         <v>6</v>
       </c>
       <c r="E92" s="2" t="s">
         <v>99</v>
       </c>
-      <c r="F92" s="12"/>
+      <c r="F92" s="9"/>
     </row>
     <row r="93" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A93" s="2">
-        <f t="shared" si="78"/>
+        <f t="shared" si="2"/>
         <v>90</v>
       </c>
       <c r="B93" s="4">
-        <f t="shared" si="79"/>
+        <f t="shared" si="3"/>
         <v>1479.9776908465376</v>
       </c>
-      <c r="C93" s="8"/>
+      <c r="C93" s="25"/>
       <c r="D93" s="2" t="s">
         <v>7</v>
       </c>
       <c r="E93" s="2" t="s">
         <v>100</v>
       </c>
-      <c r="F93" s="12"/>
+      <c r="F93" s="9"/>
     </row>
     <row r="94" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A94" s="2">
-        <f t="shared" si="78"/>
+        <f t="shared" si="2"/>
         <v>91</v>
       </c>
       <c r="B94" s="4">
-        <f t="shared" si="79"/>
+        <f t="shared" si="3"/>
         <v>1567.9817439269968</v>
       </c>
-      <c r="C94" s="8"/>
+      <c r="C94" s="25"/>
       <c r="D94" s="2" t="s">
         <v>8</v>
       </c>
       <c r="E94" s="2" t="s">
         <v>101</v>
       </c>
-      <c r="F94" s="12"/>
+      <c r="F94" s="9"/>
     </row>
     <row r="95" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A95" s="2">
-        <f t="shared" si="78"/>
+        <f t="shared" si="2"/>
         <v>92</v>
       </c>
       <c r="B95" s="4">
-        <f t="shared" si="79"/>
+        <f t="shared" si="3"/>
         <v>1661.2187903197805</v>
       </c>
-      <c r="C95" s="8"/>
+      <c r="C95" s="25"/>
       <c r="D95" s="2" t="s">
         <v>9</v>
       </c>
       <c r="E95" s="2" t="s">
         <v>102</v>
       </c>
-      <c r="F95" s="12"/>
+      <c r="F95" s="9"/>
     </row>
     <row r="96" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A96" s="2">
-        <f t="shared" si="78"/>
+        <f t="shared" si="2"/>
         <v>93</v>
       </c>
       <c r="B96" s="4">
-        <f t="shared" si="79"/>
+        <f t="shared" si="3"/>
         <v>1760</v>
       </c>
-      <c r="C96" s="8"/>
+      <c r="C96" s="25"/>
       <c r="D96" s="2" t="s">
         <v>10</v>
       </c>
       <c r="E96" s="2" t="s">
         <v>103</v>
       </c>
-      <c r="F96" s="12"/>
+      <c r="F96" s="9"/>
     </row>
     <row r="97" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A97" s="2">
-        <f t="shared" si="78"/>
+        <f t="shared" si="2"/>
         <v>94</v>
       </c>
       <c r="B97" s="4">
-        <f t="shared" si="79"/>
+        <f t="shared" si="3"/>
         <v>1864.6550460723597</v>
       </c>
-      <c r="C97" s="8"/>
+      <c r="C97" s="25"/>
       <c r="D97" s="2" t="s">
         <v>11</v>
       </c>
       <c r="E97" s="2" t="s">
         <v>104</v>
       </c>
-      <c r="F97" s="12"/>
+      <c r="F97" s="9"/>
     </row>
     <row r="98" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A98" s="2">
-        <f t="shared" si="78"/>
+        <f t="shared" si="2"/>
         <v>95</v>
       </c>
       <c r="B98" s="4">
-        <f t="shared" si="79"/>
+        <f t="shared" si="3"/>
         <v>1975.5332050244961</v>
       </c>
-      <c r="C98" s="8"/>
+      <c r="C98" s="25"/>
       <c r="D98" s="2" t="s">
         <v>12</v>
       </c>
       <c r="E98" s="2" t="s">
         <v>105</v>
       </c>
-      <c r="F98" s="12"/>
+      <c r="F98" s="9"/>
     </row>
     <row r="99" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A99" s="2">
-        <f t="shared" si="78"/>
+        <f t="shared" si="2"/>
         <v>96</v>
       </c>
       <c r="B99" s="4">
-        <f t="shared" si="79"/>
+        <f t="shared" si="3"/>
         <v>2093.004522404789</v>
       </c>
-      <c r="C99" s="8" t="s">
+      <c r="C99" s="25" t="s">
         <v>20</v>
       </c>
       <c r="D99" s="2" t="s">
@@ -5028,72 +4968,72 @@
       <c r="E99" s="2" t="s">
         <v>106</v>
       </c>
-      <c r="F99" s="12"/>
+      <c r="F99" s="9"/>
     </row>
     <row r="100" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A100" s="2">
-        <f t="shared" si="78"/>
+        <f t="shared" si="2"/>
         <v>97</v>
       </c>
       <c r="B100" s="4">
-        <f t="shared" si="79"/>
+        <f t="shared" si="3"/>
         <v>2217.4610478149771</v>
       </c>
-      <c r="C100" s="8"/>
+      <c r="C100" s="25"/>
       <c r="D100" s="2" t="s">
         <v>2</v>
       </c>
       <c r="E100" s="2" t="s">
         <v>107</v>
       </c>
-      <c r="F100" s="12"/>
+      <c r="F100" s="9"/>
     </row>
     <row r="101" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A101" s="2">
-        <f t="shared" si="78"/>
+        <f t="shared" si="2"/>
         <v>98</v>
       </c>
       <c r="B101" s="4">
-        <f t="shared" si="79"/>
+        <f t="shared" si="3"/>
         <v>2349.3181433392601</v>
       </c>
-      <c r="C101" s="8"/>
+      <c r="C101" s="25"/>
       <c r="D101" s="2" t="s">
         <v>3</v>
       </c>
       <c r="E101" s="2" t="s">
         <v>108</v>
       </c>
-      <c r="F101" s="12"/>
+      <c r="F101" s="9"/>
     </row>
     <row r="102" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A102" s="2">
-        <f t="shared" si="78"/>
+        <f t="shared" si="2"/>
         <v>99</v>
       </c>
       <c r="B102" s="4">
-        <f t="shared" si="79"/>
+        <f t="shared" si="3"/>
         <v>2489.0158697766474</v>
       </c>
-      <c r="C102" s="8"/>
+      <c r="C102" s="25"/>
       <c r="D102" s="2" t="s">
         <v>4</v>
       </c>
       <c r="E102" s="2" t="s">
         <v>109</v>
       </c>
-      <c r="F102" s="12"/>
+      <c r="F102" s="9"/>
     </row>
     <row r="103" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A103" s="2">
-        <f t="shared" si="78"/>
+        <f t="shared" si="2"/>
         <v>100</v>
       </c>
       <c r="B103" s="4">
-        <f t="shared" si="79"/>
+        <f t="shared" si="3"/>
         <v>2637.0204553029598</v>
       </c>
-      <c r="C103" s="8"/>
+      <c r="C103" s="25"/>
       <c r="D103" s="2" t="s">
         <v>5</v>
       </c>
@@ -5104,14 +5044,14 @@
     </row>
     <row r="104" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A104" s="2">
-        <f t="shared" si="78"/>
+        <f t="shared" si="2"/>
         <v>101</v>
       </c>
       <c r="B104" s="4">
-        <f t="shared" si="79"/>
+        <f t="shared" si="3"/>
         <v>2793.8258514640311</v>
       </c>
-      <c r="C104" s="8"/>
+      <c r="C104" s="25"/>
       <c r="D104" s="2" t="s">
         <v>6</v>
       </c>
@@ -5122,14 +5062,14 @@
     </row>
     <row r="105" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A105" s="2">
-        <f t="shared" si="78"/>
+        <f t="shared" si="2"/>
         <v>102</v>
       </c>
       <c r="B105" s="4">
-        <f t="shared" si="79"/>
+        <f t="shared" si="3"/>
         <v>2959.9553816930757</v>
       </c>
-      <c r="C105" s="8"/>
+      <c r="C105" s="25"/>
       <c r="D105" s="2" t="s">
         <v>7</v>
       </c>
@@ -5140,14 +5080,14 @@
     </row>
     <row r="106" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A106" s="2">
-        <f t="shared" si="78"/>
+        <f t="shared" si="2"/>
         <v>103</v>
       </c>
       <c r="B106" s="4">
-        <f t="shared" si="79"/>
+        <f t="shared" si="3"/>
         <v>3135.9634878539941</v>
       </c>
-      <c r="C106" s="8"/>
+      <c r="C106" s="25"/>
       <c r="D106" s="2" t="s">
         <v>8</v>
       </c>
@@ -5158,14 +5098,14 @@
     </row>
     <row r="107" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A107" s="2">
-        <f t="shared" si="78"/>
+        <f t="shared" si="2"/>
         <v>104</v>
       </c>
       <c r="B107" s="4">
-        <f t="shared" si="79"/>
+        <f t="shared" si="3"/>
         <v>3322.4375806395601</v>
       </c>
-      <c r="C107" s="8"/>
+      <c r="C107" s="25"/>
       <c r="D107" s="2" t="s">
         <v>9</v>
       </c>
@@ -5176,14 +5116,14 @@
     </row>
     <row r="108" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A108" s="2">
-        <f t="shared" si="78"/>
+        <f t="shared" si="2"/>
         <v>105</v>
       </c>
       <c r="B108" s="4">
-        <f t="shared" si="79"/>
+        <f t="shared" si="3"/>
         <v>3520</v>
       </c>
-      <c r="C108" s="8"/>
+      <c r="C108" s="25"/>
       <c r="D108" s="2" t="s">
         <v>10</v>
       </c>
@@ -5194,14 +5134,14 @@
     </row>
     <row r="109" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A109" s="2">
-        <f t="shared" si="78"/>
+        <f t="shared" si="2"/>
         <v>106</v>
       </c>
       <c r="B109" s="4">
-        <f t="shared" si="79"/>
+        <f t="shared" si="3"/>
         <v>3729.3100921447194</v>
       </c>
-      <c r="C109" s="8"/>
+      <c r="C109" s="25"/>
       <c r="D109" s="2" t="s">
         <v>11</v>
       </c>
@@ -5212,14 +5152,14 @@
     </row>
     <row r="110" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A110" s="2">
-        <f t="shared" si="78"/>
+        <f t="shared" si="2"/>
         <v>107</v>
       </c>
       <c r="B110" s="4">
-        <f t="shared" si="79"/>
+        <f t="shared" si="3"/>
         <v>3951.0664100489917</v>
       </c>
-      <c r="C110" s="8"/>
+      <c r="C110" s="25"/>
       <c r="D110" s="2" t="s">
         <v>12</v>
       </c>
@@ -5230,14 +5170,14 @@
     </row>
     <row r="111" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A111" s="2">
-        <f t="shared" si="78"/>
+        <f t="shared" si="2"/>
         <v>108</v>
       </c>
       <c r="B111" s="4">
-        <f t="shared" si="79"/>
+        <f t="shared" si="3"/>
         <v>4186.0090448095771</v>
       </c>
-      <c r="C111" s="8" t="s">
+      <c r="C111" s="25" t="s">
         <v>21</v>
       </c>
       <c r="D111" s="2" t="s">
@@ -5250,14 +5190,14 @@
     </row>
     <row r="112" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A112" s="2">
-        <f t="shared" si="78"/>
+        <f t="shared" si="2"/>
         <v>109</v>
       </c>
       <c r="B112" s="4">
-        <f t="shared" si="79"/>
+        <f t="shared" si="3"/>
         <v>4434.9220956299532</v>
       </c>
-      <c r="C112" s="8"/>
+      <c r="C112" s="25"/>
       <c r="D112" s="2" t="s">
         <v>2</v>
       </c>
@@ -5268,14 +5208,14 @@
     </row>
     <row r="113" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A113" s="2">
-        <f t="shared" si="78"/>
+        <f t="shared" si="2"/>
         <v>110</v>
       </c>
       <c r="B113" s="4">
-        <f t="shared" si="79"/>
+        <f t="shared" si="3"/>
         <v>4698.6362866785194</v>
       </c>
-      <c r="C113" s="8"/>
+      <c r="C113" s="25"/>
       <c r="D113" s="2" t="s">
         <v>3</v>
       </c>
@@ -5286,14 +5226,14 @@
     </row>
     <row r="114" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A114" s="2">
-        <f t="shared" si="78"/>
+        <f t="shared" si="2"/>
         <v>111</v>
       </c>
       <c r="B114" s="4">
-        <f t="shared" si="79"/>
+        <f t="shared" si="3"/>
         <v>4978.0317395532938</v>
       </c>
-      <c r="C114" s="8"/>
+      <c r="C114" s="25"/>
       <c r="D114" s="2" t="s">
         <v>4</v>
       </c>
@@ -5304,14 +5244,14 @@
     </row>
     <row r="115" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A115" s="2">
-        <f t="shared" si="78"/>
+        <f t="shared" si="2"/>
         <v>112</v>
       </c>
       <c r="B115" s="4">
-        <f t="shared" si="79"/>
+        <f t="shared" si="3"/>
         <v>5274.0409106059187</v>
       </c>
-      <c r="C115" s="8"/>
+      <c r="C115" s="25"/>
       <c r="D115" s="2" t="s">
         <v>5</v>
       </c>
@@ -5322,14 +5262,14 @@
     </row>
     <row r="116" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A116" s="2">
-        <f t="shared" si="78"/>
+        <f t="shared" si="2"/>
         <v>113</v>
       </c>
       <c r="B116" s="4">
-        <f t="shared" si="79"/>
+        <f t="shared" si="3"/>
         <v>5587.6517029280612</v>
       </c>
-      <c r="C116" s="8"/>
+      <c r="C116" s="25"/>
       <c r="D116" s="2" t="s">
         <v>6</v>
       </c>
@@ -5340,14 +5280,14 @@
     </row>
     <row r="117" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A117" s="2">
-        <f t="shared" si="78"/>
+        <f t="shared" si="2"/>
         <v>114</v>
       </c>
       <c r="B117" s="4">
-        <f t="shared" si="79"/>
+        <f t="shared" si="3"/>
         <v>5919.9107633861504</v>
       </c>
-      <c r="C117" s="8"/>
+      <c r="C117" s="25"/>
       <c r="D117" s="2" t="s">
         <v>7</v>
       </c>
@@ -5358,14 +5298,14 @@
     </row>
     <row r="118" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A118" s="2">
-        <f t="shared" si="78"/>
+        <f t="shared" si="2"/>
         <v>115</v>
       </c>
       <c r="B118" s="4">
-        <f t="shared" si="79"/>
+        <f t="shared" si="3"/>
         <v>6271.9269757079892</v>
       </c>
-      <c r="C118" s="8"/>
+      <c r="C118" s="25"/>
       <c r="D118" s="2" t="s">
         <v>8</v>
       </c>
@@ -5376,14 +5316,14 @@
     </row>
     <row r="119" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A119" s="2">
-        <f t="shared" si="78"/>
+        <f t="shared" si="2"/>
         <v>116</v>
       </c>
       <c r="B119" s="4">
-        <f t="shared" si="79"/>
+        <f t="shared" si="3"/>
         <v>6644.8751612791211</v>
       </c>
-      <c r="C119" s="8"/>
+      <c r="C119" s="25"/>
       <c r="D119" s="2" t="s">
         <v>9</v>
       </c>
@@ -5394,14 +5334,14 @@
     </row>
     <row r="120" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A120" s="2">
-        <f t="shared" si="78"/>
+        <f t="shared" si="2"/>
         <v>117</v>
       </c>
       <c r="B120" s="4">
-        <f t="shared" si="79"/>
+        <f t="shared" si="3"/>
         <v>7040</v>
       </c>
-      <c r="C120" s="8"/>
+      <c r="C120" s="25"/>
       <c r="D120" s="2" t="s">
         <v>10</v>
       </c>
@@ -5412,14 +5352,14 @@
     </row>
     <row r="121" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A121" s="2">
-        <f t="shared" si="78"/>
+        <f t="shared" si="2"/>
         <v>118</v>
       </c>
       <c r="B121" s="4">
-        <f t="shared" si="79"/>
+        <f t="shared" si="3"/>
         <v>7458.6201842894361</v>
       </c>
-      <c r="C121" s="8"/>
+      <c r="C121" s="25"/>
       <c r="D121" s="2" t="s">
         <v>11</v>
       </c>
@@ -5430,14 +5370,14 @@
     </row>
     <row r="122" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A122" s="2">
-        <f t="shared" si="78"/>
+        <f t="shared" si="2"/>
         <v>119</v>
       </c>
       <c r="B122" s="4">
-        <f t="shared" si="79"/>
+        <f t="shared" si="3"/>
         <v>7902.1328200979879</v>
       </c>
-      <c r="C122" s="8"/>
+      <c r="C122" s="25"/>
       <c r="D122" s="2" t="s">
         <v>12</v>
       </c>
@@ -5448,14 +5388,14 @@
     </row>
     <row r="123" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A123" s="2">
-        <f t="shared" si="78"/>
+        <f t="shared" si="2"/>
         <v>120</v>
       </c>
       <c r="B123" s="4">
-        <f t="shared" si="79"/>
+        <f t="shared" si="3"/>
         <v>8372.0180896191559</v>
       </c>
-      <c r="C123" s="8" t="s">
+      <c r="C123" s="25" t="s">
         <v>157</v>
       </c>
       <c r="D123" s="6" t="s">
@@ -5468,14 +5408,14 @@
     </row>
     <row r="124" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A124" s="2">
-        <f t="shared" si="78"/>
+        <f t="shared" si="2"/>
         <v>121</v>
       </c>
       <c r="B124" s="4">
-        <f t="shared" si="79"/>
+        <f t="shared" si="3"/>
         <v>8869.8441912599046</v>
       </c>
-      <c r="C124" s="8"/>
+      <c r="C124" s="25"/>
       <c r="D124" s="6" t="s">
         <v>2</v>
       </c>
@@ -5486,14 +5426,14 @@
     </row>
     <row r="125" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A125" s="2">
-        <f t="shared" si="78"/>
+        <f t="shared" si="2"/>
         <v>122</v>
       </c>
       <c r="B125" s="4">
-        <f t="shared" si="79"/>
+        <f t="shared" si="3"/>
         <v>9397.2725733570442</v>
       </c>
-      <c r="C125" s="8"/>
+      <c r="C125" s="25"/>
       <c r="D125" s="6" t="s">
         <v>3</v>
       </c>
@@ -5504,14 +5444,14 @@
     </row>
     <row r="126" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A126" s="2">
-        <f t="shared" si="78"/>
+        <f t="shared" si="2"/>
         <v>123</v>
       </c>
       <c r="B126" s="4">
-        <f t="shared" si="79"/>
+        <f t="shared" si="3"/>
         <v>9956.0634791065877</v>
       </c>
-      <c r="C126" s="8"/>
+      <c r="C126" s="25"/>
       <c r="D126" s="6" t="s">
         <v>4</v>
       </c>
@@ -5522,14 +5462,14 @@
     </row>
     <row r="127" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A127" s="2">
-        <f t="shared" si="78"/>
+        <f t="shared" si="2"/>
         <v>124</v>
       </c>
       <c r="B127" s="4">
-        <f t="shared" si="79"/>
+        <f t="shared" si="3"/>
         <v>10548.081821211836</v>
       </c>
-      <c r="C127" s="8"/>
+      <c r="C127" s="25"/>
       <c r="D127" s="6" t="s">
         <v>5</v>
       </c>
@@ -5540,14 +5480,14 @@
     </row>
     <row r="128" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A128" s="2">
-        <f t="shared" si="78"/>
+        <f t="shared" si="2"/>
         <v>125</v>
       </c>
       <c r="B128" s="4">
-        <f t="shared" si="79"/>
+        <f t="shared" si="3"/>
         <v>11175.303405856126</v>
       </c>
-      <c r="C128" s="8"/>
+      <c r="C128" s="25"/>
       <c r="D128" s="6" t="s">
         <v>6</v>
       </c>
@@ -5558,14 +5498,14 @@
     </row>
     <row r="129" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A129" s="2">
-        <f t="shared" si="78"/>
+        <f t="shared" si="2"/>
         <v>126</v>
       </c>
       <c r="B129" s="4">
-        <f t="shared" si="79"/>
+        <f t="shared" si="3"/>
         <v>11839.821526772301</v>
       </c>
-      <c r="C129" s="8"/>
+      <c r="C129" s="25"/>
       <c r="D129" s="6" t="s">
         <v>7</v>
       </c>
@@ -5576,14 +5516,14 @@
     </row>
     <row r="130" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A130" s="2">
-        <f t="shared" si="78"/>
+        <f t="shared" si="2"/>
         <v>127</v>
       </c>
       <c r="B130" s="4">
-        <f t="shared" si="79"/>
+        <f t="shared" si="3"/>
         <v>12543.853951415975</v>
       </c>
-      <c r="C130" s="8"/>
+      <c r="C130" s="25"/>
       <c r="D130" s="6" t="s">
         <v>8</v>
       </c>
@@ -5594,14 +5534,14 @@
     </row>
     <row r="131" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A131" s="2">
-        <f t="shared" si="78"/>
+        <f t="shared" si="2"/>
         <v>128</v>
       </c>
       <c r="B131" s="4">
-        <f t="shared" si="79"/>
+        <f t="shared" si="3"/>
         <v>13289.750322558248</v>
       </c>
-      <c r="C131" s="8"/>
+      <c r="C131" s="25"/>
       <c r="D131" s="6" t="s">
         <v>9</v>
       </c>
@@ -5612,14 +5552,14 @@
     </row>
     <row r="132" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A132" s="2">
-        <f t="shared" si="78"/>
+        <f t="shared" si="2"/>
         <v>129</v>
       </c>
       <c r="B132" s="4">
-        <f t="shared" si="79"/>
+        <f t="shared" si="3"/>
         <v>14080</v>
       </c>
-      <c r="C132" s="8"/>
+      <c r="C132" s="25"/>
       <c r="D132" s="6" t="s">
         <v>10</v>
       </c>
@@ -5630,14 +5570,14 @@
     </row>
     <row r="133" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A133" s="2">
-        <f t="shared" ref="A133:A138" si="80">A132+1</f>
+        <f t="shared" ref="A133:A138" si="4">A132+1</f>
         <v>130</v>
       </c>
       <c r="B133" s="4">
-        <f t="shared" ref="B133:B138" si="81">2^((A133-69)/12)*440</f>
+        <f t="shared" ref="B133:B138" si="5">2^((A133-69)/12)*440</f>
         <v>14917.240368578872</v>
       </c>
-      <c r="C133" s="8"/>
+      <c r="C133" s="25"/>
       <c r="D133" s="6" t="s">
         <v>11</v>
       </c>
@@ -5648,14 +5588,14 @@
     </row>
     <row r="134" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A134" s="2">
-        <f t="shared" si="80"/>
+        <f t="shared" si="4"/>
         <v>131</v>
       </c>
       <c r="B134" s="4">
-        <f t="shared" si="81"/>
+        <f t="shared" si="5"/>
         <v>15804.265640195976</v>
       </c>
-      <c r="C134" s="8"/>
+      <c r="C134" s="25"/>
       <c r="D134" s="6" t="s">
         <v>12</v>
       </c>
@@ -5666,14 +5606,14 @@
     </row>
     <row r="135" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A135" s="2">
-        <f t="shared" si="80"/>
+        <f t="shared" si="4"/>
         <v>132</v>
       </c>
       <c r="B135" s="4">
-        <f t="shared" si="81"/>
+        <f t="shared" si="5"/>
         <v>16744.036179238312</v>
       </c>
-      <c r="C135" s="8" t="s">
+      <c r="C135" s="25" t="s">
         <v>158</v>
       </c>
       <c r="D135" s="6" t="s">
@@ -5685,14 +5625,14 @@
     </row>
     <row r="136" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A136" s="2">
-        <f t="shared" si="80"/>
+        <f t="shared" si="4"/>
         <v>133</v>
       </c>
       <c r="B136" s="4">
-        <f t="shared" si="81"/>
+        <f t="shared" si="5"/>
         <v>17739.688382519809</v>
       </c>
-      <c r="C136" s="8"/>
+      <c r="C136" s="25"/>
       <c r="D136" s="6" t="s">
         <v>2</v>
       </c>
@@ -5702,14 +5642,14 @@
     </row>
     <row r="137" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A137" s="2">
-        <f t="shared" si="80"/>
+        <f t="shared" si="4"/>
         <v>134</v>
       </c>
       <c r="B137" s="4">
-        <f t="shared" si="81"/>
+        <f t="shared" si="5"/>
         <v>18794.545146714081</v>
       </c>
-      <c r="C137" s="8"/>
+      <c r="C137" s="25"/>
       <c r="D137" s="6" t="s">
         <v>3</v>
       </c>
@@ -5719,14 +5659,14 @@
     </row>
     <row r="138" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A138" s="2">
-        <f t="shared" si="80"/>
+        <f t="shared" si="4"/>
         <v>135</v>
       </c>
       <c r="B138" s="4">
-        <f t="shared" si="81"/>
+        <f t="shared" si="5"/>
         <v>19912.126958213179</v>
       </c>
-      <c r="C138" s="8"/>
+      <c r="C138" s="25"/>
       <c r="D138" s="6" t="s">
         <v>4</v>
       </c>
@@ -5743,7 +5683,7 @@
         <f>2^((A139-69)/12)*440</f>
         <v>21096.163642423671</v>
       </c>
-      <c r="C139" s="8"/>
+      <c r="C139" s="25"/>
       <c r="D139" s="6" t="s">
         <v>5</v>
       </c>
@@ -5753,14 +5693,14 @@
     </row>
     <row r="140" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A140" s="2">
-        <f t="shared" ref="A140:A146" si="82">A139+1</f>
+        <f t="shared" ref="A140:A146" si="6">A139+1</f>
         <v>137</v>
       </c>
       <c r="B140" s="4">
-        <f t="shared" ref="B140" si="83">2^((A140-69)/12)*440</f>
+        <f t="shared" ref="B140" si="7">2^((A140-69)/12)*440</f>
         <v>22350.606811712249</v>
       </c>
-      <c r="C140" s="8"/>
+      <c r="C140" s="25"/>
       <c r="D140" s="6" t="s">
         <v>6</v>
       </c>
@@ -5770,14 +5710,14 @@
     </row>
     <row r="141" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A141" s="6">
-        <f t="shared" si="82"/>
+        <f t="shared" si="6"/>
         <v>138</v>
       </c>
       <c r="B141" s="4">
-        <f t="shared" ref="B141:B146" si="84">2^((A141-69)/12)*440</f>
+        <f t="shared" ref="B141:B146" si="8">2^((A141-69)/12)*440</f>
         <v>23679.643053544605</v>
       </c>
-      <c r="C141" s="8"/>
+      <c r="C141" s="25"/>
       <c r="D141" s="6" t="s">
         <v>7</v>
       </c>
@@ -5787,14 +5727,14 @@
     </row>
     <row r="142" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A142" s="6">
-        <f t="shared" si="82"/>
+        <f t="shared" si="6"/>
         <v>139</v>
       </c>
       <c r="B142" s="4">
-        <f t="shared" si="84"/>
+        <f t="shared" si="8"/>
         <v>25087.707902831939</v>
       </c>
-      <c r="C142" s="8"/>
+      <c r="C142" s="25"/>
       <c r="D142" s="6" t="s">
         <v>8</v>
       </c>
@@ -5804,14 +5744,14 @@
     </row>
     <row r="143" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A143" s="6">
-        <f t="shared" si="82"/>
+        <f t="shared" si="6"/>
         <v>140</v>
       </c>
       <c r="B143" s="4">
-        <f t="shared" si="84"/>
+        <f t="shared" si="8"/>
         <v>26579.500645116499</v>
       </c>
-      <c r="C143" s="8"/>
+      <c r="C143" s="25"/>
       <c r="D143" s="6" t="s">
         <v>9</v>
       </c>
@@ -5821,14 +5761,14 @@
     </row>
     <row r="144" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A144" s="6">
-        <f t="shared" si="82"/>
+        <f t="shared" si="6"/>
         <v>141</v>
       </c>
       <c r="B144" s="4">
-        <f t="shared" si="84"/>
+        <f t="shared" si="8"/>
         <v>28160</v>
       </c>
-      <c r="C144" s="8"/>
+      <c r="C144" s="25"/>
       <c r="D144" s="6" t="s">
         <v>10</v>
       </c>
@@ -5838,14 +5778,14 @@
     </row>
     <row r="145" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A145" s="6">
-        <f t="shared" si="82"/>
+        <f t="shared" si="6"/>
         <v>142</v>
       </c>
       <c r="B145" s="4">
-        <f t="shared" si="84"/>
+        <f t="shared" si="8"/>
         <v>29834.480737157748</v>
       </c>
-      <c r="C145" s="8"/>
+      <c r="C145" s="25"/>
       <c r="D145" s="6" t="s">
         <v>11</v>
       </c>
@@ -5855,14 +5795,14 @@
     </row>
     <row r="146" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A146" s="6">
-        <f t="shared" si="82"/>
+        <f t="shared" si="6"/>
         <v>143</v>
       </c>
       <c r="B146" s="4">
-        <f t="shared" si="84"/>
+        <f t="shared" si="8"/>
         <v>31608.531280391944</v>
       </c>
-      <c r="C146" s="8"/>
+      <c r="C146" s="25"/>
       <c r="D146" s="6" t="s">
         <v>12</v>
       </c>
@@ -5872,6 +5812,171 @@
     </row>
   </sheetData>
   <mergeCells count="189">
+    <mergeCell ref="A1:B1"/>
+    <mergeCell ref="C15:C26"/>
+    <mergeCell ref="C27:C38"/>
+    <mergeCell ref="C39:C50"/>
+    <mergeCell ref="C51:C62"/>
+    <mergeCell ref="C123:C134"/>
+    <mergeCell ref="C135:C146"/>
+    <mergeCell ref="C75:C86"/>
+    <mergeCell ref="C87:C98"/>
+    <mergeCell ref="C99:C110"/>
+    <mergeCell ref="C111:C122"/>
+    <mergeCell ref="C63:C74"/>
+    <mergeCell ref="C3:C14"/>
+    <mergeCell ref="C1:E2"/>
+    <mergeCell ref="G11:G12"/>
+    <mergeCell ref="G15:G16"/>
+    <mergeCell ref="G17:G18"/>
+    <mergeCell ref="G8:I8"/>
+    <mergeCell ref="G1:I2"/>
+    <mergeCell ref="H20:H21"/>
+    <mergeCell ref="G21:G22"/>
+    <mergeCell ref="I21:I22"/>
+    <mergeCell ref="H22:H23"/>
+    <mergeCell ref="G23:G24"/>
+    <mergeCell ref="I23:I24"/>
+    <mergeCell ref="H24:H25"/>
+    <mergeCell ref="H10:H11"/>
+    <mergeCell ref="I11:I12"/>
+    <mergeCell ref="G13:G14"/>
+    <mergeCell ref="H12:H13"/>
+    <mergeCell ref="I13:I14"/>
+    <mergeCell ref="H14:H15"/>
+    <mergeCell ref="I15:I16"/>
+    <mergeCell ref="H16:H17"/>
+    <mergeCell ref="I17:I18"/>
+    <mergeCell ref="I35:I36"/>
+    <mergeCell ref="H36:H37"/>
+    <mergeCell ref="G37:G38"/>
+    <mergeCell ref="I37:I38"/>
+    <mergeCell ref="G25:G26"/>
+    <mergeCell ref="I25:I26"/>
+    <mergeCell ref="H26:H27"/>
+    <mergeCell ref="G27:G28"/>
+    <mergeCell ref="I27:I28"/>
+    <mergeCell ref="G19:G20"/>
+    <mergeCell ref="H18:H19"/>
+    <mergeCell ref="I19:I20"/>
+    <mergeCell ref="G29:G30"/>
+    <mergeCell ref="H28:H29"/>
+    <mergeCell ref="I29:I30"/>
+    <mergeCell ref="H40:H41"/>
+    <mergeCell ref="G41:G42"/>
+    <mergeCell ref="I41:I42"/>
+    <mergeCell ref="H42:H43"/>
+    <mergeCell ref="G43:G44"/>
+    <mergeCell ref="I43:I44"/>
+    <mergeCell ref="H44:H45"/>
+    <mergeCell ref="G39:G40"/>
+    <mergeCell ref="H38:H39"/>
+    <mergeCell ref="I39:I40"/>
+    <mergeCell ref="H30:H31"/>
+    <mergeCell ref="G31:G32"/>
+    <mergeCell ref="I31:I32"/>
+    <mergeCell ref="H32:H33"/>
+    <mergeCell ref="G33:G34"/>
+    <mergeCell ref="I33:I34"/>
+    <mergeCell ref="H34:H35"/>
+    <mergeCell ref="G35:G36"/>
+    <mergeCell ref="K19:K20"/>
+    <mergeCell ref="K29:K30"/>
+    <mergeCell ref="K17:K18"/>
+    <mergeCell ref="K21:K22"/>
+    <mergeCell ref="K25:K26"/>
+    <mergeCell ref="K27:K28"/>
+    <mergeCell ref="K31:K32"/>
+    <mergeCell ref="K1:P2"/>
+    <mergeCell ref="K15:K16"/>
+    <mergeCell ref="K23:K24"/>
+    <mergeCell ref="L14:L15"/>
+    <mergeCell ref="L16:L17"/>
+    <mergeCell ref="L18:L19"/>
+    <mergeCell ref="L20:L21"/>
+    <mergeCell ref="L22:L23"/>
+    <mergeCell ref="L24:L25"/>
+    <mergeCell ref="L32:L33"/>
+    <mergeCell ref="L34:L35"/>
+    <mergeCell ref="K45:K46"/>
+    <mergeCell ref="K47:K48"/>
+    <mergeCell ref="K49:K50"/>
+    <mergeCell ref="K51:K52"/>
+    <mergeCell ref="K53:K54"/>
+    <mergeCell ref="K35:K36"/>
+    <mergeCell ref="K37:K38"/>
+    <mergeCell ref="K39:K40"/>
+    <mergeCell ref="K41:K42"/>
+    <mergeCell ref="K43:K44"/>
+    <mergeCell ref="K33:K34"/>
+    <mergeCell ref="L46:L47"/>
+    <mergeCell ref="L48:L49"/>
+    <mergeCell ref="L50:L51"/>
+    <mergeCell ref="L52:L53"/>
+    <mergeCell ref="M13:M14"/>
+    <mergeCell ref="M15:M16"/>
+    <mergeCell ref="M17:M18"/>
+    <mergeCell ref="M19:M20"/>
+    <mergeCell ref="M21:M22"/>
+    <mergeCell ref="M23:M24"/>
+    <mergeCell ref="M25:M26"/>
+    <mergeCell ref="M27:M28"/>
+    <mergeCell ref="M29:M30"/>
+    <mergeCell ref="M31:M32"/>
+    <mergeCell ref="M33:M34"/>
+    <mergeCell ref="M35:M36"/>
+    <mergeCell ref="L36:L37"/>
+    <mergeCell ref="L38:L39"/>
+    <mergeCell ref="L40:L41"/>
+    <mergeCell ref="L42:L43"/>
+    <mergeCell ref="L44:L45"/>
+    <mergeCell ref="L26:L27"/>
+    <mergeCell ref="L28:L29"/>
+    <mergeCell ref="L30:L31"/>
+    <mergeCell ref="M47:M48"/>
+    <mergeCell ref="M49:M50"/>
+    <mergeCell ref="M51:M52"/>
+    <mergeCell ref="N12:N13"/>
+    <mergeCell ref="N14:N15"/>
+    <mergeCell ref="N16:N17"/>
+    <mergeCell ref="N18:N19"/>
+    <mergeCell ref="N20:N21"/>
+    <mergeCell ref="N22:N23"/>
+    <mergeCell ref="N24:N25"/>
+    <mergeCell ref="N26:N27"/>
+    <mergeCell ref="N28:N29"/>
+    <mergeCell ref="N30:N31"/>
+    <mergeCell ref="N32:N33"/>
+    <mergeCell ref="N34:N35"/>
+    <mergeCell ref="N36:N37"/>
+    <mergeCell ref="M37:M38"/>
+    <mergeCell ref="M39:M40"/>
+    <mergeCell ref="M41:M42"/>
+    <mergeCell ref="M43:M44"/>
+    <mergeCell ref="M45:M46"/>
+    <mergeCell ref="O45:O46"/>
+    <mergeCell ref="O47:O48"/>
+    <mergeCell ref="N48:N49"/>
+    <mergeCell ref="N50:N51"/>
+    <mergeCell ref="O11:O12"/>
+    <mergeCell ref="O13:O14"/>
+    <mergeCell ref="O15:O16"/>
+    <mergeCell ref="O17:O18"/>
+    <mergeCell ref="O19:O20"/>
+    <mergeCell ref="O21:O22"/>
+    <mergeCell ref="O23:O24"/>
+    <mergeCell ref="O25:O26"/>
+    <mergeCell ref="O27:O28"/>
+    <mergeCell ref="O29:O30"/>
+    <mergeCell ref="O31:O32"/>
+    <mergeCell ref="O33:O34"/>
+    <mergeCell ref="O35:O36"/>
+    <mergeCell ref="O37:O38"/>
+    <mergeCell ref="N38:N39"/>
+    <mergeCell ref="N40:N41"/>
+    <mergeCell ref="N42:N43"/>
+    <mergeCell ref="N44:N45"/>
+    <mergeCell ref="N46:N47"/>
     <mergeCell ref="P40:P41"/>
     <mergeCell ref="P42:P43"/>
     <mergeCell ref="P44:P45"/>
@@ -5896,171 +6001,6 @@
     <mergeCell ref="O39:O40"/>
     <mergeCell ref="O41:O42"/>
     <mergeCell ref="O43:O44"/>
-    <mergeCell ref="O45:O46"/>
-    <mergeCell ref="O47:O48"/>
-    <mergeCell ref="N48:N49"/>
-    <mergeCell ref="N50:N51"/>
-    <mergeCell ref="O11:O12"/>
-    <mergeCell ref="O13:O14"/>
-    <mergeCell ref="O15:O16"/>
-    <mergeCell ref="O17:O18"/>
-    <mergeCell ref="O19:O20"/>
-    <mergeCell ref="O21:O22"/>
-    <mergeCell ref="O23:O24"/>
-    <mergeCell ref="O25:O26"/>
-    <mergeCell ref="O27:O28"/>
-    <mergeCell ref="O29:O30"/>
-    <mergeCell ref="O31:O32"/>
-    <mergeCell ref="O33:O34"/>
-    <mergeCell ref="O35:O36"/>
-    <mergeCell ref="O37:O38"/>
-    <mergeCell ref="N38:N39"/>
-    <mergeCell ref="N40:N41"/>
-    <mergeCell ref="N42:N43"/>
-    <mergeCell ref="N44:N45"/>
-    <mergeCell ref="N46:N47"/>
-    <mergeCell ref="M47:M48"/>
-    <mergeCell ref="M49:M50"/>
-    <mergeCell ref="M51:M52"/>
-    <mergeCell ref="N12:N13"/>
-    <mergeCell ref="N14:N15"/>
-    <mergeCell ref="N16:N17"/>
-    <mergeCell ref="N18:N19"/>
-    <mergeCell ref="N20:N21"/>
-    <mergeCell ref="N22:N23"/>
-    <mergeCell ref="N24:N25"/>
-    <mergeCell ref="N26:N27"/>
-    <mergeCell ref="N28:N29"/>
-    <mergeCell ref="N30:N31"/>
-    <mergeCell ref="N32:N33"/>
-    <mergeCell ref="N34:N35"/>
-    <mergeCell ref="N36:N37"/>
-    <mergeCell ref="M37:M38"/>
-    <mergeCell ref="M39:M40"/>
-    <mergeCell ref="M41:M42"/>
-    <mergeCell ref="M43:M44"/>
-    <mergeCell ref="M45:M46"/>
-    <mergeCell ref="L46:L47"/>
-    <mergeCell ref="L48:L49"/>
-    <mergeCell ref="L50:L51"/>
-    <mergeCell ref="L52:L53"/>
-    <mergeCell ref="M13:M14"/>
-    <mergeCell ref="M15:M16"/>
-    <mergeCell ref="M17:M18"/>
-    <mergeCell ref="M19:M20"/>
-    <mergeCell ref="M21:M22"/>
-    <mergeCell ref="M23:M24"/>
-    <mergeCell ref="M25:M26"/>
-    <mergeCell ref="M27:M28"/>
-    <mergeCell ref="M29:M30"/>
-    <mergeCell ref="M31:M32"/>
-    <mergeCell ref="M33:M34"/>
-    <mergeCell ref="M35:M36"/>
-    <mergeCell ref="L36:L37"/>
-    <mergeCell ref="L38:L39"/>
-    <mergeCell ref="L40:L41"/>
-    <mergeCell ref="L42:L43"/>
-    <mergeCell ref="L44:L45"/>
-    <mergeCell ref="L26:L27"/>
-    <mergeCell ref="L28:L29"/>
-    <mergeCell ref="L30:L31"/>
-    <mergeCell ref="L32:L33"/>
-    <mergeCell ref="L34:L35"/>
-    <mergeCell ref="K45:K46"/>
-    <mergeCell ref="K47:K48"/>
-    <mergeCell ref="K49:K50"/>
-    <mergeCell ref="K51:K52"/>
-    <mergeCell ref="K53:K54"/>
-    <mergeCell ref="K35:K36"/>
-    <mergeCell ref="K37:K38"/>
-    <mergeCell ref="K39:K40"/>
-    <mergeCell ref="K41:K42"/>
-    <mergeCell ref="K43:K44"/>
-    <mergeCell ref="K33:K34"/>
-    <mergeCell ref="K19:K20"/>
-    <mergeCell ref="K29:K30"/>
-    <mergeCell ref="K17:K18"/>
-    <mergeCell ref="K21:K22"/>
-    <mergeCell ref="K25:K26"/>
-    <mergeCell ref="K27:K28"/>
-    <mergeCell ref="K31:K32"/>
-    <mergeCell ref="K1:P2"/>
-    <mergeCell ref="K15:K16"/>
-    <mergeCell ref="K23:K24"/>
-    <mergeCell ref="L14:L15"/>
-    <mergeCell ref="L16:L17"/>
-    <mergeCell ref="L18:L19"/>
-    <mergeCell ref="L20:L21"/>
-    <mergeCell ref="L22:L23"/>
-    <mergeCell ref="L24:L25"/>
-    <mergeCell ref="G19:G20"/>
-    <mergeCell ref="H18:H19"/>
-    <mergeCell ref="I19:I20"/>
-    <mergeCell ref="G29:G30"/>
-    <mergeCell ref="H28:H29"/>
-    <mergeCell ref="I29:I30"/>
-    <mergeCell ref="H40:H41"/>
-    <mergeCell ref="G41:G42"/>
-    <mergeCell ref="I41:I42"/>
-    <mergeCell ref="H42:H43"/>
-    <mergeCell ref="G43:G44"/>
-    <mergeCell ref="I43:I44"/>
-    <mergeCell ref="H44:H45"/>
-    <mergeCell ref="G39:G40"/>
-    <mergeCell ref="H38:H39"/>
-    <mergeCell ref="I39:I40"/>
-    <mergeCell ref="H30:H31"/>
-    <mergeCell ref="G31:G32"/>
-    <mergeCell ref="I31:I32"/>
-    <mergeCell ref="H32:H33"/>
-    <mergeCell ref="G33:G34"/>
-    <mergeCell ref="I33:I34"/>
-    <mergeCell ref="H34:H35"/>
-    <mergeCell ref="G35:G36"/>
-    <mergeCell ref="I35:I36"/>
-    <mergeCell ref="H36:H37"/>
-    <mergeCell ref="G37:G38"/>
-    <mergeCell ref="I37:I38"/>
-    <mergeCell ref="G25:G26"/>
-    <mergeCell ref="I25:I26"/>
-    <mergeCell ref="H26:H27"/>
-    <mergeCell ref="G27:G28"/>
-    <mergeCell ref="I27:I28"/>
-    <mergeCell ref="H10:H11"/>
-    <mergeCell ref="I11:I12"/>
-    <mergeCell ref="G13:G14"/>
-    <mergeCell ref="H12:H13"/>
-    <mergeCell ref="I13:I14"/>
-    <mergeCell ref="H14:H15"/>
-    <mergeCell ref="I15:I16"/>
-    <mergeCell ref="H16:H17"/>
-    <mergeCell ref="I17:I18"/>
-    <mergeCell ref="C63:C74"/>
-    <mergeCell ref="C3:C14"/>
-    <mergeCell ref="C1:E2"/>
-    <mergeCell ref="G11:G12"/>
-    <mergeCell ref="G15:G16"/>
-    <mergeCell ref="G17:G18"/>
-    <mergeCell ref="G8:I8"/>
-    <mergeCell ref="G1:I2"/>
-    <mergeCell ref="H20:H21"/>
-    <mergeCell ref="G21:G22"/>
-    <mergeCell ref="I21:I22"/>
-    <mergeCell ref="H22:H23"/>
-    <mergeCell ref="G23:G24"/>
-    <mergeCell ref="I23:I24"/>
-    <mergeCell ref="H24:H25"/>
-    <mergeCell ref="A1:B1"/>
-    <mergeCell ref="C15:C26"/>
-    <mergeCell ref="C27:C38"/>
-    <mergeCell ref="C39:C50"/>
-    <mergeCell ref="C51:C62"/>
-    <mergeCell ref="C123:C134"/>
-    <mergeCell ref="C135:C146"/>
-    <mergeCell ref="C75:C86"/>
-    <mergeCell ref="C87:C98"/>
-    <mergeCell ref="C99:C110"/>
-    <mergeCell ref="C111:C122"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
